--- a/Пропусканая способность светофора.xlsx
+++ b/Пропусканая способность светофора.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Artem\Аспирантура\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Artem\Аспирантура\Пропусканя способность светофора\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C5B8BE-233D-4549-8124-158C01846F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B43A03-390B-4D8E-9A28-C09CBCC2DC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Светофор горит (сек.)</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>L</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>1-е слагаемое - время через которое поедет К-ая машина, 2-е слагаемое - поиск времени зная растояние(которое проедем после разгона) и постоянную скорость, 3-е слагаемое - поиск времени зная растояние которон будем разгонятся до макс и ускорение</t>
@@ -120,9 +117,6 @@
     <t>Дискриминант</t>
   </si>
   <si>
-    <t>Поиск колличества проехавших машин в за рамками                 . При k меньше  1</t>
-  </si>
-  <si>
     <t>Коэффициент для выбора формулы поиска количества автомобилей</t>
   </si>
   <si>
@@ -130,6 +124,24 @@
   </si>
   <si>
     <t>Номер первой машины которая рагониться до макс скорости</t>
+  </si>
+  <si>
+    <t>Поиск колличества проехавших машин в за рамками                 . При k больше  1</t>
+  </si>
+  <si>
+    <t>Светофор не горит (сек.)</t>
+  </si>
+  <si>
+    <t>Интенсивность обслуживания в час (Мю)</t>
+  </si>
+  <si>
+    <t>Интенсивность поступления заявок в сисетему в час (Лямбда)</t>
+  </si>
+  <si>
+    <t>λ</t>
+  </si>
+  <si>
+    <t>Мощность потока (Ро) от интенсивности обслуживаиня</t>
   </si>
 </sst>
 </file>
@@ -181,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +212,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -341,121 +359,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -470,48 +469,83 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,7 +570,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>251707</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>46008</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1343060" cy="322396"/>
@@ -860,8 +894,8 @@
       <xdr:rowOff>20764</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1249509" cy="338619"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -1036,7 +1070,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -1113,8 +1147,8 @@
       <xdr:rowOff>24464</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2357953" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -1357,7 +1391,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -1482,8 +1516,8 @@
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3609578" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -1849,7 +1883,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -2016,8 +2050,8 @@
       <xdr:rowOff>31694</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3129896" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -2448,7 +2482,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -2639,8 +2673,8 @@
       <xdr:rowOff>111015</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4354269" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15">
@@ -3226,7 +3260,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15">
@@ -3480,8 +3514,8 @@
       <xdr:rowOff>32188</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4273670" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -4060,7 +4094,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -4414,8 +4448,8 @@
       <xdr:rowOff>97877</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3034933" cy="532710"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -5013,7 +5047,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -5300,8 +5334,8 @@
       <xdr:rowOff>36059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1848711" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -5568,7 +5602,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -5681,8 +5715,8 @@
       <xdr:rowOff>155330</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2151949" cy="322396"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -6057,7 +6091,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -6200,8 +6234,8 @@
       <xdr:rowOff>133794</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2609021" cy="316882"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -6564,7 +6598,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -6707,8 +6741,8 @@
       <xdr:rowOff>182218</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2493062" cy="266740"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -6988,7 +7022,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -7092,8 +7126,8 @@
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2246246" cy="317972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -7340,7 +7374,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -7459,8 +7493,8 @@
       <xdr:rowOff>106015</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2474845" cy="465485"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -7823,7 +7857,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -7975,8 +8009,8 @@
       <xdr:rowOff>59634</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1849865" cy="413831"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25">
@@ -8197,7 +8231,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25">
@@ -8286,8 +8320,8 @@
       <xdr:rowOff>72887</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1438920" cy="431593"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -8545,7 +8579,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -8628,8 +8662,8 @@
       <xdr:rowOff>82827</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1361527" cy="431593"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27">
@@ -8887,7 +8921,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27">
@@ -8966,7 +9000,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>563209</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>132520</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1912896" cy="344966"/>
@@ -9250,13 +9284,13 @@
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>разгона</a:t>
+                <a:t>разгона^</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>^2)/2</a:t>
+                <a:t>2)/2</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -9268,12 +9302,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>23191</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>536713</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="580736" cy="184794"/>
+    <xdr:ext cx="770467" cy="184794"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -9289,8 +9323,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3882887" y="0"/>
-              <a:ext cx="580736" cy="184794"/>
+              <a:off x="3783496" y="0"/>
+              <a:ext cx="770467" cy="184794"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9317,6 +9351,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9344,7 +9379,7 @@
                           <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>светофора</m:t>
+                          <m:t>светофора вкл</m:t>
                         </m:r>
                       </m:sub>
                     </m:sSub>
@@ -9370,8 +9405,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3882887" y="0"/>
-              <a:ext cx="580736" cy="184794"/>
+              <a:off x="3783496" y="0"/>
+              <a:ext cx="770467" cy="184794"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9398,6 +9433,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -9408,7 +9444,7 @@
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>_светофора</a:t>
+                <a:t>_(светофора вкл)</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -9422,7 +9458,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>139140</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>114304</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="313419" cy="172227"/>
@@ -9469,6 +9505,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9483,7 +9520,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9496,7 +9533,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9510,7 +9547,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9568,13 +9605,14 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -9586,7 +9624,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -9604,7 +9642,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>6619</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>14908</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="940642" cy="317972"/>
@@ -9651,6 +9689,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9769,6 +9808,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -9799,7 +9839,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>371060</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>180560</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="457625" cy="184731"/>
@@ -9861,7 +9901,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9874,7 +9914,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9888,7 +9928,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9953,7 +9993,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -9965,7 +10005,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -9983,10 +10023,10 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>387619</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>114304</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3498522" cy="532710"/>
+    <xdr:ext cx="3688254" cy="532710"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -10002,8 +10042,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2408576" y="5174978"/>
-              <a:ext cx="3498522" cy="532710"/>
+              <a:off x="2408576" y="5365478"/>
+              <a:ext cx="3688254" cy="532710"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10182,7 +10222,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>светофора</m:t>
+                              <m:t>светофора вкл</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -10600,8 +10640,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2408576" y="5174978"/>
-              <a:ext cx="3498522" cy="532710"/>
+              <a:off x="2408576" y="5365478"/>
+              <a:ext cx="3688254" cy="532710"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10663,7 +10703,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>∗𝑡_</a:t>
+                <a:t>∗𝑡_(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
@@ -10675,7 +10715,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>светофора</a:t>
+                <a:t>светофора вкл</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -10687,7 +10727,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)+𝑆_(</a:t>
+                <a:t>))+𝑆_(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
@@ -10869,7 +10909,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>230256</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>188843</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -10924,10 +10964,10 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>528426</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>81165</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1963294" cy="431593"/>
+    <xdr:ext cx="2153025" cy="431593"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -10943,8 +10983,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3162296" y="3998839"/>
-              <a:ext cx="1963294" cy="431593"/>
+              <a:off x="3162296" y="4760839"/>
+              <a:ext cx="2153025" cy="431593"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11046,7 +11086,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11059,7 +11099,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11073,11 +11113,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>светофора</m:t>
+                                  <m:t>светофора вкл</m:t>
                                 </m:r>
                               </m:sub>
                             </m:sSub>
@@ -11225,8 +11265,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3162296" y="3998839"/>
-              <a:ext cx="1963294" cy="431593"/>
+              <a:off x="3162296" y="4760839"/>
+              <a:ext cx="2153025" cy="431593"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11290,11 +11330,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑡_</a:t>
+                <a:t>𝑡_(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
@@ -11302,11 +11342,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>светофора</a:t>
+                <a:t>светофора вкл</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -11318,7 +11358,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>  −2𝐿/𝑎)−√𝐷)/(</a:t>
+                <a:t>)  −2𝐿/𝑎)−√𝐷)/(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -11338,10 +11378,10 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>89446</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>81168</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2921313" cy="413831"/>
+    <xdr:ext cx="3300775" cy="413831"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -11357,8 +11397,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2723316" y="3004929"/>
-              <a:ext cx="2921313" cy="413831"/>
+              <a:off x="2723316" y="4189342"/>
+              <a:ext cx="3300775" cy="413831"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11454,7 +11494,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11467,7 +11507,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -11481,11 +11521,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>светофора</m:t>
+                                  <m:t>светофора вкл</m:t>
                                 </m:r>
                               </m:sub>
                             </m:sSub>
@@ -11495,23 +11535,11 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t> </m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>+</m:t>
+                              <m:t> +</m:t>
                             </m:r>
                             <m:f>
                               <m:fPr>
@@ -11607,7 +11635,7 @@
                           <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>светофора</m:t>
+                          <m:t>светофора вкл</m:t>
                         </m:r>
                       </m:sub>
                       <m:sup>
@@ -11641,8 +11669,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2723316" y="3004929"/>
-              <a:ext cx="2921313" cy="413831"/>
+              <a:off x="2723316" y="4189342"/>
+              <a:ext cx="3300775" cy="413831"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11712,11 +11740,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑡_</a:t>
+                <a:t>𝑡_(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
@@ -11724,11 +11752,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>светофора</a:t>
+                <a:t>светофора вкл</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -11736,47 +11764,35 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>  </a:t>
+                <a:t>)  +2𝐿/𝑎)^</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+2𝐿/𝑎)^</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2−4∗1∗𝑡_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>светофора вкл</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>2−4∗1∗𝑡_</a:t>
+                <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>светофора</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>2</a:t>
+                <a:t>^2</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -11790,7 +11806,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>639417</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>84482</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="457625" cy="184731"/>
@@ -11852,7 +11868,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11865,7 +11881,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11879,7 +11895,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11944,7 +11960,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -11956,7 +11972,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -11974,7 +11990,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>611255</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>31473</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3030253" cy="500137"/>
@@ -12343,7 +12359,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>387622</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>106017</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1068947" cy="361446"/>
@@ -12390,6 +12406,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -12438,7 +12455,7 @@
                               <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
                                 <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
-                              <m:t>светофора</m:t>
+                              <m:t>светофора вкл</m:t>
                             </m:r>
                           </m:sub>
                         </m:sSub>
@@ -12521,23 +12538,24 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑘=𝑡_</a:t>
+                <a:t>𝑘=𝑡_(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>светофора</a:t>
+                <a:t>светофора вкл</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>/𝑡_(</a:t>
+                <a:t>)/𝑡_(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
@@ -12549,7 +12567,665 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>) </a:t>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523461</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177249</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="847476" cy="184794"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E84E72-CE3B-4570-9FDD-5454F2D3E00F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3770244" y="177249"/>
+              <a:ext cx="847476" cy="184794"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>светофора выкл</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E84E72-CE3B-4570-9FDD-5454F2D3E00F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3770244" y="177249"/>
+              <a:ext cx="847476" cy="184794"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_(светофора выкл)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>188847</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>89454</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2445541" cy="385618"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B8C9E7-FE2B-73B9-0A1F-FE41D20FB8F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11072195" y="89454"/>
+              <a:ext cx="2445541" cy="385618"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3600</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑡</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>светофора вкл</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+ </m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑡</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>светофора выкл</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐾</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B8C9E7-FE2B-73B9-0A1F-FE41D20FB8F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11072195" y="89454"/>
+              <a:ext cx="2445541" cy="385618"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(3600/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_(светофора вкл)+ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_(светофора выкл) ))∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>586411</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>39756</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="409151" cy="345736"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A6066F-F52D-5193-0224-B7E634486118}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12082672" y="1017104"/>
+              <a:ext cx="409151" cy="345736"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜌</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>λ</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A6066F-F52D-5193-0224-B7E634486118}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12082672" y="1017104"/>
+              <a:ext cx="409151" cy="345736"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜌</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> "λ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" /</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -12825,10 +13501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12840,1021 +13516,1028 @@
     <col min="19" max="19" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="44">
+      <c r="B1" s="7"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="51">
         <v>15</v>
       </c>
+      <c r="N1" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="5">
+        <f>IF(K25="-",(3600/(K1+K2))*K28,(3600/(K1+K2))*K25)</f>
+        <v>509.16730868040162</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="35" t="s">
-        <v>28</v>
-      </c>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
-      <c r="K2" s="11">
+      <c r="K2" s="3">
+        <v>45</v>
+      </c>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="5">
         <v>2</v>
       </c>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="11"/>
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5"/>
+      <c r="N4" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5">
+        <v>728</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+    <row r="5" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="5">
+        <v>70</v>
+      </c>
+      <c r="L5" s="5">
+        <f>K5/3.6</f>
+        <v>19.444444444444443</v>
+      </c>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="N6" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="5">
+        <f>U4/U1</f>
+        <v>1.4297854312107008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="9">
+        <v>5</v>
+      </c>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="11">
-        <v>70</v>
-      </c>
-      <c r="L4" s="11">
-        <f>K4/3.6</f>
-        <v>19.444444444444443</v>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="5">
+        <f>(L5-0)/2</f>
+        <v>9.7222222222222214</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="10">
-        <v>5</v>
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="5">
+        <f>0*K9+((K3*(K9^2))/2)</f>
+        <v>94.521604938271594</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="11"/>
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="5"/>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="11">
-        <f>(L4-0)/2</f>
-        <v>9.7222222222222214</v>
-      </c>
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="11"/>
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="5">
+        <f>K11/K7+1</f>
+        <v>19.904320987654319</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26">
-        <f>0*K8+((K2*(K8^2))/2)</f>
-        <v>94.521604938271594</v>
-      </c>
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="5"/>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="5">
+        <f>K14+SQRT((2*(K14*K7))/K3)</f>
+        <v>29.880372558204243</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26">
-        <f>K10/K6+1</f>
-        <v>19.904320987654319</v>
-      </c>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="5"/>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="5">
+        <f>K1/K16</f>
+        <v>0.50200177292908132</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="5">
+        <f>IF(K19&lt;= 1,(-(2*K1+((2*K7)/K3))^2)-4*K1^2,"-")</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="40">
+        <f>IF(K19&lt;= 1,(((2*K1)+((2*K7)/K3))-SQRT(K22))/2,"-")</f>
+        <v>8.486121811340027</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="41"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="11">
-        <f>K13+SQRT((2*(K13*K6))/K2)</f>
-        <v>29.880372558204243</v>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="5" t="str">
+        <f>IF(K19&gt;1,((K1*L5)+K11-(L5*SQRT(((2*K11)/K3))))/(K7+L5),"-")</f>
+        <v>-</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="11"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="5"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="11"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="5"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="11">
-        <f>K1/K15</f>
-        <v>0.50200177292908132</v>
-      </c>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="5"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="11"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="11">
-        <f>IF(K18&lt;= 1,(-(2*K1+((2*K6)/K2))^2)-4*K1^2,"-")</f>
-        <v>325</v>
-      </c>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="11"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="11"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="45"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="8">
-        <f>IF(K18&lt;= 1,(((2*K1)+((2*K6)/K2))-SQRT(K21))/2,"-")</f>
-        <v>8.486121811340027</v>
-      </c>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="9"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="10"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="11" t="str">
-        <f>IF(K18&gt;1,((K1*L4)+K10-(L4*SQRT(((2*K10)/K2))))/(K6+L4),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="32" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f>A34*1+SQRT((2*($L$54)/$K$2))+((A35-$L$54)/$L$4)</f>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>A35*1+SQRT((2*($L$54)/$K$3))+((A36-$L$54)/$L$5)</f>
         <v>6.1182539682539678</v>
       </c>
-      <c r="B32">
-        <f>B34*1+SQRT((2*($L$54)/$K$2))+((B35-$L$54)/$L$4)</f>
+      <c r="B33">
+        <f>B35*1+SQRT((2*($L$54)/$K$3))+((B36-$L$54)/$L$5)</f>
         <v>7.375396825396825</v>
       </c>
-      <c r="C32">
-        <f>C34*1+SQRT((2*($L$54)/$K$2))+((C35-$L$54)/$L$4)</f>
+      <c r="C33">
+        <f>C35*1+SQRT((2*($L$54)/$K$3))+((C36-$L$54)/$L$5)</f>
         <v>8.632539682539683</v>
       </c>
-      <c r="D32">
-        <f>D34*1+SQRT((2*($L$54)/$K$2))+((D35-$L$54)/$L$4)</f>
+      <c r="D33">
+        <f>D35*1+SQRT((2*($L$54)/$K$3))+((D36-$L$54)/$L$5)</f>
         <v>9.8896825396825392</v>
       </c>
-      <c r="E32">
-        <f>E34*1+SQRT((2*($L$54)/$K$2))+((E35-$L$54)/$L$4)</f>
+      <c r="E33">
+        <f>E35*1+SQRT((2*($L$54)/$K$3))+((E36-$L$54)/$L$5)</f>
         <v>11.146825396825395</v>
       </c>
-      <c r="F32">
-        <f>F34*1+SQRT((2*($L$54)/$K$2))+((F35-$L$54)/$L$4)</f>
+      <c r="F33">
+        <f>F35*1+SQRT((2*($L$54)/$K$3))+((F36-$L$54)/$L$5)</f>
         <v>12.403968253968253</v>
       </c>
-      <c r="G32">
-        <f>G34*1+SQRT((2*($L$54)/$K$2))+((G35-$L$54)/$L$4)</f>
+      <c r="G33">
+        <f>G35*1+SQRT((2*($L$54)/$K$3))+((G36-$L$54)/$L$5)</f>
         <v>13.661111111111111</v>
       </c>
-      <c r="H32">
-        <f>H34*1+SQRT((2*($L$54)/$K$2))+((H35-$L$54)/$L$4)</f>
+      <c r="H33">
+        <f>H35*1+SQRT((2*($L$54)/$K$3))+((H36-$L$54)/$L$5)</f>
         <v>14.918253968253968</v>
       </c>
-      <c r="I32">
-        <f>I34*1+SQRT((2*($L$54)/$K$2))+((I35-$L$54)/$L$4)</f>
+      <c r="I33">
+        <f>I35*1+SQRT((2*($L$54)/$K$3))+((I36-$L$54)/$L$5)</f>
         <v>16.175396825396824</v>
       </c>
-      <c r="J32">
-        <f>J34*1+SQRT((2*($L$54)/$K$2))+((J35-$L$54)/$L$4)</f>
+      <c r="J33">
+        <f>J35*1+SQRT((2*($L$54)/$K$3))+((J36-$L$54)/$L$5)</f>
         <v>17.432539682539684</v>
       </c>
-      <c r="K32">
-        <f>K34*1+SQRT((2*($L$54)/$K$2))+((K35-$L$54)/$L$4)</f>
+      <c r="K33">
+        <f>K35*1+SQRT((2*($L$54)/$K$3))+((K36-$L$54)/$L$5)</f>
         <v>18.68968253968254</v>
       </c>
-      <c r="L32">
-        <f>L34*1+SQRT((2*($L$54)/$K$2))+((L35-$L$54)/$L$4)</f>
+      <c r="L33">
+        <f>L35*1+SQRT((2*($L$54)/$K$3))+((L36-$L$54)/$L$5)</f>
         <v>19.946825396825396</v>
       </c>
-      <c r="M32">
-        <f>M34*1+SQRT((2*($L$54)/$K$2))+((M35-$L$54)/$L$4)</f>
+      <c r="M33">
+        <f>M35*1+SQRT((2*($L$54)/$K$3))+((M36-$L$54)/$L$5)</f>
         <v>21.203968253968252</v>
       </c>
-      <c r="N32">
-        <f>N34*1+SQRT((2*($L$54)/$K$2))+((N35-$L$54)/$L$4)</f>
+      <c r="N33">
+        <f>N35*1+SQRT((2*($L$54)/$K$3))+((N36-$L$54)/$L$5)</f>
         <v>22.461111111111112</v>
       </c>
-      <c r="O32">
-        <f>O34*1+SQRT((2*($L$54)/$K$2))+((O35-$L$54)/$L$4)</f>
+      <c r="O33">
+        <f>O35*1+SQRT((2*($L$54)/$K$3))+((O36-$L$54)/$L$5)</f>
         <v>23.718253968253968</v>
       </c>
-      <c r="P32">
-        <f>P34*1+SQRT((2*($L$54)/$K$2))+((P35-$L$54)/$L$4)</f>
+      <c r="P33">
+        <f>P35*1+SQRT((2*($L$54)/$K$3))+((P36-$L$54)/$L$5)</f>
         <v>24.975396825396825</v>
       </c>
-      <c r="Q32">
-        <f>Q34*1+SQRT((2*($L$54)/$K$2))+((Q35-$L$54)/$L$4)</f>
+      <c r="Q33">
+        <f>Q35*1+SQRT((2*($L$54)/$K$3))+((Q36-$L$54)/$L$5)</f>
         <v>26.232539682539681</v>
       </c>
-      <c r="R32">
-        <f>R34*1+SQRT((2*($L$54)/$K$2))+((R35-$L$54)/$L$4)</f>
+      <c r="R33">
+        <f>R35*1+SQRT((2*($L$54)/$K$3))+((R36-$L$54)/$L$5)</f>
         <v>27.489682539682541</v>
       </c>
-      <c r="S32">
-        <f>S34*1+SQRT((2*($L$54)/$K$2))+((S35-$L$54)/$L$4)</f>
+      <c r="S33">
+        <f>S35*1+SQRT((2*($L$54)/$K$3))+((S36-$L$54)/$L$5)</f>
         <v>28.746825396825397</v>
       </c>
-      <c r="T32">
-        <f>T34*1+SQRT((2*($L$54)/$K$2))+((T35-$L$54)/$L$4)</f>
+      <c r="T33">
+        <f>T35*1+SQRT((2*($L$54)/$K$3))+((T36-$L$54)/$L$5)</f>
         <v>30.003968253968253</v>
       </c>
-      <c r="U32">
-        <f>U34*1+SQRT((2*($L$54)/$K$2))+((U35-$L$54)/$L$4)</f>
+      <c r="U33">
+        <f>U35*1+SQRT((2*($L$54)/$K$3))+((U36-$L$54)/$L$5)</f>
         <v>31.261111111111109</v>
       </c>
-      <c r="V32">
-        <f>V34*1+SQRT((2*($L$54)/$K$2))+((V35-$L$54)/$L$4)</f>
+      <c r="V33">
+        <f>V35*1+SQRT((2*($L$54)/$K$3))+((V36-$L$54)/$L$5)</f>
         <v>32.518253968253966</v>
       </c>
-      <c r="W32">
-        <f>W34*1+SQRT((2*($L$54)/$K$2))+((W35-$L$54)/$L$4)</f>
+      <c r="W33">
+        <f>W35*1+SQRT((2*($L$54)/$K$3))+((W36-$L$54)/$L$5)</f>
         <v>33.775396825396825</v>
       </c>
-      <c r="X32">
-        <f>X34*1+SQRT((2*($L$54)/$K$2))+((X35-$L$54)/$L$4)</f>
+      <c r="X33">
+        <f>X35*1+SQRT((2*($L$54)/$K$3))+((X36-$L$54)/$L$5)</f>
         <v>35.032539682539685</v>
       </c>
-      <c r="Y32">
-        <f>Y34*1+SQRT((2*($L$54)/$K$2))+((Y35-$L$54)/$L$4)</f>
+      <c r="Y33">
+        <f>Y35*1+SQRT((2*($L$54)/$K$3))+((Y36-$L$54)/$L$5)</f>
         <v>36.289682539682538</v>
       </c>
-      <c r="Z32">
-        <f>Z34*1+SQRT((2*($L$54)/$K$2))+((Z35-$L$54)/$L$4)</f>
+      <c r="Z33">
+        <f>Z35*1+SQRT((2*($L$54)/$K$3))+((Z36-$L$54)/$L$5)</f>
         <v>55.146825396825399</v>
       </c>
-      <c r="AA32">
-        <f>AA34*1+((AA35-$L$54)/$L$4)+ SQRT((2*($L$54)/$K$2))</f>
+      <c r="AA33">
+        <f>AA35*1+((AA36-$L$54)/$L$5)+ SQRT((2*($L$54)/$K$3))</f>
         <v>105.4325396825397</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <f>A34*1+SQRT((2*(A34*5))/K2)</f>
-        <v>3.2360679774997898</v>
-      </c>
-      <c r="B33" s="2">
-        <f>B34*1+SQRT((2*(B34*5))/$K$2)</f>
-        <v>5.16227766016838</v>
-      </c>
-      <c r="C33" s="2">
-        <f>C34*1+SQRT((2*(C34*5))/$K$2)</f>
-        <v>6.872983346207417</v>
-      </c>
-      <c r="D33" s="2">
-        <f>D34*1+SQRT((2*(D34*5))/$K$2)</f>
-        <v>8.4721359549995796</v>
-      </c>
-      <c r="E33" s="2">
-        <f>E34*1+SQRT((2*(E34*5))/$K$2)</f>
-        <v>10</v>
-      </c>
-      <c r="F33" s="2">
-        <f>F34*1+SQRT((2*(F34*5))/$K$2)</f>
-        <v>11.477225575051662</v>
-      </c>
-      <c r="G33" s="2">
-        <f>G34*1+SQRT((2*(G34*5))/$K$2)</f>
-        <v>12.916079783099615</v>
-      </c>
-      <c r="H33" s="2">
-        <f>H34*1+SQRT((2*(H34*5))/$K$2)</f>
-        <v>14.32455532033676</v>
-      </c>
-      <c r="I33" s="2">
-        <f>I34*1+SQRT((2*(I34*5))/$K$2)</f>
-        <v>15.708203932499369</v>
-      </c>
-      <c r="J33" s="2">
-        <f>J34*1+SQRT((2*(J34*5))/$K$2)</f>
-        <v>17.071067811865476</v>
-      </c>
-      <c r="K33" s="2">
-        <f>K34*1+SQRT((2*(K34*5))/$K$2)</f>
-        <v>18.416198487095663</v>
-      </c>
-      <c r="L33" s="2">
-        <f>L34*1+SQRT((2*(L34*5))/$K$2)</f>
-        <v>19.745966692414832</v>
-      </c>
-      <c r="M33" s="2">
-        <f>M34*1+SQRT((2*(M34*5))/$K$2)</f>
-        <v>21.062257748298549</v>
-      </c>
-      <c r="N33" s="2">
-        <f>N34*1+SQRT((2*(N34*5))/$K$2)</f>
-        <v>22.366600265340757</v>
-      </c>
-      <c r="O33" s="2">
-        <f>O34*1+SQRT((2*(O34*5))/$K$2)</f>
-        <v>23.660254037844389</v>
-      </c>
-      <c r="P33" s="2">
-        <f>P34*1+SQRT((2*(P34*5))/$K$2)</f>
-        <v>24.944271909999159</v>
-      </c>
-      <c r="Q33" s="2">
-        <f>Q34*1+SQRT((2*(Q34*5))/$K$2)</f>
-        <v>26.219544457292887</v>
-      </c>
-      <c r="R33" s="2">
-        <f>R34*1+SQRT((2*(R34*5))/$K$2)</f>
-        <v>27.486832980505138</v>
-      </c>
-      <c r="S33" s="2">
-        <f>S34*1+SQRT((2*(S34*5))/$K$2)</f>
-        <v>28.746794344808961</v>
-      </c>
-      <c r="T33" s="2">
-        <f>T34*1+SQRT((2*(T34*5))/$K$2)</f>
-        <v>30</v>
-      </c>
-      <c r="U33" s="2">
-        <f>U34*1+SQRT((2*(U34*5))/$K$2)</f>
-        <v>31.246950765959596</v>
-      </c>
-      <c r="V33" s="2">
-        <f>V34*1+SQRT((2*(V34*5))/$K$2)</f>
-        <v>32.488088481701517</v>
-      </c>
-      <c r="W33" s="2">
-        <f>W34*1+SQRT((2*(W34*5))/$K$2)</f>
-        <v>33.723805294763608</v>
-      </c>
-      <c r="X33" s="2">
-        <f>X34*1+SQRT((2*(X34*5))/$K$2)</f>
-        <v>34.954451150103324</v>
-      </c>
-      <c r="Y33" s="2">
-        <f>Y34*1+SQRT((2*(Y34*5))/$K$2)</f>
-        <v>36.180339887498945</v>
-      </c>
-      <c r="Z33" s="2">
-        <f>Z34*1+SQRT((2*(Z34*5))/$K$2)</f>
-        <v>54.142135623730951</v>
-      </c>
-      <c r="AA33" s="2">
-        <f>AA34*1+SQRT((2*(AA34*5))/$K$2)</f>
-        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-      <c r="F34">
-        <v>6</v>
-      </c>
-      <c r="G34">
-        <v>7</v>
-      </c>
-      <c r="H34">
-        <v>8</v>
-      </c>
-      <c r="I34">
-        <v>9</v>
-      </c>
-      <c r="J34">
+      <c r="A34" s="2">
+        <f>A35*1+SQRT((2*(A35*5))/K3)</f>
+        <v>3.2360679774997898</v>
+      </c>
+      <c r="B34" s="2">
+        <f>B35*1+SQRT((2*(B35*5))/$K$3)</f>
+        <v>5.16227766016838</v>
+      </c>
+      <c r="C34" s="2">
+        <f>C35*1+SQRT((2*(C35*5))/$K$3)</f>
+        <v>6.872983346207417</v>
+      </c>
+      <c r="D34" s="2">
+        <f>D35*1+SQRT((2*(D35*5))/$K$3)</f>
+        <v>8.4721359549995796</v>
+      </c>
+      <c r="E34" s="2">
+        <f>E35*1+SQRT((2*(E35*5))/$K$3)</f>
         <v>10</v>
       </c>
-      <c r="K34">
-        <v>11</v>
-      </c>
-      <c r="L34">
-        <v>12</v>
-      </c>
-      <c r="M34">
-        <v>13</v>
-      </c>
-      <c r="N34">
-        <v>14</v>
-      </c>
-      <c r="O34">
-        <v>15</v>
-      </c>
-      <c r="P34">
-        <v>16</v>
-      </c>
-      <c r="Q34">
-        <v>17</v>
-      </c>
-      <c r="R34">
-        <v>18</v>
-      </c>
-      <c r="S34">
-        <v>19</v>
-      </c>
-      <c r="T34">
-        <v>20</v>
-      </c>
-      <c r="U34">
-        <v>21</v>
-      </c>
-      <c r="V34">
-        <v>22</v>
-      </c>
-      <c r="W34">
-        <v>23</v>
-      </c>
-      <c r="X34">
-        <v>24</v>
-      </c>
-      <c r="Y34">
-        <v>25</v>
-      </c>
-      <c r="Z34">
-        <v>40</v>
-      </c>
-      <c r="AA34">
-        <v>80</v>
+      <c r="F34" s="2">
+        <f>F35*1+SQRT((2*(F35*5))/$K$3)</f>
+        <v>11.477225575051662</v>
+      </c>
+      <c r="G34" s="2">
+        <f>G35*1+SQRT((2*(G35*5))/$K$3)</f>
+        <v>12.916079783099615</v>
+      </c>
+      <c r="H34" s="2">
+        <f>H35*1+SQRT((2*(H35*5))/$K$3)</f>
+        <v>14.32455532033676</v>
+      </c>
+      <c r="I34" s="2">
+        <f>I35*1+SQRT((2*(I35*5))/$K$3)</f>
+        <v>15.708203932499369</v>
+      </c>
+      <c r="J34" s="2">
+        <f>J35*1+SQRT((2*(J35*5))/$K$3)</f>
+        <v>17.071067811865476</v>
+      </c>
+      <c r="K34" s="2">
+        <f>K35*1+SQRT((2*(K35*5))/$K$3)</f>
+        <v>18.416198487095663</v>
+      </c>
+      <c r="L34" s="2">
+        <f>L35*1+SQRT((2*(L35*5))/$K$3)</f>
+        <v>19.745966692414832</v>
+      </c>
+      <c r="M34" s="2">
+        <f>M35*1+SQRT((2*(M35*5))/$K$3)</f>
+        <v>21.062257748298549</v>
+      </c>
+      <c r="N34" s="2">
+        <f>N35*1+SQRT((2*(N35*5))/$K$3)</f>
+        <v>22.366600265340757</v>
+      </c>
+      <c r="O34" s="2">
+        <f>O35*1+SQRT((2*(O35*5))/$K$3)</f>
+        <v>23.660254037844389</v>
+      </c>
+      <c r="P34" s="2">
+        <f>P35*1+SQRT((2*(P35*5))/$K$3)</f>
+        <v>24.944271909999159</v>
+      </c>
+      <c r="Q34" s="2">
+        <f>Q35*1+SQRT((2*(Q35*5))/$K$3)</f>
+        <v>26.219544457292887</v>
+      </c>
+      <c r="R34" s="2">
+        <f>R35*1+SQRT((2*(R35*5))/$K$3)</f>
+        <v>27.486832980505138</v>
+      </c>
+      <c r="S34" s="2">
+        <f>S35*1+SQRT((2*(S35*5))/$K$3)</f>
+        <v>28.746794344808961</v>
+      </c>
+      <c r="T34" s="2">
+        <f>T35*1+SQRT((2*(T35*5))/$K$3)</f>
+        <v>30</v>
+      </c>
+      <c r="U34" s="2">
+        <f>U35*1+SQRT((2*(U35*5))/$K$3)</f>
+        <v>31.246950765959596</v>
+      </c>
+      <c r="V34" s="2">
+        <f>V35*1+SQRT((2*(V35*5))/$K$3)</f>
+        <v>32.488088481701517</v>
+      </c>
+      <c r="W34" s="2">
+        <f>W35*1+SQRT((2*(W35*5))/$K$3)</f>
+        <v>33.723805294763608</v>
+      </c>
+      <c r="X34" s="2">
+        <f>X35*1+SQRT((2*(X35*5))/$K$3)</f>
+        <v>34.954451150103324</v>
+      </c>
+      <c r="Y34" s="2">
+        <f>Y35*1+SQRT((2*(Y35*5))/$K$3)</f>
+        <v>36.180339887498945</v>
+      </c>
+      <c r="Z34" s="2">
+        <f>Z35*1+SQRT((2*(Z35*5))/$K$3)</f>
+        <v>54.142135623730951</v>
+      </c>
+      <c r="AA34" s="2">
+        <f>AA35*1+SQRT((2*(AA35*5))/$K$3)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" ref="A35:Q35" si="0">A34*5</f>
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
         <v>5</v>
       </c>
-      <c r="B35">
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>9</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>11</v>
+      </c>
+      <c r="L35">
+        <v>12</v>
+      </c>
+      <c r="M35">
+        <v>13</v>
+      </c>
+      <c r="N35">
+        <v>14</v>
+      </c>
+      <c r="O35">
+        <v>15</v>
+      </c>
+      <c r="P35">
+        <v>16</v>
+      </c>
+      <c r="Q35">
+        <v>17</v>
+      </c>
+      <c r="R35">
+        <v>18</v>
+      </c>
+      <c r="S35">
+        <v>19</v>
+      </c>
+      <c r="T35">
+        <v>20</v>
+      </c>
+      <c r="U35">
+        <v>21</v>
+      </c>
+      <c r="V35">
+        <v>22</v>
+      </c>
+      <c r="W35">
+        <v>23</v>
+      </c>
+      <c r="X35">
+        <v>24</v>
+      </c>
+      <c r="Y35">
+        <v>25</v>
+      </c>
+      <c r="Z35">
+        <v>40</v>
+      </c>
+      <c r="AA35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" ref="A36:Q36" si="0">A35*5</f>
+        <v>5</v>
+      </c>
+      <c r="B36">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="J35">
+      <c r="J36">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K35">
+      <c r="K36">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="L35">
+      <c r="L36">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="M35">
+      <c r="M36">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="N35">
+      <c r="N36">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="O35">
+      <c r="O36">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="P35">
+      <c r="P36">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="Q35">
+      <c r="Q36">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="R35">
-        <f>R34*5</f>
+      <c r="R36">
+        <f>R35*5</f>
         <v>90</v>
       </c>
-      <c r="S35">
-        <f>S34*5</f>
+      <c r="S36">
+        <f>S35*5</f>
         <v>95</v>
       </c>
-      <c r="T35">
+      <c r="T36">
         <v>100</v>
       </c>
-      <c r="U35">
-        <f t="shared" ref="U35" si="1">U34*5</f>
+      <c r="U36">
+        <f t="shared" ref="U36" si="1">U35*5</f>
         <v>105</v>
       </c>
-      <c r="V35">
-        <f t="shared" ref="V35" si="2">V34*5</f>
+      <c r="V36">
+        <f t="shared" ref="V36" si="2">V35*5</f>
         <v>110</v>
       </c>
-      <c r="W35">
-        <f t="shared" ref="W35" si="3">W34*5</f>
+      <c r="W36">
+        <f t="shared" ref="W36" si="3">W35*5</f>
         <v>115</v>
       </c>
-      <c r="X35">
-        <f t="shared" ref="X35" si="4">X34*5</f>
+      <c r="X36">
+        <f t="shared" ref="X36" si="4">X35*5</f>
         <v>120</v>
       </c>
-      <c r="Y35">
-        <f t="shared" ref="Y35:AA35" si="5">Y34*5</f>
+      <c r="Y36">
+        <f t="shared" ref="Y36:AA36" si="5">Y35*5</f>
         <v>125</v>
       </c>
-      <c r="Z35">
+      <c r="Z36">
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="AA35">
+      <c r="AA36">
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D36" s="58"/>
-      <c r="X36" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D37" s="58"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D38" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
+      <c r="D38" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
       <c r="R38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S38">
-        <f>(-(2*V40+((2*V41)/K2))^2)-4*V40^2</f>
+        <f>(-(2*V40+((2*V41)/K3))^2)-4*V40^2</f>
         <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="12"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
       <c r="R39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S39">
-        <f>(((2*V40)+((2*V41)/K2))-SQRT(S38))/2</f>
+        <f>(((2*V40)+((2*V41)/K3))-SQRT(S38))/2</f>
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D40" s="12"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
       <c r="R40" s="1" t="s">
         <v>2</v>
       </c>
@@ -13870,21 +14553,21 @@
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D41" s="12"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
       <c r="R41" s="1" t="s">
         <v>3</v>
       </c>
@@ -13900,51 +14583,51 @@
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D42" s="12"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D43" s="12"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D44" s="12"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
       <c r="U44" s="1" t="s">
         <v>4</v>
       </c>
@@ -13953,24 +14636,24 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D45" s="12"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
       <c r="R45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S45" s="1">
-        <f>((V44*L4)+L54-(L4*SQRT(((2*L54)/K2))))/(V45+L4)</f>
+        <f>((V44*L5)+L54-(L5*SQRT(((2*L54)/K3))))/(V45+L5)</f>
         <v>4.0877525252525269</v>
       </c>
       <c r="U45" s="1" t="s">
@@ -13981,595 +14664,593 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D46" s="12"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D47" s="12"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D48" s="12"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
     </row>
     <row r="49" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D49" s="12"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D50" s="12"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D51" s="12"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
     </row>
     <row r="52" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="12"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D53" s="12"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
     </row>
     <row r="54" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D54" s="58"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="11">
-        <f>0*K8+((K2*(K8^2))/2)</f>
+      <c r="D54" s="4"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="5">
+        <f>0*K9+((K3*(K9^2))/2)</f>
         <v>94.521604938271594</v>
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D55" s="58"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="11"/>
+      <c r="D55" s="4"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="5"/>
     </row>
     <row r="56" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D56" s="58"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D57" s="58"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D58" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
+      <c r="D58" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D59" s="12"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D60" s="12"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D61" s="12"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D62" s="12"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D63" s="12"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
     </row>
     <row r="64" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D64" s="12"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D65" s="12"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D66" s="12"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D67" s="12"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D68" s="12"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D69" s="12"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D70" s="12"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D71" s="12"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="46"/>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D72" s="12"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D73" s="12"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D74" s="12"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D75" s="12"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D76" s="12"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D77" s="12"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D78" s="12"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="44"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="44"/>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D79" s="12"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" s="46"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="46"/>
+      <c r="N79" s="46"/>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D80" s="12"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="46"/>
+      <c r="M80" s="46"/>
+      <c r="N80" s="46"/>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D81" s="12"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="46"/>
+      <c r="N81" s="46"/>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D82" s="12"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="K82" s="48"/>
+      <c r="L82" s="48"/>
+      <c r="M82" s="48"/>
+      <c r="N82" s="48"/>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D83" s="12"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="48"/>
+      <c r="K83" s="48"/>
+      <c r="L83" s="48"/>
+      <c r="M83" s="48"/>
+      <c r="N83" s="48"/>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D84" s="12"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="48"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="48"/>
+      <c r="N84" s="48"/>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D85" s="12"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="48"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="48"/>
+      <c r="M85" s="48"/>
+      <c r="N85" s="48"/>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D86" s="12"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="48"/>
+      <c r="M86" s="48"/>
+      <c r="N86" s="48"/>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D87" s="12"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="48"/>
+      <c r="L87" s="48"/>
+      <c r="M87" s="48"/>
+      <c r="N87" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="D2:J3"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A10:C12"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="D8:J9"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="A27:C30"/>
-    <mergeCell ref="D27:J30"/>
-    <mergeCell ref="K27:K30"/>
-    <mergeCell ref="A15:C17"/>
-    <mergeCell ref="D15:J17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="D18:J20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="A18:C20"/>
-    <mergeCell ref="A24:C26"/>
-    <mergeCell ref="A21:C23"/>
-    <mergeCell ref="D24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="D21:J23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="A13:C14"/>
-    <mergeCell ref="D13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="D10:J12"/>
-    <mergeCell ref="D6:J7"/>
-    <mergeCell ref="L4:L5"/>
+  <mergeCells count="79">
+    <mergeCell ref="Q4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="N6:P7"/>
+    <mergeCell ref="Q6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="Q1:T3"/>
+    <mergeCell ref="N1:P3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="J82:N87"/>
+    <mergeCell ref="E82:I84"/>
+    <mergeCell ref="E85:I87"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="J61:N63"/>
+    <mergeCell ref="J64:N66"/>
+    <mergeCell ref="J67:N69"/>
+    <mergeCell ref="J70:N72"/>
+    <mergeCell ref="E79:I81"/>
+    <mergeCell ref="E73:I75"/>
+    <mergeCell ref="E76:I78"/>
+    <mergeCell ref="J79:N81"/>
+    <mergeCell ref="J73:N78"/>
+    <mergeCell ref="E61:I63"/>
+    <mergeCell ref="E64:I66"/>
+    <mergeCell ref="E67:I69"/>
+    <mergeCell ref="E70:I72"/>
+    <mergeCell ref="D58:D87"/>
+    <mergeCell ref="J58:N60"/>
+    <mergeCell ref="L41:P43"/>
+    <mergeCell ref="L47:P49"/>
+    <mergeCell ref="L50:P53"/>
+    <mergeCell ref="E58:I60"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="L54:L55"/>
     <mergeCell ref="E38:K40"/>
@@ -14580,29 +15261,42 @@
     <mergeCell ref="J54:K55"/>
     <mergeCell ref="E44:K46"/>
     <mergeCell ref="E47:K49"/>
-    <mergeCell ref="J58:N60"/>
-    <mergeCell ref="L41:P43"/>
-    <mergeCell ref="L47:P49"/>
-    <mergeCell ref="L50:P53"/>
-    <mergeCell ref="E58:I60"/>
-    <mergeCell ref="E61:I63"/>
-    <mergeCell ref="E64:I66"/>
-    <mergeCell ref="E67:I69"/>
-    <mergeCell ref="E70:I72"/>
-    <mergeCell ref="D58:D87"/>
     <mergeCell ref="D38:D53"/>
-    <mergeCell ref="J61:N63"/>
-    <mergeCell ref="J64:N66"/>
-    <mergeCell ref="J67:N69"/>
-    <mergeCell ref="J70:N72"/>
-    <mergeCell ref="E79:I81"/>
-    <mergeCell ref="E73:I75"/>
-    <mergeCell ref="E76:I78"/>
-    <mergeCell ref="J79:N81"/>
-    <mergeCell ref="J73:N78"/>
-    <mergeCell ref="J82:N87"/>
-    <mergeCell ref="E82:I84"/>
-    <mergeCell ref="E85:I87"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="D11:J13"/>
+    <mergeCell ref="D7:J8"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="D22:J24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="D14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A11:C13"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D9:J10"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="A28:C31"/>
+    <mergeCell ref="D28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="A16:C18"/>
+    <mergeCell ref="D16:J18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="D19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="A19:C21"/>
+    <mergeCell ref="A25:C27"/>
+    <mergeCell ref="A22:C24"/>
+    <mergeCell ref="D25:J27"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="D3:J4"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:J6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Пропусканая способность светофора.xlsx
+++ b/Пропусканая способность светофора.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Artem\Аспирантура\Пропусканя способность светофора\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B43A03-390B-4D8E-9A28-C09CBCC2DC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95490F33-E05D-4A10-A760-1EDD2AAD8EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Светофор горит (сек.)</t>
   </si>
@@ -143,17 +143,37 @@
   <si>
     <t>Мощность потока (Ро) от интенсивности обслуживаиня</t>
   </si>
+  <si>
+    <t>Вероятность того что канал обслуживания свободен</t>
+  </si>
+  <si>
+    <t>Среднее время прибывания заявки в системе (час.) - (мин.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее число заявок находящихся в системе </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Среднее число заявок находящихся в очереди </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,30 +407,135 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -442,110 +567,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,8 +597,8 @@
       <xdr:rowOff>46008</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1343060" cy="322396"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -750,7 +773,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -9004,8 +9027,8 @@
       <xdr:rowOff>132520</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1912896" cy="344966"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -9207,7 +9230,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -9308,8 +9331,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="770467" cy="184794"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="TextBox 28">
@@ -9391,7 +9414,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="TextBox 28">
@@ -9462,8 +9485,8 @@
       <xdr:rowOff>114304</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="313419" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29">
@@ -9563,7 +9586,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29">
@@ -9646,8 +9669,8 @@
       <xdr:rowOff>14908</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="940642" cy="317972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30">
@@ -9766,7 +9789,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30">
@@ -9843,8 +9866,8 @@
       <xdr:rowOff>180560</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="457625" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31">
@@ -9944,7 +9967,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31">
@@ -10027,8 +10050,8 @@
       <xdr:rowOff>114304</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3688254" cy="532710"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="TextBox 33">
@@ -10626,7 +10649,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="TextBox 33">
@@ -10968,8 +10991,8 @@
       <xdr:rowOff>81165</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2153025" cy="431593"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -11251,7 +11274,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -11382,8 +11405,8 @@
       <xdr:rowOff>81168</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3300775" cy="413831"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37">
@@ -11655,7 +11678,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37">
@@ -11810,8 +11833,8 @@
       <xdr:rowOff>84482</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="457625" cy="184731"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="TextBox 38">
@@ -11911,7 +11934,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="TextBox 38">
@@ -11994,8 +12017,8 @@
       <xdr:rowOff>31473</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3030253" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="TextBox 40">
@@ -12238,7 +12261,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="TextBox 40">
@@ -12363,8 +12386,8 @@
       <xdr:rowOff>106017</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1068947" cy="361446"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="42" name="TextBox 41">
@@ -12496,7 +12519,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="42" name="TextBox 41">
@@ -12591,8 +12614,8 @@
       <xdr:rowOff>177249</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="847476" cy="184794"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -12674,7 +12697,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -12745,8 +12768,8 @@
       <xdr:rowOff>89454</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2445541" cy="385618"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -12788,6 +12811,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -12926,7 +12950,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -13033,8 +13057,8 @@
       <xdr:rowOff>39756</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="409151" cy="345736"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -13076,6 +13100,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -13140,7 +13165,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -13226,6 +13251,867 @@
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝜇</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>404194</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130864</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="798039" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1420A006-83DA-B4C6-C291-698F13887B00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11900455" y="1530625"/>
+              <a:ext cx="798039" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=(1−</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜌</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1420A006-83DA-B4C6-C291-698F13887B00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11900455" y="1530625"/>
+              <a:ext cx="798039" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0=(1−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜌</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>437322</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31474</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="896015" cy="318485"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F66455C-8058-7F1C-74D9-60443E8AD14A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11933583" y="1853648"/>
+              <a:ext cx="896015" cy="318485"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑀</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>сист</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜌</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜌</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F66455C-8058-7F1C-74D9-60443E8AD14A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11933583" y="1853648"/>
+              <a:ext cx="896015" cy="318485"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>сист</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 𝜌/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜌)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>362781</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14908</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="957442" cy="348044"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856B98A3-41B7-DC69-0912-F5EEAA64045F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11859042" y="2218082"/>
+              <a:ext cx="957442" cy="348044"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>об</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>(1−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜌</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856B98A3-41B7-DC69-0912-F5EEAA64045F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11859042" y="2218082"/>
+              <a:ext cx="957442" cy="348044"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_об=  1/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇(1−𝜌))</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>424071</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>18222</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="801117" cy="368371"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BA9CBA-1905-4C3D-A13D-32DC26F48C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11920332" y="2602396"/>
+              <a:ext cx="801117" cy="368371"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑀</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>оч</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜌</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜌</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BA9CBA-1905-4C3D-A13D-32DC26F48C7D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11920332" y="2602396"/>
+              <a:ext cx="801117" cy="368371"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>оч</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜌^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/(1−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜌)</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -13504,7 +14390,7 @@
   <dimension ref="A1:AA87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="U6" sqref="U6:U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13516,67 +14402,67 @@
     <col min="19" max="19" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="51">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="5">
         <v>15</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="5">
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="7">
         <f>IF(K25="-",(3600/(K1+K2))*K28,(3600/(K1+K2))*K25)</f>
         <v>509.16730868040162</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="3">
         <v>45</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="5"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="7"/>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
@@ -13586,22 +14472,22 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="5">
+      <c r="K3" s="7">
         <v>2</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="5"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -13609,84 +14495,84 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="5"/>
-      <c r="N4" s="53" t="s">
+      <c r="K4" s="7"/>
+      <c r="N4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
       <c r="Q4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5">
-        <v>728</v>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7">
+        <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="5">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="7">
         <v>70</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="7">
         <f>K5/3.6</f>
         <v>19.444444444444443</v>
       </c>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="N6" s="54" t="s">
+    <row r="6" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="N6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="5">
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7">
         <f>U4/U1</f>
-        <v>1.4297854312107008</v>
+        <v>0.58919729308133273</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
@@ -13696,22 +14582,22 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="9">
+      <c r="K7" s="24">
         <v>5</v>
       </c>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="5"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -13719,451 +14605,540 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="7"/>
+      <c r="N8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7">
+        <f>IF(U6&lt;1,1-U6,"P→ထ")</f>
+        <v>0.41080270691866727</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="5">
+      <c r="B9" s="25"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="7">
         <f>(L5-0)/2</f>
         <v>9.7222222222222214</v>
       </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="5"/>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="7"/>
+      <c r="N10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="55">
+        <f>IF(U6&lt;1,U6/U8,"M→ထ")</f>
+        <v>1.4342585459106649</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="5">
+      <c r="B11" s="25"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="7">
         <f>0*K9+((K3*(K9^2))/2)</f>
         <v>94.521604938271594</v>
       </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="55"/>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="5"/>
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="7"/>
+      <c r="N12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7">
+        <f>IF(U6&lt;1,1/(U1*(U8)),"Tоб→ထ")</f>
+        <v>4.7808618197022158E-3</v>
+      </c>
+      <c r="V12" s="7">
+        <f>IF(U6&lt;1,U12*60,"-")</f>
+        <v>0.28685170918213293</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="5"/>
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="7"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="5">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="7">
         <f>K11/K7+1</f>
         <v>19.904320987654319</v>
       </c>
+      <c r="N14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7">
+        <f>IF(U6&lt;1,(U6^2)/U8,"M→ထ")</f>
+        <v>0.84506125282933209</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="5"/>
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="7"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="5">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="7">
         <f>K14+SQRT((2*(K14*K7))/K3)</f>
         <v>29.880372558204243</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="5"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="5"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="5">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="7">
         <f>K1/K16</f>
         <v>0.50200177292908132</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="5"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="5"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="5">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="7">
         <f>IF(K19&lt;= 1,(-(2*K1+((2*K7)/K3))^2)-4*K1^2,"-")</f>
         <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="5"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="5"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="40">
+      <c r="B25" s="25"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="22">
         <f>IF(K19&lt;= 1,(((2*K1)+((2*K7)/K3))-SQRT(K22))/2,"-")</f>
         <v>8.486121811340027</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="41"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="9"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="5" t="str">
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="7" t="str">
         <f>IF(K19&gt;1,((K1*L5)+K11-(L5*SQRT(((2*K11)/K3))))/(K7+L5),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="5"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="5"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="5"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>A35*1+SQRT((2*($L$54)/$K$3))+((A36-$L$54)/$L$5)</f>
+        <f t="shared" ref="A33:Z33" si="0">A35*1+SQRT((2*($L$54)/$K$3))+((A36-$L$54)/$L$5)</f>
         <v>6.1182539682539678</v>
       </c>
       <c r="B33">
-        <f>B35*1+SQRT((2*($L$54)/$K$3))+((B36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>7.375396825396825</v>
       </c>
       <c r="C33">
-        <f>C35*1+SQRT((2*($L$54)/$K$3))+((C36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>8.632539682539683</v>
       </c>
       <c r="D33">
-        <f>D35*1+SQRT((2*($L$54)/$K$3))+((D36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>9.8896825396825392</v>
       </c>
       <c r="E33">
-        <f>E35*1+SQRT((2*($L$54)/$K$3))+((E36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>11.146825396825395</v>
       </c>
       <c r="F33">
-        <f>F35*1+SQRT((2*($L$54)/$K$3))+((F36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>12.403968253968253</v>
       </c>
       <c r="G33">
-        <f>G35*1+SQRT((2*($L$54)/$K$3))+((G36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>13.661111111111111</v>
       </c>
       <c r="H33">
-        <f>H35*1+SQRT((2*($L$54)/$K$3))+((H36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>14.918253968253968</v>
       </c>
       <c r="I33">
-        <f>I35*1+SQRT((2*($L$54)/$K$3))+((I36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>16.175396825396824</v>
       </c>
       <c r="J33">
-        <f>J35*1+SQRT((2*($L$54)/$K$3))+((J36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>17.432539682539684</v>
       </c>
       <c r="K33">
-        <f>K35*1+SQRT((2*($L$54)/$K$3))+((K36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>18.68968253968254</v>
       </c>
       <c r="L33">
-        <f>L35*1+SQRT((2*($L$54)/$K$3))+((L36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>19.946825396825396</v>
       </c>
       <c r="M33">
-        <f>M35*1+SQRT((2*($L$54)/$K$3))+((M36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>21.203968253968252</v>
       </c>
       <c r="N33">
-        <f>N35*1+SQRT((2*($L$54)/$K$3))+((N36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>22.461111111111112</v>
       </c>
       <c r="O33">
-        <f>O35*1+SQRT((2*($L$54)/$K$3))+((O36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>23.718253968253968</v>
       </c>
       <c r="P33">
-        <f>P35*1+SQRT((2*($L$54)/$K$3))+((P36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>24.975396825396825</v>
       </c>
       <c r="Q33">
-        <f>Q35*1+SQRT((2*($L$54)/$K$3))+((Q36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>26.232539682539681</v>
       </c>
       <c r="R33">
-        <f>R35*1+SQRT((2*($L$54)/$K$3))+((R36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>27.489682539682541</v>
       </c>
       <c r="S33">
-        <f>S35*1+SQRT((2*($L$54)/$K$3))+((S36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>28.746825396825397</v>
       </c>
       <c r="T33">
-        <f>T35*1+SQRT((2*($L$54)/$K$3))+((T36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>30.003968253968253</v>
       </c>
       <c r="U33">
-        <f>U35*1+SQRT((2*($L$54)/$K$3))+((U36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>31.261111111111109</v>
       </c>
       <c r="V33">
-        <f>V35*1+SQRT((2*($L$54)/$K$3))+((V36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>32.518253968253966</v>
       </c>
       <c r="W33">
-        <f>W35*1+SQRT((2*($L$54)/$K$3))+((W36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>33.775396825396825</v>
       </c>
       <c r="X33">
-        <f>X35*1+SQRT((2*($L$54)/$K$3))+((X36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>35.032539682539685</v>
       </c>
       <c r="Y33">
-        <f>Y35*1+SQRT((2*($L$54)/$K$3))+((Y36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>36.289682539682538</v>
       </c>
       <c r="Z33">
-        <f>Z35*1+SQRT((2*($L$54)/$K$3))+((Z36-$L$54)/$L$5)</f>
+        <f t="shared" si="0"/>
         <v>55.146825396825399</v>
       </c>
       <c r="AA33">
@@ -14177,107 +15152,107 @@
         <v>3.2360679774997898</v>
       </c>
       <c r="B34" s="2">
-        <f>B35*1+SQRT((2*(B35*5))/$K$3)</f>
+        <f t="shared" ref="B34:AA34" si="1">B35*1+SQRT((2*(B35*5))/$K$3)</f>
         <v>5.16227766016838</v>
       </c>
       <c r="C34" s="2">
-        <f>C35*1+SQRT((2*(C35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>6.872983346207417</v>
       </c>
       <c r="D34" s="2">
-        <f>D35*1+SQRT((2*(D35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>8.4721359549995796</v>
       </c>
       <c r="E34" s="2">
-        <f>E35*1+SQRT((2*(E35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F34" s="2">
-        <f>F35*1+SQRT((2*(F35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>11.477225575051662</v>
       </c>
       <c r="G34" s="2">
-        <f>G35*1+SQRT((2*(G35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>12.916079783099615</v>
       </c>
       <c r="H34" s="2">
-        <f>H35*1+SQRT((2*(H35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>14.32455532033676</v>
       </c>
       <c r="I34" s="2">
-        <f>I35*1+SQRT((2*(I35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>15.708203932499369</v>
       </c>
       <c r="J34" s="2">
-        <f>J35*1+SQRT((2*(J35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>17.071067811865476</v>
       </c>
       <c r="K34" s="2">
-        <f>K35*1+SQRT((2*(K35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>18.416198487095663</v>
       </c>
       <c r="L34" s="2">
-        <f>L35*1+SQRT((2*(L35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>19.745966692414832</v>
       </c>
       <c r="M34" s="2">
-        <f>M35*1+SQRT((2*(M35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>21.062257748298549</v>
       </c>
       <c r="N34" s="2">
-        <f>N35*1+SQRT((2*(N35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>22.366600265340757</v>
       </c>
       <c r="O34" s="2">
-        <f>O35*1+SQRT((2*(O35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>23.660254037844389</v>
       </c>
       <c r="P34" s="2">
-        <f>P35*1+SQRT((2*(P35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>24.944271909999159</v>
       </c>
       <c r="Q34" s="2">
-        <f>Q35*1+SQRT((2*(Q35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>26.219544457292887</v>
       </c>
       <c r="R34" s="2">
-        <f>R35*1+SQRT((2*(R35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>27.486832980505138</v>
       </c>
       <c r="S34" s="2">
-        <f>S35*1+SQRT((2*(S35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>28.746794344808961</v>
       </c>
       <c r="T34" s="2">
-        <f>T35*1+SQRT((2*(T35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="U34" s="2">
-        <f>U35*1+SQRT((2*(U35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>31.246950765959596</v>
       </c>
       <c r="V34" s="2">
-        <f>V35*1+SQRT((2*(V35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>32.488088481701517</v>
       </c>
       <c r="W34" s="2">
-        <f>W35*1+SQRT((2*(W35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>33.723805294763608</v>
       </c>
       <c r="X34" s="2">
-        <f>X35*1+SQRT((2*(X35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>34.954451150103324</v>
       </c>
       <c r="Y34" s="2">
-        <f>Y35*1+SQRT((2*(Y35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>36.180339887498945</v>
       </c>
       <c r="Z34" s="2">
-        <f>Z35*1+SQRT((2*(Z35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>54.142135623730951</v>
       </c>
       <c r="AA34" s="2">
-        <f>AA35*1+SQRT((2*(AA35*5))/$K$3)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -14366,71 +15341,71 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" ref="A36:Q36" si="0">A35*5</f>
+        <f t="shared" ref="A36:Q36" si="2">A35*5</f>
         <v>5</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="L36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="M36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="O36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="P36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="R36">
@@ -14445,31 +15420,31 @@
         <v>100</v>
       </c>
       <c r="U36">
-        <f t="shared" ref="U36" si="1">U35*5</f>
+        <f t="shared" ref="U36" si="3">U35*5</f>
         <v>105</v>
       </c>
       <c r="V36">
-        <f t="shared" ref="V36" si="2">V35*5</f>
+        <f t="shared" ref="V36" si="4">V35*5</f>
         <v>110</v>
       </c>
       <c r="W36">
-        <f t="shared" ref="W36" si="3">W35*5</f>
+        <f t="shared" ref="W36" si="5">W35*5</f>
         <v>115</v>
       </c>
       <c r="X36">
-        <f t="shared" ref="X36" si="4">X35*5</f>
+        <f t="shared" ref="X36" si="6">X35*5</f>
         <v>120</v>
       </c>
       <c r="Y36">
-        <f t="shared" ref="Y36:AA36" si="5">Y35*5</f>
+        <f t="shared" ref="Y36:AA36" si="7">Y35*5</f>
         <v>125</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
     </row>
@@ -14477,23 +15452,23 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="43" t="s">
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
       <c r="R38" t="s">
         <v>11</v>
       </c>
@@ -14503,19 +15478,19 @@
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="47"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
       <c r="R39" t="s">
         <v>12</v>
       </c>
@@ -14525,19 +15500,19 @@
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D40" s="47"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
       <c r="R40" s="1" t="s">
         <v>2</v>
       </c>
@@ -14553,21 +15528,21 @@
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D41" s="47"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="46" t="s">
+      <c r="D41" s="16"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
       <c r="R41" s="1" t="s">
         <v>3</v>
       </c>
@@ -14583,51 +15558,51 @@
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D42" s="47"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D43" s="47"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D44" s="47"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="44" t="s">
+      <c r="D44" s="16"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
       <c r="U44" s="1" t="s">
         <v>4</v>
       </c>
@@ -14636,19 +15611,19 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D45" s="47"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="45"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
       <c r="R45" s="1" t="s">
         <v>3</v>
       </c>
@@ -14664,143 +15639,143 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D46" s="47"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D47" s="47"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="44" t="s">
+      <c r="D47" s="16"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="44"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D48" s="47"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="44"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
     </row>
     <row r="49" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D49" s="47"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D50" s="47"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="44" t="s">
+      <c r="D50" s="16"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D51" s="47"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
     </row>
     <row r="52" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="47"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D53" s="47"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
     </row>
     <row r="54" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="5">
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="7">
         <f>0*K9+((K3*(K9^2))/2)</f>
         <v>94.521604938271594</v>
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="5"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="7"/>
     </row>
     <row r="56" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D56" s="4"/>
@@ -14809,448 +15784,454 @@
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D58" s="47" t="s">
+      <c r="D58" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="44" t="s">
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="44"/>
-      <c r="L58" s="44"/>
-      <c r="M58" s="44"/>
-      <c r="N58" s="44"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D59" s="47"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="44"/>
-      <c r="L59" s="44"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="44"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D60" s="47"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="44"/>
-      <c r="N60" s="44"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D61" s="47"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="46" t="s">
+      <c r="D61" s="16"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="46"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D62" s="47"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="46"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D63" s="47"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="46"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
     </row>
     <row r="64" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D64" s="47"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="44" t="s">
+      <c r="D64" s="16"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K64" s="44"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="44"/>
-      <c r="N64" s="44"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D65" s="47"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="44"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D66" s="47"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
-      <c r="N66" s="44"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D67" s="47"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="46" t="s">
+      <c r="D67" s="16"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="46"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D68" s="47"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="46"/>
-      <c r="N68" s="46"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D69" s="47"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="46"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="46"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D70" s="47"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="46" t="s">
+      <c r="D70" s="16"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K70" s="46"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="46"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D71" s="47"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="46"/>
-      <c r="N71" s="46"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D72" s="47"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="46"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D73" s="47"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="44" t="s">
+      <c r="D73" s="16"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K73" s="44"/>
-      <c r="L73" s="44"/>
-      <c r="M73" s="44"/>
-      <c r="N73" s="44"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D74" s="47"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="44"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="44"/>
-      <c r="N74" s="44"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D75" s="47"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="44"/>
-      <c r="K75" s="44"/>
-      <c r="L75" s="44"/>
-      <c r="M75" s="44"/>
-      <c r="N75" s="44"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D76" s="47"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="44"/>
-      <c r="K76" s="44"/>
-      <c r="L76" s="44"/>
-      <c r="M76" s="44"/>
-      <c r="N76" s="44"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D77" s="47"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="44"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="44"/>
-      <c r="N77" s="44"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D78" s="47"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="44"/>
-      <c r="L78" s="44"/>
-      <c r="M78" s="44"/>
-      <c r="N78" s="44"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D79" s="47"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="46" t="s">
+      <c r="D79" s="16"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K79" s="46"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="46"/>
-      <c r="N79" s="46"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D80" s="47"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="46"/>
-      <c r="K80" s="46"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="46"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D81" s="47"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="46"/>
-      <c r="N81" s="46"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D82" s="47"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="48" t="s">
+      <c r="D82" s="16"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K82" s="48"/>
-      <c r="L82" s="48"/>
-      <c r="M82" s="48"/>
-      <c r="N82" s="48"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D83" s="47"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="48"/>
-      <c r="K83" s="48"/>
-      <c r="L83" s="48"/>
-      <c r="M83" s="48"/>
-      <c r="N83" s="48"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D84" s="47"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="48"/>
-      <c r="K84" s="48"/>
-      <c r="L84" s="48"/>
-      <c r="M84" s="48"/>
-      <c r="N84" s="48"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D85" s="47"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="48"/>
-      <c r="K85" s="48"/>
-      <c r="L85" s="48"/>
-      <c r="M85" s="48"/>
-      <c r="N85" s="48"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D86" s="47"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="48"/>
-      <c r="L86" s="48"/>
-      <c r="M86" s="48"/>
-      <c r="N86" s="48"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D87" s="47"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="48"/>
-      <c r="L87" s="48"/>
-      <c r="M87" s="48"/>
-      <c r="N87" s="48"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="Q4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="N6:P7"/>
-    <mergeCell ref="Q6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="Q1:T3"/>
-    <mergeCell ref="N1:P3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="J82:N87"/>
-    <mergeCell ref="E82:I84"/>
-    <mergeCell ref="E85:I87"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="N4:P5"/>
-    <mergeCell ref="J61:N63"/>
-    <mergeCell ref="J64:N66"/>
-    <mergeCell ref="J67:N69"/>
-    <mergeCell ref="J70:N72"/>
-    <mergeCell ref="E79:I81"/>
-    <mergeCell ref="E73:I75"/>
-    <mergeCell ref="E76:I78"/>
-    <mergeCell ref="J79:N81"/>
-    <mergeCell ref="J73:N78"/>
-    <mergeCell ref="E61:I63"/>
-    <mergeCell ref="E64:I66"/>
-    <mergeCell ref="E67:I69"/>
-    <mergeCell ref="E70:I72"/>
-    <mergeCell ref="D58:D87"/>
-    <mergeCell ref="J58:N60"/>
-    <mergeCell ref="L41:P43"/>
-    <mergeCell ref="L47:P49"/>
-    <mergeCell ref="L50:P53"/>
-    <mergeCell ref="E58:I60"/>
+  <mergeCells count="92">
+    <mergeCell ref="N14:P15"/>
+    <mergeCell ref="Q14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="Q12:T13"/>
+    <mergeCell ref="N12:P13"/>
+    <mergeCell ref="N10:P11"/>
+    <mergeCell ref="Q10:T11"/>
+    <mergeCell ref="N8:P9"/>
+    <mergeCell ref="Q8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="D3:J4"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A28:C31"/>
+    <mergeCell ref="D28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="A16:C18"/>
+    <mergeCell ref="D16:J18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="D19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="A19:C21"/>
+    <mergeCell ref="A25:C27"/>
+    <mergeCell ref="A22:C24"/>
+    <mergeCell ref="D25:J27"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="D14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A11:C13"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D9:J10"/>
+    <mergeCell ref="A9:C10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="L54:L55"/>
     <mergeCell ref="E38:K40"/>
@@ -15267,36 +16248,43 @@
     <mergeCell ref="D11:J13"/>
     <mergeCell ref="D7:J8"/>
     <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="J61:N63"/>
+    <mergeCell ref="J64:N66"/>
+    <mergeCell ref="E61:I63"/>
+    <mergeCell ref="E64:I66"/>
+    <mergeCell ref="D58:D87"/>
+    <mergeCell ref="J58:N60"/>
+    <mergeCell ref="L41:P43"/>
+    <mergeCell ref="L47:P49"/>
+    <mergeCell ref="L50:P53"/>
+    <mergeCell ref="E58:I60"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="D22:J24"/>
     <mergeCell ref="K22:K24"/>
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="D14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A11:C13"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="D9:J10"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="A28:C31"/>
-    <mergeCell ref="D28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="A16:C18"/>
-    <mergeCell ref="D16:J18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="D19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="A19:C21"/>
-    <mergeCell ref="A25:C27"/>
-    <mergeCell ref="A22:C24"/>
-    <mergeCell ref="D25:J27"/>
+    <mergeCell ref="Q1:T3"/>
+    <mergeCell ref="N1:P3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="J82:N87"/>
+    <mergeCell ref="E82:I84"/>
+    <mergeCell ref="E85:I87"/>
+    <mergeCell ref="J67:N69"/>
+    <mergeCell ref="J70:N72"/>
+    <mergeCell ref="E79:I81"/>
+    <mergeCell ref="E73:I75"/>
+    <mergeCell ref="E76:I78"/>
+    <mergeCell ref="J79:N81"/>
+    <mergeCell ref="J73:N78"/>
+    <mergeCell ref="E67:I69"/>
+    <mergeCell ref="E70:I72"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="D3:J4"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:J6"/>
-    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="Q4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="N6:P7"/>
+    <mergeCell ref="Q6:T7"/>
+    <mergeCell ref="U6:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Пропусканая способность светофора.xlsx
+++ b/Пропусканая способность светофора.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Artem\Аспирантура\Пропусканя способность светофора\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95490F33-E05D-4A10-A760-1EDD2AAD8EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43B5E54-2610-410F-9D80-E554925A43AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>Теперь используем формулу для нахождения корней. K1 = (-b + √D) / (2a), K2 = (-b - √D) / (2a). Зная правильный ответ выбираем правильный корень K1</t>
   </si>
   <si>
-    <t>Уравнение при постоянной скорости</t>
-  </si>
-  <si>
     <t>Уравнение при ускорении</t>
   </si>
   <si>
@@ -147,13 +144,16 @@
     <t>Вероятность того что канал обслуживания свободен</t>
   </si>
   <si>
-    <t>Среднее время прибывания заявки в системе (час.) - (мин.)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Среднее число заявок находящихся в системе </t>
   </si>
   <si>
     <t xml:space="preserve">Среднее число заявок находящихся в очереди </t>
+  </si>
+  <si>
+    <t>Среднее время прибывания заявки в системе (час.) - (мин.) - (сек.)</t>
+  </si>
+  <si>
+    <t>Уравнение при постоянной скорости и ускорением</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -420,122 +420,29 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -566,6 +473,102 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6759,13 +6762,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>397569</xdr:colOff>
+      <xdr:colOff>157369</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>182218</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2493062" cy="266740"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="2733262" cy="266740"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -6779,8 +6782,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3031439" y="12249979"/>
-              <a:ext cx="2493062" cy="266740"/>
+              <a:off x="2791239" y="13434392"/>
+              <a:ext cx="2733262" cy="266740"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6807,6 +6810,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr algn="ctr"/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:f>
@@ -7045,7 +7049,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -7059,8 +7063,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3031439" y="12249979"/>
-              <a:ext cx="2493062" cy="266740"/>
+              <a:off x="2791239" y="13434392"/>
+              <a:ext cx="2733262" cy="266740"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7087,6 +7091,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr algn="ctr"/>
               <a:r>
                 <a:rPr lang="en-US" sz="1200" b="0" i="0">
                   <a:solidFill>
@@ -7144,13 +7149,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>511863</xdr:colOff>
+      <xdr:colOff>281608</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2246246" cy="317972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="2476501" cy="317972"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -7164,8 +7169,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3145733" y="12755218"/>
-              <a:ext cx="2246246" cy="317972"/>
+              <a:off x="2915478" y="13939631"/>
+              <a:ext cx="2476501" cy="317972"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7397,7 +7402,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -7411,8 +7416,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3145733" y="12755218"/>
-              <a:ext cx="2246246" cy="317972"/>
+              <a:off x="2915478" y="13939631"/>
+              <a:ext cx="2476501" cy="317972"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10930,61 +10935,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>230256</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>188843</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="65" cy="172227"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="TextBox 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF61360C-FE7C-BBA5-4652-B6CEEC829F11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7262191" y="2541104"/>
-          <a:ext cx="65" cy="172227"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ru-RU" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>528426</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -13268,8 +13218,8 @@
       <xdr:rowOff>130864</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="798039" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -13311,6 +13261,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -13369,7 +13320,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -13458,8 +13409,8 @@
       <xdr:rowOff>31474</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="896015" cy="318485"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -13501,6 +13452,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -13579,7 +13531,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -13675,8 +13627,8 @@
       <xdr:rowOff>14908</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="957442" cy="348044"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -13718,6 +13670,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -13810,7 +13763,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -13887,8 +13840,8 @@
       <xdr:rowOff>18222</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="801117" cy="368371"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -13930,6 +13883,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -14027,7 +13981,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -14389,8 +14343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6:U7"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14402,230 +14356,230 @@
     <col min="19" max="19" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="5">
-        <v>15</v>
-      </c>
-      <c r="N1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="8">
+        <f>IF(K25="-",(3600/(K1+K2))*K28,(3600/(K1+K2))*K25)</f>
+        <v>799.8737373737373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="3">
+        <v>60</v>
+      </c>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="8"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="8">
+        <v>2</v>
+      </c>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="8"/>
+      <c r="N4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="7">
-        <f>IF(K25="-",(3600/(K1+K2))*K28,(3600/(K1+K2))*K25)</f>
-        <v>509.16730868040162</v>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8">
+        <v>700</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="3">
-        <v>45</v>
-      </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="7"/>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7">
-        <v>2</v>
-      </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="7"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="N4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="7">
+    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="8">
         <v>70</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="8">
         <f>K5/3.6</f>
         <v>19.444444444444443</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
     </row>
-    <row r="6" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="N6" s="8" t="s">
+    <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="N6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="8">
+        <f>U4/U1</f>
+        <v>0.87513812154696136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="13">
+        <v>5</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="8"/>
+      <c r="N8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7">
-        <f>U4/U1</f>
-        <v>0.58919729308133273</v>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="8">
+        <f>IF(U6&lt;1,1-U6,"P→ထ")</f>
+        <v>0.12486187845303864</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="24">
-        <v>5</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="N8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7">
-        <f>IF(U6&lt;1,1-U6,"P→ထ")</f>
-        <v>0.41080270691866727</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="28"/>
+    <row r="9" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="34"/>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
@@ -14633,313 +14587,318 @@
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="36"/>
-      <c r="K9" s="7">
+      <c r="K9" s="8">
         <f>(L5-0)/2</f>
         <v>9.7222222222222214</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="8"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="33"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="7"/>
-      <c r="N10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="55">
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="8"/>
+      <c r="N10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="56">
         <f>IF(U6&lt;1,U6/U8,"M→ထ")</f>
-        <v>1.4342585459106649</v>
+        <v>7.0088495575221259</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="7">
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8">
         <f>0*K9+((K3*(K9^2))/2)</f>
         <v>94.521604938271594</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="55"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="56"/>
     </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="7"/>
-      <c r="N12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7">
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="N12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="8">
         <f>IF(U6&lt;1,1/(U1*(U8)),"Tоб→ထ")</f>
-        <v>4.7808618197022158E-3</v>
-      </c>
-      <c r="V12" s="7">
+        <v>1.0012642225031608E-2</v>
+      </c>
+      <c r="V12" s="8">
         <f>IF(U6&lt;1,U12*60,"-")</f>
-        <v>0.28685170918213293</v>
+        <v>0.60075853350189645</v>
+      </c>
+      <c r="W12" s="8">
+        <f>V12*60</f>
+        <v>36.045512010113789</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="26"/>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="33"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="7"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
     </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="7">
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8">
         <f>K11/K7+1</f>
         <v>19.904320987654319</v>
       </c>
-      <c r="N14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7">
+      <c r="N14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="8">
         <f>IF(U6&lt;1,(U6^2)/U8,"M→ထ")</f>
-        <v>0.84506125282933209</v>
+        <v>6.1337114359751643</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="7"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="8"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="7">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8">
         <f>K14+SQRT((2*(K14*K7))/K3)</f>
         <v>29.880372558204243</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="7"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="7"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="7">
+      <c r="A19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8">
         <f>K1/K16</f>
-        <v>0.50200177292908132</v>
+        <v>1.0040035458581626</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="7"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="7"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="7">
+      <c r="A22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8" t="str">
         <f>IF(K19&lt;= 1,(-(2*K1+((2*K7)/K3))^2)-4*K1^2,"-")</f>
-        <v>325</v>
+        <v>-</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="7"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="7"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="28"/>
+      <c r="A25" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="34"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
@@ -14947,93 +14906,93 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
       <c r="J25" s="36"/>
-      <c r="K25" s="22">
+      <c r="K25" s="52" t="str">
         <f>IF(K19&lt;= 1,(((2*K1)+((2*K7)/K3))-SQRT(K22))/2,"-")</f>
-        <v>8.486121811340027</v>
+        <v>-</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="23"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="53"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="33"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="24"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="7" t="str">
+      <c r="A28" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="8">
         <f>IF(K19&gt;1,((K1*L5)+K11-(L5*SQRT(((2*K11)/K3))))/(K7+L5),"-")</f>
-        <v>-</v>
+        <v>19.996843434343432</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="7"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="7"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="7"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
@@ -15452,23 +15411,23 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D38" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="19" t="s">
+      <c r="D38" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
       <c r="R38" t="s">
         <v>11</v>
       </c>
@@ -15478,19 +15437,19 @@
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="16"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
       <c r="R39" t="s">
         <v>12</v>
       </c>
@@ -15500,19 +15459,19 @@
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D40" s="16"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
       <c r="R40" s="1" t="s">
         <v>2</v>
       </c>
@@ -15528,21 +15487,21 @@
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D41" s="16"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="14" t="s">
+      <c r="D41" s="47"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
       <c r="R41" s="1" t="s">
         <v>3</v>
       </c>
@@ -15558,51 +15517,51 @@
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D42" s="16"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D43" s="16"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D44" s="16"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="15" t="s">
+      <c r="D44" s="47"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
       <c r="U44" s="1" t="s">
         <v>4</v>
       </c>
@@ -15611,19 +15570,19 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D45" s="16"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
       <c r="R45" s="1" t="s">
         <v>3</v>
       </c>
@@ -15639,143 +15598,143 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D46" s="16"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D47" s="16"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="15" t="s">
+      <c r="D47" s="47"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D48" s="16"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
     </row>
     <row r="49" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D49" s="16"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D50" s="16"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="15" t="s">
+      <c r="D50" s="47"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D51" s="16"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
     </row>
     <row r="52" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="16"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D53" s="16"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
     </row>
     <row r="54" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="7">
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="8">
         <f>0*K9+((K3*(K9^2))/2)</f>
         <v>94.521604938271594</v>
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="8"/>
     </row>
     <row r="56" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D56" s="4"/>
@@ -15784,454 +15743,459 @@
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D58" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="15" t="s">
+      <c r="D58" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="45"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D59" s="16"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="45"/>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D60" s="16"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="45"/>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D61" s="16"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="14" t="s">
+      <c r="D61" s="51"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="50"/>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D62" s="16"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="50"/>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D63" s="16"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="50"/>
     </row>
     <row r="64" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D64" s="16"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="15" t="s">
+      <c r="D64" s="51"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="45"/>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D65" s="16"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="45"/>
+      <c r="N65" s="45"/>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D66" s="16"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="45"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="45"/>
+      <c r="N66" s="45"/>
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D67" s="16"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="14" t="s">
+      <c r="D67" s="51"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="50"/>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D68" s="16"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="50"/>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D69" s="16"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="50"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D70" s="16"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="14" t="s">
+      <c r="D70" s="51"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="50"/>
+      <c r="M70" s="50"/>
+      <c r="N70" s="50"/>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D71" s="16"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="50"/>
+      <c r="M71" s="50"/>
+      <c r="N71" s="50"/>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D72" s="16"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="50"/>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D73" s="16"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="15" t="s">
+      <c r="D73" s="51"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
+      <c r="K73" s="45"/>
+      <c r="L73" s="45"/>
+      <c r="M73" s="45"/>
+      <c r="N73" s="45"/>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D74" s="16"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="45"/>
+      <c r="L74" s="45"/>
+      <c r="M74" s="45"/>
+      <c r="N74" s="45"/>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D75" s="16"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="45"/>
+      <c r="L75" s="45"/>
+      <c r="M75" s="45"/>
+      <c r="N75" s="45"/>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D76" s="16"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="45"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="45"/>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D77" s="16"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="45"/>
+      <c r="L77" s="45"/>
+      <c r="M77" s="45"/>
+      <c r="N77" s="45"/>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D78" s="16"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="45"/>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D79" s="16"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="14" t="s">
+      <c r="D79" s="51"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="50"/>
+      <c r="N79" s="50"/>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D80" s="16"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="14"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="50"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="50"/>
+      <c r="N80" s="50"/>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D81" s="16"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="50"/>
+      <c r="M81" s="50"/>
+      <c r="N81" s="50"/>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D82" s="16"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="11" t="s">
+      <c r="D82" s="51"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="55"/>
+      <c r="N82" s="55"/>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D83" s="16"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="55"/>
+      <c r="N83" s="55"/>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D84" s="16"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="55"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="55"/>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D85" s="16"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="55"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="55"/>
+      <c r="N85" s="55"/>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D86" s="16"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="55"/>
+      <c r="N86" s="55"/>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D87" s="16"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="55"/>
+      <c r="L87" s="55"/>
+      <c r="M87" s="55"/>
+      <c r="N87" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="N14:P15"/>
-    <mergeCell ref="Q14:T15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="Q12:T13"/>
-    <mergeCell ref="N12:P13"/>
+  <mergeCells count="93">
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="Q4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="N6:P7"/>
+    <mergeCell ref="Q6:T7"/>
+    <mergeCell ref="U6:U7"/>
     <mergeCell ref="N10:P11"/>
     <mergeCell ref="Q10:T11"/>
     <mergeCell ref="N8:P9"/>
     <mergeCell ref="Q8:T9"/>
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="U10:U11"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="D3:J4"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A28:C31"/>
-    <mergeCell ref="D28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="A16:C18"/>
-    <mergeCell ref="D16:J18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="D19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="A19:C21"/>
-    <mergeCell ref="A25:C27"/>
-    <mergeCell ref="A22:C24"/>
-    <mergeCell ref="D25:J27"/>
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="D14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A11:C13"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="D9:J10"/>
-    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="Q1:T3"/>
+    <mergeCell ref="N1:P3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="J82:N87"/>
+    <mergeCell ref="E82:I84"/>
+    <mergeCell ref="E85:I87"/>
+    <mergeCell ref="J67:N69"/>
+    <mergeCell ref="J70:N72"/>
+    <mergeCell ref="E79:I81"/>
+    <mergeCell ref="E73:I75"/>
+    <mergeCell ref="E76:I78"/>
+    <mergeCell ref="J79:N81"/>
+    <mergeCell ref="J73:N78"/>
+    <mergeCell ref="E67:I69"/>
+    <mergeCell ref="E70:I72"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="J61:N63"/>
+    <mergeCell ref="J64:N66"/>
+    <mergeCell ref="E61:I63"/>
+    <mergeCell ref="E64:I66"/>
+    <mergeCell ref="D58:D87"/>
+    <mergeCell ref="J58:N60"/>
+    <mergeCell ref="L41:P43"/>
+    <mergeCell ref="L47:P49"/>
+    <mergeCell ref="L50:P53"/>
+    <mergeCell ref="E58:I60"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="D22:J24"/>
+    <mergeCell ref="K22:K24"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="L54:L55"/>
     <mergeCell ref="E38:K40"/>
@@ -16248,43 +16212,39 @@
     <mergeCell ref="D11:J13"/>
     <mergeCell ref="D7:J8"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="N4:P5"/>
-    <mergeCell ref="J61:N63"/>
-    <mergeCell ref="J64:N66"/>
-    <mergeCell ref="E61:I63"/>
-    <mergeCell ref="E64:I66"/>
-    <mergeCell ref="D58:D87"/>
-    <mergeCell ref="J58:N60"/>
-    <mergeCell ref="L41:P43"/>
-    <mergeCell ref="L47:P49"/>
-    <mergeCell ref="L50:P53"/>
-    <mergeCell ref="E58:I60"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="D22:J24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="Q1:T3"/>
-    <mergeCell ref="N1:P3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="J82:N87"/>
-    <mergeCell ref="E82:I84"/>
-    <mergeCell ref="E85:I87"/>
-    <mergeCell ref="J67:N69"/>
-    <mergeCell ref="J70:N72"/>
-    <mergeCell ref="E79:I81"/>
-    <mergeCell ref="E73:I75"/>
-    <mergeCell ref="E76:I78"/>
-    <mergeCell ref="J79:N81"/>
-    <mergeCell ref="J73:N78"/>
-    <mergeCell ref="E67:I69"/>
-    <mergeCell ref="E70:I72"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="Q4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="N6:P7"/>
-    <mergeCell ref="Q6:T7"/>
-    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="D14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A11:C13"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D9:J10"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="A28:C31"/>
+    <mergeCell ref="D28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="A16:C18"/>
+    <mergeCell ref="D16:J18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="D19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="A19:C21"/>
+    <mergeCell ref="A25:C27"/>
+    <mergeCell ref="A22:C24"/>
+    <mergeCell ref="D25:J27"/>
+    <mergeCell ref="D3:J4"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="N14:P15"/>
+    <mergeCell ref="Q14:T15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="Q12:T13"/>
+    <mergeCell ref="N12:P13"/>
+    <mergeCell ref="U12:U13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Пропусканая способность светофора.xlsx
+++ b/Пропусканая способность светофора.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Artem\Аспирантура\Пропусканя способность светофора\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43B5E54-2610-410F-9D80-E554925A43AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0441473F-7703-433F-B7FE-90F954EE623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Светофор горит (сек.)</t>
   </si>
@@ -155,6 +155,9 @@
   <si>
     <t>Уравнение при постоянной скорости и ускорением</t>
   </si>
+  <si>
+    <t>Время реакции</t>
+  </si>
 </sst>
 </file>
 
@@ -239,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -403,11 +406,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -419,6 +435,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -572,6 +591,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6767,8 +6798,8 @@
       <xdr:rowOff>182218</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2733262" cy="266740"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -7049,7 +7080,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -7154,8 +7185,8 @@
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2476501" cy="317972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -7402,7 +7433,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -10940,9 +10971,9 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>81165</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2153025" cy="431593"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="2728889" cy="501099"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -10957,7 +10988,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="3162296" y="4760839"/>
-              <a:ext cx="2153025" cy="431593"/>
+              <a:ext cx="2728889" cy="501099"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11091,6 +11122,61 @@
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
                                   <m:t>светофора вкл</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>∗</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑡</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>реакции</m:t>
                                 </m:r>
                               </m:sub>
                             </m:sSub>
@@ -11212,8 +11298,52 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>2∗1</m:t>
+                          <m:t>2∗</m:t>
                         </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑡</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>реакции</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
                       </m:den>
                     </m:f>
                   </m:oMath>
@@ -11224,7 +11354,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -11239,7 +11369,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="3162296" y="4760839"/>
-              <a:ext cx="2153025" cy="431593"/>
+              <a:ext cx="2728889" cy="501099"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11331,13 +11461,85 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)  −2𝐿/𝑎)−√𝐷)/(</a:t>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 〖∗</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>2∗1)</a:t>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_реакции</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  −2𝐿/𝑎)−√𝐷)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2∗〖𝑡_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>реакции</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> )</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -11349,14 +11551,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>89446</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23185</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>81168</xdr:rowOff>
+      <xdr:rowOff>56321</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3300775" cy="413831"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="4324645" cy="413831"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37">
@@ -11370,8 +11572,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2723316" y="4189342"/>
-              <a:ext cx="3300775" cy="413831"/>
+              <a:off x="2044142" y="4164495"/>
+              <a:ext cx="4324645" cy="413831"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11512,7 +11714,62 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t> +</m:t>
+                              <m:t>∗ </m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑡</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>реакции</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
                             </m:r>
                             <m:f>
                               <m:fPr>
@@ -11585,7 +11842,57 @@
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>−4∗1∗</m:t>
+                      <m:t>−4∗</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>реакции</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
                     </m:r>
                     <m:sSubSup>
                       <m:sSubSupPr>
@@ -11628,7 +11935,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37">
@@ -11642,8 +11949,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2723316" y="4189342"/>
-              <a:ext cx="3300775" cy="413831"/>
+              <a:off x="2044142" y="4164495"/>
+              <a:ext cx="4324645" cy="413831"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11741,13 +12048,49 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)  +2𝐿/𝑎)^</a:t>
+                <a:t>)∗ 𝑡_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>реакции</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>2−4∗1∗𝑡_(</a:t>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+2𝐿/𝑎)^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2−4∗〖𝑡_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>реакции</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗^2∗𝑡_(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
@@ -14343,761 +14686,799 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:K27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
     <col min="19" max="19" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
       <c r="K1" s="5">
-        <v>30</v>
-      </c>
-      <c r="N1" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="8">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="9">
         <f>IF(K25="-",(3600/(K1+K2))*K28,(3600/(K1+K2))*K25)</f>
-        <v>799.8737373737373</v>
+        <v>407.33384694432129</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="3">
         <v>60</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="8"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="8">
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="6">
         <v>2</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="8"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="8"/>
-      <c r="N4" s="9" t="s">
+      <c r="A4" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="10" t="s">
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8">
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9">
         <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="8">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="9">
         <v>70</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="9">
         <f>K5/3.6</f>
         <v>19.444444444444443</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="N6" s="6" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="N6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="8">
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="9">
         <f>U4/U1</f>
-        <v>0.87513812154696136</v>
+        <v>1.7184921048205537</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="13">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="14">
         <v>5</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="8"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="9"/>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="8"/>
-      <c r="N8" s="9" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="9"/>
+      <c r="N8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="8">
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="9" t="str">
         <f>IF(U6&lt;1,1-U6,"P→ထ")</f>
-        <v>0.12486187845303864</v>
+        <v>P→ထ</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="8">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="9">
         <f>(L5-0)/2</f>
         <v>9.7222222222222214</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="8"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="8"/>
-      <c r="N10" s="9" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="9"/>
+      <c r="N10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="56">
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="57" t="str">
         <f>IF(U6&lt;1,U6/U8,"M→ထ")</f>
-        <v>7.0088495575221259</v>
+        <v>M→ထ</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8">
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9">
         <f>0*K9+((K3*(K9^2))/2)</f>
         <v>94.521604938271594</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="56"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="57"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-      <c r="N12" s="9" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="N12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="8">
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="9" t="str">
         <f>IF(U6&lt;1,1/(U1*(U8)),"Tоб→ထ")</f>
-        <v>1.0012642225031608E-2</v>
-      </c>
-      <c r="V12" s="8">
+        <v>Tоб→ထ</v>
+      </c>
+      <c r="V12" s="9" t="str">
         <f>IF(U6&lt;1,U12*60,"-")</f>
-        <v>0.60075853350189645</v>
-      </c>
-      <c r="W12" s="8">
+        <v>-</v>
+      </c>
+      <c r="W12" s="9" t="e">
         <f>V12*60</f>
-        <v>36.045512010113789</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9">
         <f>K11/K7+1</f>
         <v>19.904320987654319</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="8">
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="9" t="str">
         <f>IF(U6&lt;1,(U6^2)/U8,"M→ထ")</f>
-        <v>6.1337114359751643</v>
+        <v>M→ထ</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="8"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9">
         <f>K14+SQRT((2*(K14*K7))/K3)</f>
         <v>29.880372558204243</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9">
         <f>K1/K16</f>
-        <v>1.0040035458581626</v>
+        <v>0.50200177292908132</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8" t="str">
-        <f>IF(K19&lt;= 1,(-(2*K1+((2*K7)/K3))^2)-4*K1^2,"-")</f>
-        <v>-</v>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="9">
+        <f>IF(K19&lt;= 1,(-((2*K1*K4)+((2*K7)/K3))^2)-4*(K4^2)*K1^2,"-")</f>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="52" t="str">
-        <f>IF(K19&lt;= 1,(((2*K1)+((2*K7)/K3))-SQRT(K22))/2,"-")</f>
-        <v>-</v>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="53">
+        <f>IF(K19&lt;= 1,(((2*K1*K4)+((2*K7)/K3))-SQRT(K22))/(2*(K4^2)),"-")</f>
+        <v>8.486121811340027</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="53"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="54"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="13"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="8">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="9" t="str">
         <f>IF(K19&gt;1,((K1*L5)+K11-(L5*SQRT(((2*K11)/K3))))/(K7+L5),"-")</f>
-        <v>19.996843434343432</v>
+        <v>-</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="8"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="8"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="8"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>(A35*2)+SQRT((2*(A35*5))/K3)</f>
+        <v>4.2360679774997898</v>
+      </c>
+      <c r="B32">
+        <f>(B35*2)+SQRT((2*(B35*5))/$K$3)</f>
+        <v>7.16227766016838</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:H32" si="0">(C35*2)+SQRT((2*(C35*5))/$K$3)</f>
+        <v>9.8729833462074161</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>12.47213595499958</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>17.477225575051662</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>19.916079783099615</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>22.32455532033676</v>
+      </c>
+    </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" ref="A33:Z33" si="0">A35*1+SQRT((2*($L$54)/$K$3))+((A36-$L$54)/$L$5)</f>
+        <f t="shared" ref="A33:Z33" si="1">A35*1+SQRT((2*($L$54)/$K$3))+((A36-$L$54)/$L$5)</f>
         <v>6.1182539682539678</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.375396825396825</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.632539682539683</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8896825396825392</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.146825396825395</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.403968253968253</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.661111111111111</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.918253968253968</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.175396825396824</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.432539682539684</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.68968253968254</v>
       </c>
       <c r="L33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.946825396825396</v>
       </c>
       <c r="M33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.203968253968252</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.461111111111112</v>
       </c>
       <c r="O33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.718253968253968</v>
       </c>
       <c r="P33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.975396825396825</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26.232539682539681</v>
       </c>
       <c r="R33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.489682539682541</v>
       </c>
       <c r="S33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28.746825396825397</v>
       </c>
       <c r="T33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30.003968253968253</v>
       </c>
       <c r="U33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.261111111111109</v>
       </c>
       <c r="V33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.518253968253966</v>
       </c>
       <c r="W33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.775396825396825</v>
       </c>
       <c r="X33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.032539682539685</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.289682539682538</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55.146825396825399</v>
       </c>
       <c r="AA33">
@@ -15111,107 +15492,107 @@
         <v>3.2360679774997898</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" ref="B34:AA34" si="1">B35*1+SQRT((2*(B35*5))/$K$3)</f>
+        <f t="shared" ref="B34:AA34" si="2">B35*1+SQRT((2*(B35*5))/$K$3)</f>
         <v>5.16227766016838</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.872983346207417</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4721359549995796</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.477225575051662</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.916079783099615</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.32455532033676</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.708203932499369</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.071067811865476</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.416198487095663</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.745966692414832</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.062257748298549</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.366600265340757</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.660254037844389</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.944271909999159</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.219544457292887</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27.486832980505138</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.746794344808961</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="U34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.246950765959596</v>
       </c>
       <c r="V34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32.488088481701517</v>
       </c>
       <c r="W34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.723805294763608</v>
       </c>
       <c r="X34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.954451150103324</v>
       </c>
       <c r="Y34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.180339887498945</v>
       </c>
       <c r="Z34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.142135623730951</v>
       </c>
       <c r="AA34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
@@ -15300,71 +15681,71 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" ref="A36:Q36" si="2">A35*5</f>
+        <f t="shared" ref="A36:Q36" si="3">A35*5</f>
         <v>5</v>
       </c>
       <c r="B36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="I36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="L36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="M36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="N36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="O36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="P36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="R36">
@@ -15379,31 +15760,31 @@
         <v>100</v>
       </c>
       <c r="U36">
-        <f t="shared" ref="U36" si="3">U35*5</f>
+        <f t="shared" ref="U36" si="4">U35*5</f>
         <v>105</v>
       </c>
       <c r="V36">
-        <f t="shared" ref="V36" si="4">V35*5</f>
+        <f t="shared" ref="V36" si="5">V35*5</f>
         <v>110</v>
       </c>
       <c r="W36">
-        <f t="shared" ref="W36" si="5">W35*5</f>
+        <f t="shared" ref="W36" si="6">W35*5</f>
         <v>115</v>
       </c>
       <c r="X36">
-        <f t="shared" ref="X36" si="6">X35*5</f>
+        <f t="shared" ref="X36" si="7">X35*5</f>
         <v>120</v>
       </c>
       <c r="Y36">
-        <f t="shared" ref="Y36:AA36" si="7">Y35*5</f>
+        <f t="shared" ref="Y36:AA36" si="8">Y35*5</f>
         <v>125</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
     </row>
@@ -15411,23 +15792,23 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="44" t="s">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
       <c r="R38" t="s">
         <v>11</v>
       </c>
@@ -15437,19 +15818,19 @@
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="47"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
       <c r="R39" t="s">
         <v>12</v>
       </c>
@@ -15459,19 +15840,19 @@
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D40" s="47"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
       <c r="R40" s="1" t="s">
         <v>2</v>
       </c>
@@ -15487,21 +15868,21 @@
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D41" s="47"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="50" t="s">
+      <c r="D41" s="48"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
       <c r="R41" s="1" t="s">
         <v>3</v>
       </c>
@@ -15517,51 +15898,51 @@
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D42" s="47"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D43" s="47"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="50"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D44" s="47"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="45" t="s">
+      <c r="D44" s="48"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
       <c r="U44" s="1" t="s">
         <v>4</v>
       </c>
@@ -15570,19 +15951,19 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D45" s="47"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
       <c r="R45" s="1" t="s">
         <v>3</v>
       </c>
@@ -15598,143 +15979,143 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D46" s="47"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="46"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D47" s="47"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="45" t="s">
+      <c r="D47" s="48"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D48" s="47"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
     </row>
     <row r="49" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D49" s="47"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D50" s="47"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="45" t="s">
+      <c r="D50" s="48"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D51" s="47"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
     </row>
     <row r="52" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="47"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D53" s="47"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
     </row>
     <row r="54" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="8">
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="9">
         <f>0*K9+((K3*(K9^2))/2)</f>
         <v>94.521604938271594</v>
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="9"/>
     </row>
     <row r="56" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D56" s="4"/>
@@ -15743,415 +16124,415 @@
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D58" s="51" t="s">
+      <c r="D58" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="45" t="s">
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D59" s="51"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="45"/>
-      <c r="N59" s="45"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D60" s="51"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="45"/>
-      <c r="M60" s="45"/>
-      <c r="N60" s="45"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D61" s="51"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="50" t="s">
+      <c r="D61" s="52"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="K61" s="50"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="50"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51"/>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D62" s="51"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="50"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="51"/>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D63" s="51"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="50"/>
-      <c r="M63" s="50"/>
-      <c r="N63" s="50"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="51"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="51"/>
     </row>
     <row r="64" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D64" s="51"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="45" t="s">
+      <c r="D64" s="52"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="K64" s="45"/>
-      <c r="L64" s="45"/>
-      <c r="M64" s="45"/>
-      <c r="N64" s="45"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D65" s="51"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="45"/>
-      <c r="M65" s="45"/>
-      <c r="N65" s="45"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D66" s="51"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="45"/>
-      <c r="K66" s="45"/>
-      <c r="L66" s="45"/>
-      <c r="M66" s="45"/>
-      <c r="N66" s="45"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D67" s="51"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="50" t="s">
+      <c r="D67" s="52"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="K67" s="50"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="50"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="51"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="51"/>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D68" s="51"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="50"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="50"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="51"/>
+      <c r="M68" s="51"/>
+      <c r="N68" s="51"/>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D69" s="51"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="50"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="50"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="51"/>
+      <c r="M69" s="51"/>
+      <c r="N69" s="51"/>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D70" s="51"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="50" t="s">
+      <c r="D70" s="52"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="K70" s="50"/>
-      <c r="L70" s="50"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="50"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="51"/>
+      <c r="M70" s="51"/>
+      <c r="N70" s="51"/>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D71" s="51"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="50"/>
-      <c r="L71" s="50"/>
-      <c r="M71" s="50"/>
-      <c r="N71" s="50"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="51"/>
+      <c r="M71" s="51"/>
+      <c r="N71" s="51"/>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D72" s="51"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="50"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="51"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="51"/>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D73" s="51"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="45" t="s">
+      <c r="D73" s="52"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="K73" s="45"/>
-      <c r="L73" s="45"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="45"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D74" s="51"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="45"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="45"/>
-      <c r="M74" s="45"/>
-      <c r="N74" s="45"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D75" s="51"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="45"/>
-      <c r="K75" s="45"/>
-      <c r="L75" s="45"/>
-      <c r="M75" s="45"/>
-      <c r="N75" s="45"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D76" s="51"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="45"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="45"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="45"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D77" s="51"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="45"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="45"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="46"/>
+      <c r="N77" s="46"/>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D78" s="51"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="45"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="46"/>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D79" s="51"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="50" t="s">
+      <c r="D79" s="52"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="K79" s="50"/>
-      <c r="L79" s="50"/>
-      <c r="M79" s="50"/>
-      <c r="N79" s="50"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="51"/>
+      <c r="N79" s="51"/>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D80" s="51"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="50"/>
-      <c r="K80" s="50"/>
-      <c r="L80" s="50"/>
-      <c r="M80" s="50"/>
-      <c r="N80" s="50"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="51"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="51"/>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D81" s="51"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50"/>
-      <c r="L81" s="50"/>
-      <c r="M81" s="50"/>
-      <c r="N81" s="50"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="51"/>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D82" s="51"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="55" t="s">
+      <c r="D82" s="52"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="K82" s="55"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="55"/>
-      <c r="N82" s="55"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D83" s="51"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="55"/>
-      <c r="K83" s="55"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="55"/>
-      <c r="N83" s="55"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="56"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="56"/>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D84" s="51"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="55"/>
-      <c r="K84" s="55"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="55"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D85" s="51"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="55"/>
-      <c r="K85" s="55"/>
-      <c r="L85" s="55"/>
-      <c r="M85" s="55"/>
-      <c r="N85" s="55"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="56"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="56"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="56"/>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D86" s="51"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="55"/>
-      <c r="N86" s="55"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="56"/>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D87" s="51"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="55"/>
-      <c r="K87" s="55"/>
-      <c r="L87" s="55"/>
-      <c r="M87" s="55"/>
-      <c r="N87" s="55"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="56"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="56"/>
+      <c r="N87" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
+  <mergeCells count="94">
     <mergeCell ref="W12:W13"/>
     <mergeCell ref="Q4:T5"/>
     <mergeCell ref="U4:U5"/>
@@ -16179,7 +16560,6 @@
     <mergeCell ref="J73:N78"/>
     <mergeCell ref="E67:I69"/>
     <mergeCell ref="E70:I72"/>
-    <mergeCell ref="K3:K4"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="N4:P5"/>
@@ -16231,13 +16611,15 @@
     <mergeCell ref="A25:C27"/>
     <mergeCell ref="A22:C24"/>
     <mergeCell ref="D25:J27"/>
-    <mergeCell ref="D3:J4"/>
-    <mergeCell ref="A3:C4"/>
     <mergeCell ref="A7:C8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="D5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="N14:P15"/>
     <mergeCell ref="Q14:T15"/>
     <mergeCell ref="U14:U15"/>

--- a/Пропусканая способность светофора.xlsx
+++ b/Пропусканая способность светофора.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Artem\Аспирантура\Пропусканя способность светофора\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0441473F-7703-433F-B7FE-90F954EE623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36938FBB-E086-4991-9BCA-0265B25EA836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Светофор горит (сек.)</t>
   </si>
@@ -158,12 +158,24 @@
   <si>
     <t>Время реакции</t>
   </si>
+  <si>
+    <t>Для проверки k &lt; 1</t>
+  </si>
+  <si>
+    <t>Для проверки k &gt; 1</t>
+  </si>
+  <si>
+    <t>Кол-во</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +225,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -423,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -439,23 +457,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -550,7 +583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -568,8 +601,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -592,17 +625,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1203,7 +1227,7 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>24464</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2357953" cy="500137"/>
+    <xdr:ext cx="2314415" cy="500137"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -1219,8 +1243,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3051187" y="9806225"/>
-              <a:ext cx="2357953" cy="500137"/>
+              <a:off x="3051187" y="10990638"/>
+              <a:ext cx="2314415" cy="500137"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1322,6 +1346,31 @@
                       </a:rPr>
                       <m:t>∗</m:t>
                     </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>реак</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
                     <m:r>
                       <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
                         <a:solidFill>
@@ -1332,7 +1381,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>1 сек)</m:t>
+                      <m:t>)</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -1462,8 +1511,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3051187" y="9806225"/>
-              <a:ext cx="2357953" cy="500137"/>
+              <a:off x="3051187" y="10990638"/>
+              <a:ext cx="2314415" cy="500137"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1528,16 +1577,28 @@
                 <a:t>∗</a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>1 сек)</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_реак</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -1572,9 +1633,9 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3609578" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="3566041" cy="500137"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -1588,8 +1649,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3314774" y="6005098"/>
-              <a:ext cx="3609578" cy="500137"/>
+              <a:off x="3314774" y="7189511"/>
+              <a:ext cx="3566041" cy="500137"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1689,7 +1750,38 @@
                       <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>∗1 сек)</m:t>
+                      <m:t>∗</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>реак</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -1940,7 +2032,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -1954,8 +2046,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3314774" y="6005098"/>
-              <a:ext cx="3609578" cy="500137"/>
+              <a:off x="3314774" y="7189511"/>
+              <a:ext cx="3566041" cy="500137"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2017,7 +2109,19 @@
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>∗1 сек)</a:t>
+                <a:t>∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_реак)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -2106,9 +2210,9 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>31694</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3129896" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="3402663" cy="500137"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -2122,8 +2226,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3316016" y="6580953"/>
-              <a:ext cx="3129896" cy="500137"/>
+              <a:off x="3324299" y="7759368"/>
+              <a:ext cx="3402663" cy="500137"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2166,6 +2270,49 @@
                         </m:ctrlPr>
                       </m:sSubPr>
                       <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>реак</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2539,7 +2686,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -2553,8 +2700,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3316016" y="6580953"/>
-              <a:ext cx="3129896" cy="500137"/>
+              <a:off x="3324299" y="7759368"/>
+              <a:ext cx="3402663" cy="500137"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2583,6 +2730,48 @@
             <a:p>
               <a:pPr/>
               <a:r>
+                <a:rPr lang="ru-RU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_реак</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
@@ -2592,7 +2781,7 @@
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>_</a:t>
+                <a:t>〗_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -2729,9 +2918,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>111015</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4354269" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="4401590" cy="344453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15">
@@ -2745,8 +2934,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2669627" y="7231774"/>
-              <a:ext cx="4354269" cy="344453"/>
+              <a:off x="2675911" y="8410189"/>
+              <a:ext cx="4401590" cy="344453"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2833,8 +3022,51 @@
                           </m:r>
                         </m:sub>
                       </m:sSub>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="ru-RU" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑡</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>реак</m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
                       <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
                           <a:solidFill>
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
@@ -3001,18 +3233,6 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>((</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
                         <m:t>𝐾</m:t>
                       </m:r>
                       <m:r>
@@ -3065,7 +3285,7 @@
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>)−</m:t>
+                    <m:t>−</m:t>
                   </m:r>
                   <m:sSub>
                     <m:sSubPr>
@@ -3120,7 +3340,7 @@
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>)−</m:t>
+                    <m:t>−</m:t>
                   </m:r>
                   <m:sSub>
                     <m:sSubPr>
@@ -3317,7 +3537,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15">
@@ -3331,8 +3551,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2669627" y="7231774"/>
-              <a:ext cx="4354269" cy="344453"/>
+              <a:off x="2675911" y="8410189"/>
+              <a:ext cx="4401590" cy="344453"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3396,23 +3616,71 @@
                 <a:t>макс</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>∗𝐾</a:t>
-              </a:r>
-              <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_реак</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -3453,7 +3721,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>∗𝑡) − 〖((𝐾∗𝐿〗_</a:t>
+                <a:t>∗𝑡) − 〖𝐾∗𝐿〗_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
@@ -3477,7 +3745,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)−𝑆_(</a:t>
+                <a:t>−𝑆_(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
@@ -3501,7 +3769,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>))−〖(𝑉〗_</a:t>
+                <a:t>)−〖(𝑉〗_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
@@ -3570,9 +3838,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>32188</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4273670" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="4671407" cy="500137"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -3586,8 +3854,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2623644" y="7724447"/>
-              <a:ext cx="4273670" cy="500137"/>
+              <a:off x="2627929" y="8902862"/>
+              <a:ext cx="4671407" cy="500137"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3664,6 +3932,18 @@
                               <m:t>(</m:t>
                             </m:r>
                             <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
@@ -3691,6 +3971,61 @@
                             </m:r>
                           </m:sub>
                         </m:sSub>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>реак</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:solidFill>
@@ -4151,7 +4486,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -4165,8 +4500,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2623644" y="7724447"/>
-              <a:ext cx="4273670" cy="500137"/>
+              <a:off x="2627929" y="8902862"/>
+              <a:ext cx="4671407" cy="500137"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4216,7 +4551,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〖(𝑉〗_</a:t>
+                <a:t>〖(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
@@ -4228,19 +4563,91 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t>макс</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  + 𝐿_</a:t>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_реак</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> + 𝐿_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
@@ -4504,9 +4911,9 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>97877</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3034933" cy="532710"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="3038652" cy="551946"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -4520,8 +4927,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3352803" y="8361636"/>
-              <a:ext cx="3034933" cy="532710"/>
+              <a:off x="3361086" y="9540051"/>
+              <a:ext cx="3038652" cy="551946"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5000,6 +5407,18 @@
                               <m:t>(</m:t>
                             </m:r>
                             <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
@@ -5027,6 +5446,73 @@
                             </m:r>
                           </m:sub>
                         </m:sSub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∗</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="ru-RU" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>реак</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:solidFill>
@@ -5104,7 +5590,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -5118,8 +5604,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3352803" y="8361636"/>
-              <a:ext cx="3034933" cy="532710"/>
+              <a:off x="3361086" y="9540051"/>
+              <a:ext cx="3038652" cy="551946"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5325,7 +5811,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)/(〖(𝑉〗_</a:t>
+                <a:t>)/(〖(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
@@ -5337,19 +5823,79 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>макс</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  + 𝐿_</a:t>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>макс∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_реак</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> + 𝐿_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
@@ -5390,7 +5936,7 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>36059</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1848711" cy="500137"/>
+    <xdr:ext cx="2204963" cy="500137"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -5406,8 +5952,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3327826" y="10389320"/>
-              <a:ext cx="1848711" cy="500137"/>
+              <a:off x="3327826" y="11573733"/>
+              <a:ext cx="2204963" cy="500137"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5623,6 +6169,49 @@
                         </m:ctrlPr>
                       </m:sSubPr>
                       <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>реак</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:solidFill>
@@ -5673,8 +6262,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3327826" y="10389320"/>
-              <a:ext cx="1848711" cy="500137"/>
+              <a:off x="3327826" y="11573733"/>
+              <a:ext cx="2204963" cy="500137"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5754,7 +6343,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑖− 𝐾_𝑖</a:t>
+                <a:t>𝑖− 〖𝑡_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>реак</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝐾〗_𝑖</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -5771,7 +6384,7 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>155330</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2151949" cy="322396"/>
+    <xdr:ext cx="2334167" cy="322396"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -5787,8 +6400,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3198616" y="11080091"/>
-              <a:ext cx="2151949" cy="322396"/>
+              <a:off x="3198616" y="12264504"/>
+              <a:ext cx="2334167" cy="322396"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6067,7 +6680,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>− </m:t>
+                          <m:t>−(</m:t>
                         </m:r>
                         <m:sSub>
                           <m:sSubPr>
@@ -6084,6 +6697,49 @@
                             </m:ctrlPr>
                           </m:sSubPr>
                           <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑡</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>реак</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
                             <m:r>
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:solidFill>
@@ -6122,7 +6778,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>)</m:t>
+                          <m:t>))</m:t>
                         </m:r>
                       </m:e>
                       <m:sup>
@@ -6162,8 +6818,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3198616" y="11080091"/>
-              <a:ext cx="2151949" cy="322396"/>
+              <a:off x="3198616" y="12264504"/>
+              <a:ext cx="2334167" cy="322396"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6273,7 +6929,43 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑖− 𝐾_𝑖)〗^2</a:t>
+                <a:t>𝑖−(〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>реак</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝐾〗_𝑖))〗^2</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -6591,6 +7283,61 @@
                             </m:ctrlPr>
                           </m:sSubPr>
                           <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>(</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑡</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>реак</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
                             <m:r>
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:solidFill>
@@ -6621,6 +7368,18 @@
                         </m:sSub>
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -6780,7 +7539,91 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑖− 𝐾_𝑖)〗^2</a:t>
+                <a:t>𝑖− 〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>реак</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝐾〗_𝑖)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^2</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -7040,7 +7883,56 @@
                     <a:rPr lang="en-US" sz="1100" b="0" i="1">
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     </a:rPr>
-                    <m:t>𝑡𝐾</m:t>
+                    <m:t>𝑡</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑡</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>реак</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝐾</m:t>
                   </m:r>
                   <m:r>
                     <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -7048,6 +7940,39 @@
                     </a:rPr>
                     <m:t>+</m:t>
                   </m:r>
+                  <m:sSubSup>
+                    <m:sSubSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑡</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>реак</m:t>
+                      </m:r>
+                    </m:sub>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSubSup>
                   <m:sSup>
                     <m:sSupPr>
                       <m:ctrlPr>
@@ -7167,7 +8092,73 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑡^2−2𝑡𝐾+𝐾^2</a:t>
+                <a:t>𝑡^2−2𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>реак</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾+𝑡_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>реак</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 𝐾^2</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -7180,11 +8171,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>281608</xdr:colOff>
+      <xdr:colOff>124240</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2476501" cy="317972"/>
+    <xdr:ext cx="2857500" cy="317972"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -7200,8 +8191,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2915478" y="13939631"/>
-              <a:ext cx="2476501" cy="317972"/>
+              <a:off x="2758110" y="13939631"/>
+              <a:ext cx="2857500" cy="317972"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7250,6 +8241,63 @@
                         </m:ctrlPr>
                       </m:sSupPr>
                       <m:e>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>реак</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -7276,7 +8324,56 @@
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>𝑡𝐾</m:t>
+                      <m:t>𝑡</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>реак</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐾</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -7447,8 +8544,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2915478" y="13939631"/>
-              <a:ext cx="2476501" cy="317972"/>
+              <a:off x="2758110" y="13939631"/>
+              <a:ext cx="2857500" cy="317972"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7480,7 +8577,43 @@
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>0= </a:t>
+                <a:t>0= 〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>реак^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -7492,13 +8625,55 @@
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>2−2𝑡𝐾+𝑡^2−</a:t>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2−2𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>реак</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐾+𝑡^2−</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -7547,11 +8722,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>387627</xdr:colOff>
+      <xdr:colOff>56323</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>106015</xdr:rowOff>
+      <xdr:rowOff>89450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2474845" cy="465485"/>
+    <xdr:ext cx="3016525" cy="465485"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -7567,8 +8742,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3021497" y="13316776"/>
-              <a:ext cx="2474845" cy="465485"/>
+              <a:off x="2690193" y="14484624"/>
+              <a:ext cx="3016525" cy="465485"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7645,6 +8820,63 @@
                         </m:ctrlPr>
                       </m:sSupPr>
                       <m:e>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>реак</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:solidFill>
@@ -7724,6 +8956,49 @@
                           </a:rPr>
                           <m:t>𝑡</m:t>
                         </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>реак</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
                         <m:r>
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:solidFill>
@@ -7930,8 +9205,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3021497" y="13316776"/>
-              <a:ext cx="2474845" cy="465485"/>
+              <a:off x="2690193" y="14484624"/>
+              <a:ext cx="3016525" cy="465485"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7985,19 +9260,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>0= </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐾</a:t>
+                <a:t>0= 〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
@@ -8005,23 +9280,83 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>2−(2𝑡+(2∗𝐿_</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>реак^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝐾</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2−(2𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>реак</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+(2∗𝐿_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
@@ -8062,12 +9397,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>101046</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457198</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>59634</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1849865" cy="413831"/>
+    <xdr:ext cx="2317301" cy="413831"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -8083,8 +9418,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3347829" y="13841895"/>
-              <a:ext cx="1849865" cy="413831"/>
+              <a:off x="3091068" y="15026308"/>
+              <a:ext cx="2317301" cy="413831"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8172,6 +9507,49 @@
                               </a:rPr>
                               <m:t>𝑡</m:t>
                             </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑡</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>реак</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
                             <m:r>
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:solidFill>
@@ -8255,7 +9633,70 @@
                       <a:rPr lang="en-US" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>−4∗1∗</m:t>
+                      <m:t>−4∗</m:t>
+                    </m:r>
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>реак</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∗</m:t>
                     </m:r>
                     <m:sSup>
                       <m:sSupPr>
@@ -8304,8 +9745,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3347829" y="13841895"/>
-              <a:ext cx="1849865" cy="413831"/>
+              <a:off x="3091068" y="15026308"/>
+              <a:ext cx="2317301" cy="413831"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8355,13 +9796,79 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>2𝑡+2𝐿/𝑎)^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>2−4∗1∗𝑡^2</a:t>
+                <a:t>2𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>реак</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+2𝐿/𝑎)^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2−4∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>реак^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∗𝑡^2</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -8374,11 +9881,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>313083</xdr:colOff>
+      <xdr:colOff>130866</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>72887</xdr:rowOff>
+      <xdr:rowOff>72888</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1438920" cy="431593"/>
+    <xdr:ext cx="1662057" cy="481991"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -8394,8 +9901,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3559866" y="14426648"/>
-              <a:ext cx="1438920" cy="431593"/>
+              <a:off x="3377649" y="15611062"/>
+              <a:ext cx="1662057" cy="481991"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8508,6 +10015,49 @@
                               </a:rPr>
                               <m:t>𝑡</m:t>
                             </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑡</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>реак</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
                             <m:r>
                               <a:rPr lang="en-US" sz="1100" b="0" i="1">
                                 <a:solidFill>
@@ -8626,8 +10176,51 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>2∗1</m:t>
+                          <m:t>2∗</m:t>
                         </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>реак</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
                       </m:den>
                     </m:f>
                   </m:oMath>
@@ -8652,8 +10245,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3559866" y="14426648"/>
-              <a:ext cx="1438920" cy="431593"/>
+              <a:off x="3377649" y="15611062"/>
+              <a:ext cx="1662057" cy="481991"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8697,13 +10290,85 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> ((2𝑡 −2𝐿/𝑎)−√𝐷)/(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>2∗1)</a:t>
+                <a:t> ((2𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>реак</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  −2𝐿/𝑎)−√𝐷)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>реак</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -8720,7 +10385,7 @@
       <xdr:row>84</xdr:row>
       <xdr:rowOff>82827</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1361527" cy="431593"/>
+    <xdr:ext cx="1361527" cy="481991"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -8736,8 +10401,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3586370" y="15008088"/>
-              <a:ext cx="1361527" cy="431593"/>
+              <a:off x="3586370" y="16192501"/>
+              <a:ext cx="1361527" cy="481991"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8968,8 +10633,51 @@
                           <a:rPr lang="en-US" sz="1100" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>2∗1</m:t>
+                          <m:t>2∗</m:t>
                         </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>реак</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
                       </m:den>
                     </m:f>
                   </m:oMath>
@@ -8994,8 +10702,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3586370" y="15008088"/>
-              <a:ext cx="1361527" cy="431593"/>
+              <a:off x="3586370" y="16192501"/>
+              <a:ext cx="1361527" cy="481991"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9045,7 +10753,43 @@
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>2∗1)</a:t>
+                <a:t>2∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑡_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>реак</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -10972,8 +12716,8 @@
       <xdr:rowOff>81165</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2728889" cy="501099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -11354,7 +13098,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -11557,8 +13301,8 @@
       <xdr:rowOff>56321</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4324645" cy="413831"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37">
@@ -11935,7 +13679,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37">
@@ -14409,6 +16153,159 @@
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝜌)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>122582</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180561</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="484748" cy="184731"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="TextBox 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7795874-B369-329A-09DD-57B3BF94B935}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3982278" y="561561"/>
+              <a:ext cx="484748" cy="184731"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="ru-RU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="ru-RU" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>реакции</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="TextBox 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7795874-B369-329A-09DD-57B3BF94B935}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3982278" y="561561"/>
+              <a:ext cx="484748" cy="184731"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_реакции</a:t>
               </a:r>
               <a:endParaRPr lang="ru-RU" sz="1100"/>
             </a:p>
@@ -14686,8 +16583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:K6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14701,648 +16598,680 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="5">
-        <v>15</v>
-      </c>
-      <c r="N1" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="9">
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="8">
         <f>IF(K25="-",(3600/(K1+K2))*K28,(3600/(K1+K2))*K25)</f>
-        <v>407.33384694432129</v>
+        <v>445.49929676511954</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="3">
         <v>60</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="9"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="58" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="6">
         <v>2</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="9"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>35</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9">
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8">
         <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="9">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="8">
         <v>70</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <f>K5/3.6</f>
         <v>19.444444444444443</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="N6" s="7" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="N6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="9">
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="8">
         <f>U4/U1</f>
-        <v>1.7184921048205537</v>
+        <v>1.5712707182320442</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="14">
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="19">
         <v>5</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="9"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="9"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="8"/>
       <c r="N8" s="10" t="s">
         <v>38</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="9" t="str">
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="8" t="str">
         <f>IF(U6&lt;1,1-U6,"P→ထ")</f>
         <v>P→ထ</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="9">
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="8">
         <f>(L5-0)/2</f>
         <v>9.7222222222222214</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="9"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="8"/>
       <c r="N10" s="10" t="s">
         <v>39</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="57" t="str">
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="62" t="str">
         <f>IF(U6&lt;1,U6/U8,"M→ထ")</f>
         <v>M→ထ</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="8">
         <f>0*K9+((K3*(K9^2))/2)</f>
         <v>94.521604938271594</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="57"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="62"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="8"/>
       <c r="N12" s="10" t="s">
         <v>41</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="9" t="str">
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="8" t="str">
         <f>IF(U6&lt;1,1/(U1*(U8)),"Tоб→ထ")</f>
         <v>Tоб→ထ</v>
       </c>
-      <c r="V12" s="9" t="str">
+      <c r="V12" s="8" t="str">
         <f>IF(U6&lt;1,U12*60,"-")</f>
         <v>-</v>
       </c>
-      <c r="W12" s="9" t="e">
+      <c r="W12" s="8" t="e">
         <f>V12*60</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="8"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="8">
         <f>K11/K7+1</f>
         <v>19.904320987654319</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="9" t="str">
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="8" t="str">
         <f>IF(U6&lt;1,(U6^2)/U8,"M→ထ")</f>
         <v>M→ထ</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="9"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="8"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="8"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="8">
         <f>K14+SQRT((2*(K14*K7))/K3)</f>
         <v>29.880372558204243</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="8"/>
+      <c r="O18" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="63" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="8">
         <f>K1/K16</f>
-        <v>0.50200177292908132</v>
+        <v>1.0040035458581626</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" s="8">
+        <v>5</v>
+      </c>
+      <c r="P19" s="8">
+        <f>(O19*K4)+SQRT((2*(O19*K7))/K3)</f>
+        <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="8"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="9"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="8"/>
+      <c r="N21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" s="8">
+        <v>19</v>
+      </c>
+      <c r="P21" s="8">
+        <f>(O21*K4)+(((O21*K7)-K11)/L5)+SQRT((2*K11)/K3)</f>
+        <v>47.746825396825393</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="9">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="8" t="str">
         <f>IF(K19&lt;= 1,(-((2*K1*K4)+((2*K7)/K3))^2)-4*(K4^2)*K1^2,"-")</f>
-        <v>325</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="9"/>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="9"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="53">
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="58" t="str">
         <f>IF(K19&lt;= 1,(((2*K1*K4)+((2*K7)/K3))-SQRT(K22))/(2*(K4^2)),"-")</f>
-        <v>8.486121811340027</v>
+        <v>-</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="54"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="59"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="14"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="9" t="str">
-        <f>IF(K19&gt;1,((K1*L5)+K11-(L5*SQRT(((2*K11)/K3))))/(K7+L5),"-")</f>
-        <v>-</v>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="8">
+        <f>IF(K19&gt;1,((K1*L5)+K11-(L5*SQRT(((2*K11)/K3))))/(K7+(L5*K4)),"-")</f>
+        <v>11.137482419127988</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="9"/>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="9"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="9"/>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>(A35*2)+SQRT((2*(A35*5))/K3)</f>
         <v>4.2360679774997898</v>
@@ -15792,23 +17721,23 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="45" t="s">
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
       <c r="R38" t="s">
         <v>11</v>
       </c>
@@ -15818,19 +17747,19 @@
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="48"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
       <c r="R39" t="s">
         <v>12</v>
       </c>
@@ -15840,19 +17769,19 @@
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D40" s="48"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
       <c r="R40" s="1" t="s">
         <v>2</v>
       </c>
@@ -15868,21 +17797,21 @@
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D41" s="48"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="51" t="s">
+      <c r="D41" s="53"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
       <c r="R41" s="1" t="s">
         <v>3</v>
       </c>
@@ -15898,51 +17827,51 @@
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D42" s="48"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D43" s="48"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D44" s="48"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="46" t="s">
+      <c r="D44" s="53"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
       <c r="U44" s="1" t="s">
         <v>4</v>
       </c>
@@ -15951,19 +17880,19 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D45" s="48"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
       <c r="R45" s="1" t="s">
         <v>3</v>
       </c>
@@ -15979,143 +17908,143 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D46" s="48"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="47"/>
-      <c r="P46" s="47"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D47" s="48"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="46" t="s">
+      <c r="D47" s="53"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="46"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D48" s="48"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
     </row>
     <row r="49" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D49" s="48"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46"/>
-      <c r="P49" s="46"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D50" s="48"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="46" t="s">
+      <c r="D50" s="53"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="46"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D51" s="48"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="46"/>
-      <c r="P51" s="46"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
     </row>
     <row r="52" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="48"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D53" s="48"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="46"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
     </row>
     <row r="54" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="9">
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="8">
         <f>0*K9+((K3*(K9^2))/2)</f>
         <v>94.521604938271594</v>
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="8"/>
     </row>
     <row r="56" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D56" s="4"/>
@@ -16124,415 +18053,415 @@
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="46" t="s">
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="51"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D59" s="52"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="46"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="51"/>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D60" s="52"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="46"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="51"/>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D61" s="52"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="51" t="s">
+      <c r="D61" s="57"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="K61" s="51"/>
-      <c r="L61" s="51"/>
-      <c r="M61" s="51"/>
-      <c r="N61" s="51"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D62" s="52"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="51"/>
-      <c r="M62" s="51"/>
-      <c r="N62" s="51"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D63" s="52"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="51"/>
-      <c r="N63" s="51"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="56"/>
     </row>
     <row r="64" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D64" s="52"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="46" t="s">
+      <c r="D64" s="57"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="46"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="51"/>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D65" s="52"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="46"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D66" s="52"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="46"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="51"/>
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D67" s="52"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="51" t="s">
+      <c r="D67" s="57"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="K67" s="51"/>
-      <c r="L67" s="51"/>
-      <c r="M67" s="51"/>
-      <c r="N67" s="51"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="56"/>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D68" s="52"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="51"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="51"/>
-      <c r="M68" s="51"/>
-      <c r="N68" s="51"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="56"/>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D69" s="52"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="51"/>
-      <c r="M69" s="51"/>
-      <c r="N69" s="51"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="56"/>
+      <c r="K69" s="56"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="56"/>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D70" s="52"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="51" t="s">
+      <c r="D70" s="57"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="K70" s="51"/>
-      <c r="L70" s="51"/>
-      <c r="M70" s="51"/>
-      <c r="N70" s="51"/>
+      <c r="K70" s="56"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="56"/>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D71" s="52"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="51"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="51"/>
-      <c r="M71" s="51"/>
-      <c r="N71" s="51"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D72" s="52"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="51"/>
-      <c r="L72" s="51"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="51"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="56"/>
+      <c r="K72" s="56"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="56"/>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D73" s="52"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="46" t="s">
+      <c r="D73" s="57"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="K73" s="46"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="46"/>
-      <c r="N73" s="46"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D74" s="52"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="46"/>
-      <c r="N74" s="46"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="51"/>
+      <c r="N74" s="51"/>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D75" s="52"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="46"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="51"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="51"/>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D76" s="52"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="46"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="51"/>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D77" s="52"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="46"/>
-      <c r="K77" s="46"/>
-      <c r="L77" s="46"/>
-      <c r="M77" s="46"/>
-      <c r="N77" s="46"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="51"/>
+      <c r="N77" s="51"/>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D78" s="52"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="46"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="46"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="46"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="51"/>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D79" s="52"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="51" t="s">
+      <c r="D79" s="57"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="K79" s="51"/>
-      <c r="L79" s="51"/>
-      <c r="M79" s="51"/>
-      <c r="N79" s="51"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="56"/>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D80" s="52"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="51"/>
-      <c r="K80" s="51"/>
-      <c r="L80" s="51"/>
-      <c r="M80" s="51"/>
-      <c r="N80" s="51"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="56"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D81" s="52"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="51"/>
-      <c r="K81" s="51"/>
-      <c r="L81" s="51"/>
-      <c r="M81" s="51"/>
-      <c r="N81" s="51"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="56"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="56"/>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D82" s="52"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="56" t="s">
+      <c r="D82" s="57"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="K82" s="56"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="56"/>
+      <c r="K82" s="61"/>
+      <c r="L82" s="61"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="61"/>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D83" s="52"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="56"/>
-      <c r="K83" s="56"/>
-      <c r="L83" s="56"/>
-      <c r="M83" s="56"/>
-      <c r="N83" s="56"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="61"/>
+      <c r="L83" s="61"/>
+      <c r="M83" s="61"/>
+      <c r="N83" s="61"/>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D84" s="52"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="56"/>
-      <c r="K84" s="56"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="56"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="61"/>
+      <c r="K84" s="61"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="61"/>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D85" s="52"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="56"/>
-      <c r="K85" s="56"/>
-      <c r="L85" s="56"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="56"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="61"/>
+      <c r="L85" s="61"/>
+      <c r="M85" s="61"/>
+      <c r="N85" s="61"/>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D86" s="52"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="56"/>
-      <c r="K86" s="56"/>
-      <c r="L86" s="56"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="61"/>
+      <c r="K86" s="61"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="61"/>
+      <c r="N86" s="61"/>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D87" s="52"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="56"/>
-      <c r="K87" s="56"/>
-      <c r="L87" s="56"/>
-      <c r="M87" s="56"/>
-      <c r="N87" s="56"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="61"/>
+      <c r="K87" s="61"/>
+      <c r="L87" s="61"/>
+      <c r="M87" s="61"/>
+      <c r="N87" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="100">
     <mergeCell ref="W12:W13"/>
     <mergeCell ref="Q4:T5"/>
     <mergeCell ref="U4:U5"/>
@@ -16560,22 +18489,25 @@
     <mergeCell ref="J73:N78"/>
     <mergeCell ref="E67:I69"/>
     <mergeCell ref="E70:I72"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="N4:P5"/>
-    <mergeCell ref="J61:N63"/>
+    <mergeCell ref="D3:J3"/>
     <mergeCell ref="J64:N66"/>
     <mergeCell ref="E61:I63"/>
     <mergeCell ref="E64:I66"/>
     <mergeCell ref="D58:D87"/>
     <mergeCell ref="J58:N60"/>
+    <mergeCell ref="E58:I60"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="J61:N63"/>
     <mergeCell ref="L41:P43"/>
     <mergeCell ref="L47:P49"/>
     <mergeCell ref="L50:P53"/>
-    <mergeCell ref="E58:I60"/>
     <mergeCell ref="K25:K27"/>
     <mergeCell ref="D22:J24"/>
     <mergeCell ref="K22:K24"/>
+    <mergeCell ref="A9:C10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="L54:L55"/>
     <mergeCell ref="E38:K40"/>
@@ -16591,14 +18523,6 @@
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="D11:J13"/>
     <mergeCell ref="D7:J8"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="D14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A11:C13"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="D9:J10"/>
-    <mergeCell ref="A9:C10"/>
     <mergeCell ref="A28:C31"/>
     <mergeCell ref="D28:J31"/>
     <mergeCell ref="K28:K31"/>
@@ -16611,22 +18535,33 @@
     <mergeCell ref="A25:C27"/>
     <mergeCell ref="A22:C24"/>
     <mergeCell ref="D25:J27"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="N14:P15"/>
+    <mergeCell ref="Q14:T15"/>
     <mergeCell ref="A7:C8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="D5:J6"/>
     <mergeCell ref="K5:K6"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="N14:P15"/>
-    <mergeCell ref="Q14:T15"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="D14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A11:C13"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D9:J10"/>
     <mergeCell ref="U14:U15"/>
     <mergeCell ref="V12:V13"/>
     <mergeCell ref="Q12:T13"/>
     <mergeCell ref="N12:P13"/>
     <mergeCell ref="U12:U13"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Пропусканая способность светофора.xlsx
+++ b/Пропусканая способность светофора.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Artem\Аспирантура\Пропусканя способность светофора\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36938FBB-E086-4991-9BCA-0265B25EA836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF40A0B-9A44-4D0C-9D99-37C98008B40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,11 +457,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -469,14 +475,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,14 +499,101 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -527,105 +626,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1634,8 +1634,8 @@
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3566041" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -2032,7 +2032,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -2211,8 +2211,8 @@
       <xdr:rowOff>31694</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3402663" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -2278,7 +2278,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2291,7 +2291,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2305,7 +2305,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2686,7 +2686,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -2919,8 +2919,8 @@
       <xdr:rowOff>111015</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4401590" cy="344453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15">
@@ -3030,7 +3030,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3043,7 +3043,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3057,7 +3057,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3537,7 +3537,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15">
@@ -3839,8 +3839,8 @@
       <xdr:rowOff>32188</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4671407" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -3979,7 +3979,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3992,7 +3992,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4006,7 +4006,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4486,7 +4486,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -4912,8 +4912,8 @@
       <xdr:rowOff>97877</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3038652" cy="551946"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -5466,7 +5466,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5479,7 +5479,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5493,7 +5493,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5590,7 +5590,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -11448,9 +11448,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>14908</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="940642" cy="317972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="1078402" cy="317972"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30">
@@ -11464,8 +11464,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3866315" y="2218082"/>
-              <a:ext cx="940642" cy="317972"/>
+              <a:off x="3866315" y="2599082"/>
+              <a:ext cx="1078402" cy="317972"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11487,7 +11487,7 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -11569,7 +11569,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30">
@@ -11583,8 +11583,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3866315" y="2218082"/>
-              <a:ext cx="940642" cy="317972"/>
+              <a:off x="3866315" y="2599082"/>
+              <a:ext cx="1078402" cy="317972"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11606,7 +11606,7 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -16583,8 +16583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16598,109 +16598,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="5">
-        <v>30</v>
-      </c>
-      <c r="N1" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="8">
         <f>IF(K25="-",(3600/(K1+K2))*K28,(3600/(K1+K2))*K25)</f>
-        <v>445.49929676511954</v>
+        <v>407.33384694432129</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="3">
         <v>60</v>
       </c>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
       <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="6">
         <v>2</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
       <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="6">
-        <v>2</v>
-      </c>
-      <c r="N4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="55" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="9" t="s">
         <v>36</v>
       </c>
       <c r="R4" s="8"/>
@@ -16711,18 +16711,18 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="8">
         <v>70</v>
       </c>
@@ -16730,9 +16730,9 @@
         <f>K5/3.6</f>
         <v>19.444444444444443</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -16740,184 +16740,184 @@
       <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
       <c r="U6" s="8">
         <f>U4/U1</f>
-        <v>1.5712707182320442</v>
+        <v>1.7184921048205537</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="55" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="19">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="25">
         <v>5</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
       <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
       <c r="U8" s="8" t="str">
         <f>IF(U6&lt;1,1-U6,"P→ထ")</f>
         <v>P→ထ</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
       <c r="K9" s="8">
         <f>(L5-0)/2</f>
         <v>9.7222222222222214</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
       <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="8"/>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="62" t="str">
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="13" t="str">
         <f>IF(U6&lt;1,U6/U8,"M→ထ")</f>
         <v>M→ထ</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="8">
         <f>0*K9+((K3*(K9^2))/2)</f>
         <v>94.521604938271594</v>
       </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="62"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="13"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="8"/>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
       <c r="U12" s="8" t="str">
         <f>IF(U6&lt;1,1/(U1*(U8)),"Tоб→ထ")</f>
         <v>Tоб→ထ</v>
@@ -16932,148 +16932,148 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="8"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="8">
         <f>K11/K7+1</f>
         <v>19.904320987654319</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
       <c r="U14" s="8" t="str">
         <f>IF(U6&lt;1,(U6^2)/U8,"M→ထ")</f>
         <v>M→ထ</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="8"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
       <c r="U15" s="8"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="8">
         <f>K14+SQRT((2*(K14*K7))/K3)</f>
         <v>29.880372558204243</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="8"/>
-      <c r="O18" s="63" t="s">
+      <c r="O18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P18" s="63" t="s">
+      <c r="P18" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="8">
         <f>K1/K16</f>
-        <v>1.0040035458581626</v>
-      </c>
-      <c r="N19" s="7" t="s">
+        <v>0.50200177292908132</v>
+      </c>
+      <c r="N19" s="63" t="s">
         <v>44</v>
       </c>
       <c r="O19" s="8">
@@ -17081,38 +17081,38 @@
       </c>
       <c r="P19" s="8">
         <f>(O19*K4)+SQRT((2*(O19*K7))/K3)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
       <c r="K20" s="8"/>
-      <c r="N20" s="7"/>
+      <c r="N20" s="63"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
       <c r="K21" s="8"/>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="63" t="s">
         <v>45</v>
       </c>
       <c r="O21" s="8">
@@ -17120,155 +17120,155 @@
       </c>
       <c r="P21" s="8">
         <f>(O21*K4)+(((O21*K7)-K11)/L5)+SQRT((2*K11)/K3)</f>
-        <v>47.746825396825393</v>
+        <v>28.746825396825397</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="8" t="str">
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="8">
         <f>IF(K19&lt;= 1,(-((2*K1*K4)+((2*K7)/K3))^2)-4*(K4^2)*K1^2,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="N22" s="7"/>
+        <v>325</v>
+      </c>
+      <c r="N22" s="63"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
       <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="58" t="str">
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="23">
         <f>IF(K19&lt;= 1,(((2*K1*K4)+((2*K7)/K3))-SQRT(K22))/(2*(K4^2)),"-")</f>
-        <v>-</v>
+        <v>8.486121811340027</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="59"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="19"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="8">
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="8" t="str">
         <f>IF(K19&gt;1,((K1*L5)+K11-(L5*SQRT(((2*K11)/K3))))/(K7+(L5*K4)),"-")</f>
-        <v>11.137482419127988</v>
+        <v>-</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
       <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
       <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17721,23 +17721,23 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="50" t="s">
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
       <c r="R38" t="s">
         <v>11</v>
       </c>
@@ -17747,19 +17747,19 @@
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="53"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
       <c r="R39" t="s">
         <v>12</v>
       </c>
@@ -17769,19 +17769,19 @@
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D40" s="53"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
       <c r="R40" s="1" t="s">
         <v>2</v>
       </c>
@@ -17797,21 +17797,21 @@
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D41" s="53"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="56" t="s">
+      <c r="D41" s="34"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="56"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
       <c r="R41" s="1" t="s">
         <v>3</v>
       </c>
@@ -17827,51 +17827,51 @@
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D42" s="53"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D43" s="53"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D44" s="53"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="51" t="s">
+      <c r="D44" s="34"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="52"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
       <c r="U44" s="1" t="s">
         <v>4</v>
       </c>
@@ -17880,19 +17880,19 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D45" s="53"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
       <c r="R45" s="1" t="s">
         <v>3</v>
       </c>
@@ -17908,133 +17908,133 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D46" s="53"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D47" s="53"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="51" t="s">
+      <c r="D47" s="34"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
-      <c r="P47" s="51"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D48" s="53"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
     </row>
     <row r="49" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D49" s="53"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="51"/>
-      <c r="P49" s="51"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D50" s="53"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="51" t="s">
+      <c r="D50" s="34"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M50" s="51"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="51"/>
-      <c r="P50" s="51"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D51" s="53"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="51"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="51"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
     </row>
     <row r="52" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="53"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D53" s="53"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="51"/>
-      <c r="N53" s="51"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="51"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
     </row>
     <row r="54" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
       <c r="L54" s="8">
         <f>0*K9+((K3*(K9^2))/2)</f>
         <v>94.521604938271594</v>
@@ -18042,8 +18042,8 @@
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
       <c r="L55" s="8"/>
     </row>
     <row r="56" spans="4:16" x14ac:dyDescent="0.25">
@@ -18053,427 +18053,487 @@
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D58" s="57" t="s">
+      <c r="D58" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="51" t="s">
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="51"/>
-      <c r="L58" s="51"/>
-      <c r="M58" s="51"/>
-      <c r="N58" s="51"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D59" s="57"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="51"/>
-      <c r="M59" s="51"/>
-      <c r="N59" s="51"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D60" s="57"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
-      <c r="M60" s="51"/>
-      <c r="N60" s="51"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D61" s="57"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="56" t="s">
+      <c r="D61" s="21"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K61" s="56"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="56"/>
-      <c r="N61" s="56"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D62" s="57"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="56"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D63" s="57"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="56"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="56"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
     </row>
     <row r="64" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D64" s="57"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="51" t="s">
+      <c r="D64" s="21"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K64" s="51"/>
-      <c r="L64" s="51"/>
-      <c r="M64" s="51"/>
-      <c r="N64" s="51"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D65" s="57"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="51"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="51"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D66" s="57"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="51"/>
-      <c r="M66" s="51"/>
-      <c r="N66" s="51"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D67" s="57"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="56" t="s">
+      <c r="D67" s="21"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K67" s="56"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="56"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D68" s="57"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="56"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D69" s="57"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="56"/>
-      <c r="K69" s="56"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="56"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D70" s="57"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="56" t="s">
+      <c r="D70" s="21"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K70" s="56"/>
-      <c r="L70" s="56"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="56"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D71" s="57"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D72" s="57"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="56"/>
-      <c r="K72" s="56"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="56"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D73" s="57"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="51" t="s">
+      <c r="D73" s="21"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K73" s="51"/>
-      <c r="L73" s="51"/>
-      <c r="M73" s="51"/>
-      <c r="N73" s="51"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D74" s="57"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="51"/>
-      <c r="K74" s="51"/>
-      <c r="L74" s="51"/>
-      <c r="M74" s="51"/>
-      <c r="N74" s="51"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D75" s="57"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="51"/>
-      <c r="K75" s="51"/>
-      <c r="L75" s="51"/>
-      <c r="M75" s="51"/>
-      <c r="N75" s="51"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D76" s="57"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="51"/>
-      <c r="M76" s="51"/>
-      <c r="N76" s="51"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D77" s="57"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="51"/>
-      <c r="K77" s="51"/>
-      <c r="L77" s="51"/>
-      <c r="M77" s="51"/>
-      <c r="N77" s="51"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D78" s="57"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="51"/>
-      <c r="N78" s="51"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D79" s="57"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="56" t="s">
+      <c r="D79" s="21"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K79" s="56"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="56"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D80" s="57"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="56"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D81" s="57"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="56"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D82" s="57"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="61" t="s">
+      <c r="D82" s="21"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K82" s="61"/>
-      <c r="L82" s="61"/>
-      <c r="M82" s="61"/>
-      <c r="N82" s="61"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D83" s="57"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="61"/>
-      <c r="K83" s="61"/>
-      <c r="L83" s="61"/>
-      <c r="M83" s="61"/>
-      <c r="N83" s="61"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D84" s="57"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="61"/>
-      <c r="K84" s="61"/>
-      <c r="L84" s="61"/>
-      <c r="M84" s="61"/>
-      <c r="N84" s="61"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D85" s="57"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="61"/>
-      <c r="L85" s="61"/>
-      <c r="M85" s="61"/>
-      <c r="N85" s="61"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D86" s="57"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="61"/>
-      <c r="K86" s="61"/>
-      <c r="L86" s="61"/>
-      <c r="M86" s="61"/>
-      <c r="N86" s="61"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D87" s="57"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="61"/>
-      <c r="K87" s="61"/>
-      <c r="L87" s="61"/>
-      <c r="M87" s="61"/>
-      <c r="N87" s="61"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="Q4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="N6:P7"/>
-    <mergeCell ref="Q6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="N10:P11"/>
-    <mergeCell ref="Q10:T11"/>
-    <mergeCell ref="N8:P9"/>
-    <mergeCell ref="Q8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="Q12:T13"/>
+    <mergeCell ref="N12:P13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="N14:P15"/>
+    <mergeCell ref="Q14:T15"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="D14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A11:C13"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D9:J10"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="D19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="A19:C21"/>
+    <mergeCell ref="A25:C27"/>
+    <mergeCell ref="A22:C24"/>
+    <mergeCell ref="D25:J27"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="E38:K40"/>
+    <mergeCell ref="E41:K43"/>
+    <mergeCell ref="E50:K53"/>
+    <mergeCell ref="L38:P40"/>
+    <mergeCell ref="L44:P46"/>
+    <mergeCell ref="J54:K55"/>
+    <mergeCell ref="E44:K46"/>
+    <mergeCell ref="E47:K49"/>
+    <mergeCell ref="D38:D53"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="D11:J13"/>
+    <mergeCell ref="D7:J8"/>
+    <mergeCell ref="A28:C31"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="J61:N63"/>
+    <mergeCell ref="L41:P43"/>
+    <mergeCell ref="L47:P49"/>
+    <mergeCell ref="L50:P53"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="D22:J24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="D28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="A16:C18"/>
+    <mergeCell ref="D16:J18"/>
+    <mergeCell ref="J64:N66"/>
+    <mergeCell ref="E61:I63"/>
+    <mergeCell ref="E64:I66"/>
+    <mergeCell ref="D58:D87"/>
+    <mergeCell ref="J58:N60"/>
+    <mergeCell ref="E58:I60"/>
     <mergeCell ref="Q1:T3"/>
     <mergeCell ref="N1:P3"/>
     <mergeCell ref="U1:U3"/>
@@ -18490,78 +18550,18 @@
     <mergeCell ref="E67:I69"/>
     <mergeCell ref="E70:I72"/>
     <mergeCell ref="D3:J3"/>
-    <mergeCell ref="J64:N66"/>
-    <mergeCell ref="E61:I63"/>
-    <mergeCell ref="E64:I66"/>
-    <mergeCell ref="D58:D87"/>
-    <mergeCell ref="J58:N60"/>
-    <mergeCell ref="E58:I60"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="N4:P5"/>
-    <mergeCell ref="J61:N63"/>
-    <mergeCell ref="L41:P43"/>
-    <mergeCell ref="L47:P49"/>
-    <mergeCell ref="L50:P53"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="D22:J24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="E38:K40"/>
-    <mergeCell ref="E41:K43"/>
-    <mergeCell ref="E50:K53"/>
-    <mergeCell ref="L38:P40"/>
-    <mergeCell ref="L44:P46"/>
-    <mergeCell ref="J54:K55"/>
-    <mergeCell ref="E44:K46"/>
-    <mergeCell ref="E47:K49"/>
-    <mergeCell ref="D38:D53"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="D11:J13"/>
-    <mergeCell ref="D7:J8"/>
-    <mergeCell ref="A28:C31"/>
-    <mergeCell ref="D28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="A16:C18"/>
-    <mergeCell ref="D16:J18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="D19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="A19:C21"/>
-    <mergeCell ref="A25:C27"/>
-    <mergeCell ref="A22:C24"/>
-    <mergeCell ref="D25:J27"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="N14:P15"/>
-    <mergeCell ref="Q14:T15"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="D14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A11:C13"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="D9:J10"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="Q12:T13"/>
-    <mergeCell ref="N12:P13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="Q4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="N6:P7"/>
+    <mergeCell ref="Q6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="N10:P11"/>
+    <mergeCell ref="Q10:T11"/>
+    <mergeCell ref="N8:P9"/>
+    <mergeCell ref="Q8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="U10:U11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Пропусканая способность светофора.xlsx
+++ b/Пропусканая способность светофора.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Artem\Аспирантура\Пропусканя способность светофора\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF40A0B-9A44-4D0C-9D99-37C98008B40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF019BF-C078-4D36-9439-BB0F7DA6DEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,14 +460,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -475,20 +472,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,101 +490,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -625,7 +529,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11449,8 +11449,8 @@
       <xdr:rowOff>14908</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1078402" cy="317972"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30">
@@ -11569,7 +11569,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30">
@@ -16583,8 +16583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16598,457 +16598,457 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="5">
-        <v>15</v>
-      </c>
-      <c r="N1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="8">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="9">
         <f>IF(K25="-",(3600/(K1+K2))*K28,(3600/(K1+K2))*K25)</f>
-        <v>407.33384694432129</v>
+        <v>1199.810606060606</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="3">
-        <v>60</v>
-      </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="6">
         <v>2</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="8"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="6">
         <v>1</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="9" t="s">
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8">
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9">
         <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="8">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="9">
         <v>70</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="9">
         <f>K5/3.6</f>
         <v>19.444444444444443</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="N6" s="10" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="N6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="8">
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="9">
         <f>U4/U1</f>
-        <v>1.7184921048205537</v>
+        <v>0.5834254143646409</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="25">
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="20">
         <v>5</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="8"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="9"/>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="8"/>
-      <c r="N8" s="12" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="9"/>
+      <c r="N8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="8" t="str">
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="9">
         <f>IF(U6&lt;1,1-U6,"P→ထ")</f>
-        <v>P→ထ</v>
+        <v>0.4165745856353591</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="8">
+      <c r="B9" s="31"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="9">
         <f>(L5-0)/2</f>
         <v>9.7222222222222214</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="8"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="9"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="8"/>
-      <c r="N10" s="12" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="9"/>
+      <c r="N10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="13" t="str">
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="63">
         <f>IF(U6&lt;1,U6/U8,"M→ထ")</f>
-        <v>M→ထ</v>
+        <v>1.4005305039787799</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="8">
+      <c r="B11" s="31"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9">
         <f>0*K9+((K3*(K9^2))/2)</f>
         <v>94.521604938271594</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="13"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="63"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="8"/>
-      <c r="N12" s="12" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9"/>
+      <c r="N12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="8" t="str">
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="9">
         <f>IF(U6&lt;1,1/(U1*(U8)),"Tоб→ထ")</f>
-        <v>Tоб→ထ</v>
-      </c>
-      <c r="V12" s="8" t="str">
+        <v>2.0007578628268284E-3</v>
+      </c>
+      <c r="V12" s="9">
         <f>IF(U6&lt;1,U12*60,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="W12" s="8" t="e">
+        <v>0.1200454717696097</v>
+      </c>
+      <c r="W12" s="9">
         <f>V12*60</f>
-        <v>#VALUE!</v>
+        <v>7.2027283061765814</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="8"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="8">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9">
         <f>K11/K7+1</f>
         <v>19.904320987654319</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="8" t="str">
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="9">
         <f>IF(U6&lt;1,(U6^2)/U8,"M→ထ")</f>
-        <v>M→ထ</v>
+        <v>0.81710508961413908</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="8"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="8"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="9"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="8">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9">
         <f>K14+SQRT((2*(K14*K7))/K3)</f>
         <v>29.880372558204243</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="8"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="8"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="9"/>
       <c r="O18" s="7" t="s">
         <v>46</v>
       </c>
@@ -17057,219 +17057,219 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="8">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="9">
         <f>K1/K16</f>
-        <v>0.50200177292908132</v>
-      </c>
-      <c r="N19" s="63" t="s">
+        <v>1.0040035458581626</v>
+      </c>
+      <c r="N19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="9">
         <v>5</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="9">
         <f>(O19*K4)+SQRT((2*(O19*K7))/K3)</f>
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="8"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="9"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="8"/>
-      <c r="N21" s="63" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="9"/>
+      <c r="N21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="9">
         <v>19</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="9">
         <f>(O21*K4)+(((O21*K7)-K11)/L5)+SQRT((2*K11)/K3)</f>
         <v>28.746825396825397</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="8">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="9" t="str">
         <f>IF(K19&lt;= 1,(-((2*K1*K4)+((2*K7)/K3))^2)-4*(K4^2)*K1^2,"-")</f>
-        <v>325</v>
-      </c>
-      <c r="N22" s="63"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+        <v>-</v>
+      </c>
+      <c r="N22" s="8"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="8"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="8"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="23">
+      <c r="B25" s="31"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="58" t="str">
         <f>IF(K19&lt;= 1,(((2*K1*K4)+((2*K7)/K3))-SQRT(K22))/(2*(K4^2)),"-")</f>
-        <v>8.486121811340027</v>
+        <v>-</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="24"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="59"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="25"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="8" t="str">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="9">
         <f>IF(K19&gt;1,((K1*L5)+K11-(L5*SQRT(((2*K11)/K3))))/(K7+(L5*K4)),"-")</f>
-        <v>-</v>
+        <v>19.996843434343432</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="8"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="8"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="8"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -17721,23 +17721,23 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="32" t="s">
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
       <c r="R38" t="s">
         <v>11</v>
       </c>
@@ -17747,19 +17747,19 @@
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="34"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
       <c r="R39" t="s">
         <v>12</v>
       </c>
@@ -17769,19 +17769,19 @@
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D40" s="34"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
       <c r="R40" s="1" t="s">
         <v>2</v>
       </c>
@@ -17797,21 +17797,21 @@
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D41" s="34"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="16" t="s">
+      <c r="D41" s="54"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
       <c r="R41" s="1" t="s">
         <v>3</v>
       </c>
@@ -17827,51 +17827,51 @@
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D42" s="34"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D43" s="34"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D44" s="34"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="17" t="s">
+      <c r="D44" s="54"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
       <c r="U44" s="1" t="s">
         <v>4</v>
       </c>
@@ -17880,19 +17880,19 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D45" s="34"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="53"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="53"/>
       <c r="R45" s="1" t="s">
         <v>3</v>
       </c>
@@ -17908,143 +17908,143 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D46" s="34"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="53"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D47" s="34"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="17" t="s">
+      <c r="D47" s="54"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D48" s="34"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
     </row>
     <row r="49" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D49" s="34"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="52"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D50" s="34"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="17" t="s">
+      <c r="D50" s="54"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="52"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D51" s="34"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
     </row>
     <row r="52" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="34"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D53" s="34"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
     </row>
     <row r="54" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="8">
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="9">
         <f>0*K9+((K3*(K9^2))/2)</f>
         <v>94.521604938271594</v>
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="8"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="9"/>
     </row>
     <row r="56" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D56" s="4"/>
@@ -18053,426 +18053,488 @@
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="17" t="s">
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D59" s="21"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D60" s="21"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D61" s="21"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="16" t="s">
+      <c r="D61" s="60"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="57"/>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D62" s="21"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="57"/>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D63" s="21"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
     </row>
     <row r="64" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D64" s="21"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="17" t="s">
+      <c r="D64" s="60"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D65" s="21"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D66" s="21"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D67" s="21"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="16" t="s">
+      <c r="D67" s="60"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="57"/>
+      <c r="N67" s="57"/>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D68" s="21"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="57"/>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D69" s="21"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="57"/>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D70" s="21"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="16" t="s">
+      <c r="D70" s="60"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
+      <c r="K70" s="57"/>
+      <c r="L70" s="57"/>
+      <c r="M70" s="57"/>
+      <c r="N70" s="57"/>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D71" s="21"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="57"/>
+      <c r="N71" s="57"/>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D72" s="21"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="57"/>
+      <c r="K72" s="57"/>
+      <c r="L72" s="57"/>
+      <c r="M72" s="57"/>
+      <c r="N72" s="57"/>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D73" s="21"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="17" t="s">
+      <c r="D73" s="60"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
+      <c r="K73" s="52"/>
+      <c r="L73" s="52"/>
+      <c r="M73" s="52"/>
+      <c r="N73" s="52"/>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D74" s="21"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="52"/>
+      <c r="N74" s="52"/>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D75" s="21"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="52"/>
+      <c r="M75" s="52"/>
+      <c r="N75" s="52"/>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D76" s="21"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="52"/>
+      <c r="N76" s="52"/>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D77" s="21"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="52"/>
+      <c r="K77" s="52"/>
+      <c r="L77" s="52"/>
+      <c r="M77" s="52"/>
+      <c r="N77" s="52"/>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D78" s="21"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="52"/>
+      <c r="M78" s="52"/>
+      <c r="N78" s="52"/>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D79" s="21"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="16" t="s">
+      <c r="D79" s="60"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="57"/>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D80" s="21"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="57"/>
+      <c r="K80" s="57"/>
+      <c r="L80" s="57"/>
+      <c r="M80" s="57"/>
+      <c r="N80" s="57"/>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D81" s="21"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="57"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="57"/>
+      <c r="N81" s="57"/>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D82" s="21"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="15" t="s">
+      <c r="D82" s="60"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="62"/>
+      <c r="M82" s="62"/>
+      <c r="N82" s="62"/>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D83" s="21"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="62"/>
+      <c r="L83" s="62"/>
+      <c r="M83" s="62"/>
+      <c r="N83" s="62"/>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D84" s="21"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="62"/>
+      <c r="K84" s="62"/>
+      <c r="L84" s="62"/>
+      <c r="M84" s="62"/>
+      <c r="N84" s="62"/>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D85" s="21"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="62"/>
+      <c r="K85" s="62"/>
+      <c r="L85" s="62"/>
+      <c r="M85" s="62"/>
+      <c r="N85" s="62"/>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D86" s="21"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="62"/>
+      <c r="K86" s="62"/>
+      <c r="L86" s="62"/>
+      <c r="M86" s="62"/>
+      <c r="N86" s="62"/>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D87" s="21"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="62"/>
+      <c r="K87" s="62"/>
+      <c r="L87" s="62"/>
+      <c r="M87" s="62"/>
+      <c r="N87" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="Q12:T13"/>
-    <mergeCell ref="N12:P13"/>
-    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="Q4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="N6:P7"/>
+    <mergeCell ref="Q6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="N10:P11"/>
+    <mergeCell ref="Q10:T11"/>
+    <mergeCell ref="N8:P9"/>
+    <mergeCell ref="Q8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="Q1:T3"/>
+    <mergeCell ref="N1:P3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="J82:N87"/>
+    <mergeCell ref="E82:I84"/>
+    <mergeCell ref="E85:I87"/>
+    <mergeCell ref="J67:N69"/>
+    <mergeCell ref="J70:N72"/>
+    <mergeCell ref="E79:I81"/>
+    <mergeCell ref="E73:I75"/>
+    <mergeCell ref="E76:I78"/>
+    <mergeCell ref="J79:N81"/>
+    <mergeCell ref="J73:N78"/>
+    <mergeCell ref="E67:I69"/>
+    <mergeCell ref="E70:I72"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="J64:N66"/>
+    <mergeCell ref="E61:I63"/>
+    <mergeCell ref="E64:I66"/>
+    <mergeCell ref="D58:D87"/>
+    <mergeCell ref="J58:N60"/>
+    <mergeCell ref="E58:I60"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="J61:N63"/>
+    <mergeCell ref="L41:P43"/>
+    <mergeCell ref="L47:P49"/>
+    <mergeCell ref="L50:P53"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="D22:J24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="D28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="A16:C18"/>
+    <mergeCell ref="D16:J18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="E38:K40"/>
+    <mergeCell ref="E41:K43"/>
+    <mergeCell ref="E50:K53"/>
+    <mergeCell ref="L38:P40"/>
+    <mergeCell ref="L44:P46"/>
+    <mergeCell ref="J54:K55"/>
+    <mergeCell ref="E44:K46"/>
+    <mergeCell ref="E47:K49"/>
+    <mergeCell ref="D38:D53"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="D11:J13"/>
+    <mergeCell ref="D7:J8"/>
+    <mergeCell ref="A28:C31"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="D19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="A19:C21"/>
+    <mergeCell ref="A25:C27"/>
+    <mergeCell ref="A22:C24"/>
+    <mergeCell ref="D25:J27"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="A4:C4"/>
@@ -18489,79 +18551,17 @@
     <mergeCell ref="A11:C13"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="D9:J10"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="D19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="A19:C21"/>
-    <mergeCell ref="A25:C27"/>
-    <mergeCell ref="A22:C24"/>
-    <mergeCell ref="D25:J27"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="E38:K40"/>
-    <mergeCell ref="E41:K43"/>
-    <mergeCell ref="E50:K53"/>
-    <mergeCell ref="L38:P40"/>
-    <mergeCell ref="L44:P46"/>
-    <mergeCell ref="J54:K55"/>
-    <mergeCell ref="E44:K46"/>
-    <mergeCell ref="E47:K49"/>
-    <mergeCell ref="D38:D53"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="D11:J13"/>
-    <mergeCell ref="D7:J8"/>
-    <mergeCell ref="A28:C31"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="N4:P5"/>
-    <mergeCell ref="J61:N63"/>
-    <mergeCell ref="L41:P43"/>
-    <mergeCell ref="L47:P49"/>
-    <mergeCell ref="L50:P53"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="D22:J24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="D28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="A16:C18"/>
-    <mergeCell ref="D16:J18"/>
-    <mergeCell ref="J64:N66"/>
-    <mergeCell ref="E61:I63"/>
-    <mergeCell ref="E64:I66"/>
-    <mergeCell ref="D58:D87"/>
-    <mergeCell ref="J58:N60"/>
-    <mergeCell ref="E58:I60"/>
-    <mergeCell ref="Q1:T3"/>
-    <mergeCell ref="N1:P3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="J82:N87"/>
-    <mergeCell ref="E82:I84"/>
-    <mergeCell ref="E85:I87"/>
-    <mergeCell ref="J67:N69"/>
-    <mergeCell ref="J70:N72"/>
-    <mergeCell ref="E79:I81"/>
-    <mergeCell ref="E73:I75"/>
-    <mergeCell ref="E76:I78"/>
-    <mergeCell ref="J79:N81"/>
-    <mergeCell ref="J73:N78"/>
-    <mergeCell ref="E67:I69"/>
-    <mergeCell ref="E70:I72"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="Q4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="N6:P7"/>
-    <mergeCell ref="Q6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="N10:P11"/>
-    <mergeCell ref="Q10:T11"/>
-    <mergeCell ref="N8:P9"/>
-    <mergeCell ref="Q8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="Q12:T13"/>
+    <mergeCell ref="N12:P13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Пропусканая способность светофора.xlsx
+++ b/Пропусканая способность светофора.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Artem\Аспирантура\Пропусканя способность светофора\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF019BF-C078-4D36-9439-BB0F7DA6DEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3694B1B3-5ABF-497D-B618-299E16D59F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16583,8 +16583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16611,7 +16611,7 @@
       <c r="I1" s="55"/>
       <c r="J1" s="55"/>
       <c r="K1" s="5">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N1" s="61" t="s">
         <v>34</v>
@@ -16624,7 +16624,14 @@
       <c r="T1" s="10"/>
       <c r="U1" s="9">
         <f>IF(K25="-",(3600/(K1+K2))*K28,(3600/(K1+K2))*K25)</f>
-        <v>1199.810606060606</v>
+        <v>1459.7688054441608</v>
+      </c>
+      <c r="V1" s="9">
+        <f>U1*W1</f>
+        <v>4379.3064163324825</v>
+      </c>
+      <c r="W1" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -16641,7 +16648,7 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N2" s="61"/>
       <c r="O2" s="61"/>
@@ -16651,6 +16658,7 @@
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
       <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -16668,7 +16676,7 @@
       <c r="I3" s="16"/>
       <c r="J3" s="17"/>
       <c r="K3" s="6">
-        <v>2</v>
+        <v>2.0259999999999998</v>
       </c>
       <c r="N3" s="61"/>
       <c r="O3" s="61"/>
@@ -16678,6 +16686,7 @@
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
@@ -16693,7 +16702,7 @@
       <c r="I4" s="16"/>
       <c r="J4" s="17"/>
       <c r="K4" s="6">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>35</v>
@@ -16707,7 +16716,7 @@
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9">
-        <v>700</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16763,7 +16772,7 @@
       <c r="T6" s="10"/>
       <c r="U6" s="9">
         <f>U4/U1</f>
-        <v>0.5834254143646409</v>
+        <v>0.42540983043616254</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16782,7 +16791,7 @@
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
       <c r="K7" s="20">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
@@ -16816,7 +16825,7 @@
       <c r="T8" s="10"/>
       <c r="U8" s="9">
         <f>IF(U6&lt;1,1-U6,"P→ထ")</f>
-        <v>0.4165745856353591</v>
+        <v>0.57459016956383746</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16868,7 +16877,7 @@
       <c r="T10" s="10"/>
       <c r="U10" s="63">
         <f>IF(U6&lt;1,U6/U8,"M→ထ")</f>
-        <v>1.4005305039787799</v>
+        <v>0.74037088166524778</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16886,7 +16895,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="9">
         <f>0*K9+((K3*(K9^2))/2)</f>
-        <v>94.521604938271594</v>
+        <v>95.750385802469111</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
@@ -16920,15 +16929,15 @@
       <c r="T12" s="10"/>
       <c r="U12" s="9">
         <f>IF(U6&lt;1,1/(U1*(U8)),"Tоб→ထ")</f>
-        <v>2.0007578628268284E-3</v>
+        <v>1.1922236419730239E-3</v>
       </c>
       <c r="V12" s="9">
         <f>IF(U6&lt;1,U12*60,"-")</f>
-        <v>0.1200454717696097</v>
+        <v>7.1533418518381436E-2</v>
       </c>
       <c r="W12" s="9">
         <f>V12*60</f>
-        <v>7.2027283061765814</v>
+        <v>4.2920051111028865</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16969,7 +16978,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="9">
         <f>K11/K7+1</f>
-        <v>19.904320987654319</v>
+        <v>19.41353573124406</v>
       </c>
       <c r="N14" s="18" t="s">
         <v>40</v>
@@ -16982,7 +16991,7 @@
       <c r="T14" s="10"/>
       <c r="U14" s="9">
         <f>IF(U6&lt;1,(U6^2)/U8,"M→ထ")</f>
-        <v>0.81710508961413908</v>
+        <v>0.31496105122908524</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17021,7 +17030,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="9">
         <f>K14+SQRT((2*(K14*K7))/K3)</f>
-        <v>29.880372558204243</v>
+        <v>29.396264439392091</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -17071,17 +17080,17 @@
       <c r="J19" s="10"/>
       <c r="K19" s="9">
         <f>K1/K16</f>
-        <v>1.0040035458581626</v>
+        <v>2.1091115208814659</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>44</v>
       </c>
       <c r="O19" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P19" s="9">
         <f>(O19*K4)+SQRT((2*(O19*K7))/K3)</f>
-        <v>10</v>
+        <v>7.824258218648942</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -17120,7 +17129,7 @@
       </c>
       <c r="P21" s="9">
         <f>(O21*K4)+(((O21*K7)-K11)/L5)+SQRT((2*K11)/K3)</f>
-        <v>28.746825396825397</v>
+        <v>34.579059523809519</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -17229,7 +17238,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="9">
         <f>IF(K19&gt;1,((K1*L5)+K11-(L5*SQRT(((2*K11)/K3))))/(K7+(L5*K4)),"-")</f>
-        <v>19.996843434343432</v>
+        <v>36.494220136104019</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -17274,255 +17283,255 @@
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>(A35*2)+SQRT((2*(A35*5))/K3)</f>
-        <v>4.2360679774997898</v>
+        <v>4.2216737285146895</v>
       </c>
       <c r="B32">
         <f>(B35*2)+SQRT((2*(B35*5))/$K$3)</f>
-        <v>7.16227766016838</v>
+        <v>7.1419211180334745</v>
       </c>
       <c r="C32">
         <f t="shared" ref="C32:H32" si="0">(C35*2)+SQRT((2*(C35*5))/$K$3)</f>
-        <v>9.8729833462074161</v>
+        <v>9.8480517756284254</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>12.47213595499958</v>
+        <v>12.443347457029379</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14.967813480784258</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>17.477225575051662</v>
+        <v>17.441967009807591</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>19.916079783099615</v>
+        <v>19.877996179975497</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>22.32455532033676</v>
+        <v>22.283842236066949</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ref="A33:Z33" si="1">A35*1+SQRT((2*($L$54)/$K$3))+((A36-$L$54)/$L$5)</f>
-        <v>6.1182539682539678</v>
+        <v>6.0550595238095237</v>
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>7.375396825396825</v>
+        <v>7.3122023809523808</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>8.632539682539683</v>
+        <v>8.569345238095238</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>9.8896825396825392</v>
+        <v>9.826488095238096</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>11.146825396825395</v>
+        <v>11.083630952380952</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>12.403968253968253</v>
+        <v>12.34077380952381</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>13.661111111111111</v>
+        <v>13.597916666666666</v>
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>14.918253968253968</v>
+        <v>14.855059523809524</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>16.175396825396824</v>
+        <v>16.112202380952382</v>
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>17.432539682539684</v>
+        <v>17.369345238095239</v>
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>18.68968253968254</v>
+        <v>18.626488095238095</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>19.946825396825396</v>
+        <v>19.883630952380951</v>
       </c>
       <c r="M33">
         <f t="shared" si="1"/>
-        <v>21.203968253968252</v>
+        <v>21.140773809523811</v>
       </c>
       <c r="N33">
         <f t="shared" si="1"/>
-        <v>22.461111111111112</v>
+        <v>22.397916666666667</v>
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>23.718253968253968</v>
+        <v>23.655059523809523</v>
       </c>
       <c r="P33">
         <f t="shared" si="1"/>
-        <v>24.975396825396825</v>
+        <v>24.91220238095238</v>
       </c>
       <c r="Q33">
         <f t="shared" si="1"/>
-        <v>26.232539682539681</v>
+        <v>26.169345238095239</v>
       </c>
       <c r="R33">
         <f t="shared" si="1"/>
-        <v>27.489682539682541</v>
+        <v>27.426488095238096</v>
       </c>
       <c r="S33">
         <f t="shared" si="1"/>
-        <v>28.746825396825397</v>
+        <v>28.683630952380952</v>
       </c>
       <c r="T33">
         <f t="shared" si="1"/>
-        <v>30.003968253968253</v>
+        <v>29.940773809523812</v>
       </c>
       <c r="U33">
         <f t="shared" si="1"/>
-        <v>31.261111111111109</v>
+        <v>31.197916666666668</v>
       </c>
       <c r="V33">
         <f t="shared" si="1"/>
-        <v>32.518253968253966</v>
+        <v>32.455059523809524</v>
       </c>
       <c r="W33">
         <f t="shared" si="1"/>
-        <v>33.775396825396825</v>
+        <v>33.712202380952384</v>
       </c>
       <c r="X33">
         <f t="shared" si="1"/>
-        <v>35.032539682539685</v>
+        <v>34.969345238095237</v>
       </c>
       <c r="Y33">
         <f t="shared" si="1"/>
-        <v>36.289682539682538</v>
+        <v>36.226488095238096</v>
       </c>
       <c r="Z33">
         <f t="shared" si="1"/>
-        <v>55.146825396825399</v>
+        <v>55.08363095238095</v>
       </c>
       <c r="AA33">
         <f>AA35*1+((AA36-$L$54)/$L$5)+ SQRT((2*($L$54)/$K$3))</f>
-        <v>105.4325396825397</v>
+        <v>105.36934523809524</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f>A35*1+SQRT((2*(A35*5))/K3)</f>
-        <v>3.2360679774997898</v>
+        <v>3.221673728514689</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" ref="B34:AA34" si="2">B35*1+SQRT((2*(B35*5))/$K$3)</f>
-        <v>5.16227766016838</v>
+        <v>5.1419211180334745</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="2"/>
-        <v>6.872983346207417</v>
+        <v>6.8480517756284254</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="2"/>
-        <v>8.4721359549995796</v>
+        <v>8.4433474570293789</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9.9678134807842582</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="2"/>
-        <v>11.477225575051662</v>
+        <v>11.441967009807589</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="2"/>
-        <v>12.916079783099615</v>
+        <v>12.877996179975495</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="2"/>
-        <v>14.32455532033676</v>
+        <v>14.283842236066949</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="2"/>
-        <v>15.708203932499369</v>
+        <v>15.665021185544067</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="2"/>
-        <v>17.071067811865476</v>
+        <v>17.02554919986499</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="2"/>
-        <v>18.416198487095663</v>
+        <v>18.368458164073129</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>19.745966692414832</v>
+        <v>19.696103551256851</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="2"/>
-        <v>21.062257748298549</v>
+        <v>21.010358545510975</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="2"/>
-        <v>22.366600265340757</v>
+        <v>22.312741917298588</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="2"/>
-        <v>23.660254037844389</v>
+        <v>23.60450535124393</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="2"/>
-        <v>24.944271909999159</v>
+        <v>24.886694914058758</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="2"/>
-        <v>26.219544457292887</v>
+        <v>26.160195448325879</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="2"/>
-        <v>27.486832980505138</v>
+        <v>27.425763354100425</v>
       </c>
       <c r="S34" s="2">
         <f t="shared" si="2"/>
-        <v>28.746794344808961</v>
+        <v>28.684051268114747</v>
       </c>
       <c r="T34" s="2">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>29.935626961568516</v>
       </c>
       <c r="U34" s="2">
         <f t="shared" si="2"/>
-        <v>31.246950765959596</v>
+        <v>31.180988030413332</v>
       </c>
       <c r="V34" s="2">
         <f t="shared" si="2"/>
-        <v>32.488088481701517</v>
+        <v>32.420573469410975</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="2"/>
-        <v>33.723805294763608</v>
+        <v>33.654772901726446</v>
       </c>
       <c r="X34" s="2">
         <f t="shared" si="2"/>
-        <v>34.954451150103324</v>
+        <v>34.883934019615182</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="2"/>
-        <v>36.180339887498945</v>
+        <v>36.108368642573446</v>
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="2"/>
-        <v>54.142135623730951</v>
+        <v>54.05109839972998</v>
       </c>
       <c r="AA34" s="2">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>99.871253923137033</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
@@ -17743,7 +17752,7 @@
       </c>
       <c r="S38">
         <f>(-(2*V40+((2*V41)/K3))^2)-4*V40^2</f>
-        <v>225</v>
+        <v>221.79582505415772</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
@@ -17765,7 +17774,7 @@
       </c>
       <c r="S39">
         <f>(((2*V40)+((2*V41)/K3))-SQRT(S38))/2</f>
-        <v>5</v>
+        <v>5.0215114844437867</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -17898,7 +17907,7 @@
       </c>
       <c r="S45" s="1">
         <f>((V44*L5)+L54-(L5*SQRT(((2*L54)/K3))))/(V45+L5)</f>
-        <v>4.0877525252525269</v>
+        <v>4.1380208333333321</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>5</v>
@@ -18037,7 +18046,7 @@
       <c r="K54" s="10"/>
       <c r="L54" s="9">
         <f>0*K9+((K3*(K9^2))/2)</f>
-        <v>94.521604938271594</v>
+        <v>95.750385802469111</v>
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.25">
@@ -18461,7 +18470,8 @@
       <c r="N87" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
+  <mergeCells count="101">
+    <mergeCell ref="V1:V3"/>
     <mergeCell ref="W12:W13"/>
     <mergeCell ref="Q4:T5"/>
     <mergeCell ref="U4:U5"/>

--- a/Пропусканая способность светофора.xlsx
+++ b/Пропусканая способность светофора.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Artem\Аспирантура\Пропусканя способность светофора\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3694B1B3-5ABF-497D-B618-299E16D59F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE3B986-B0CF-430E-8DAF-521E476CFE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,11 +460,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -472,14 +475,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -490,14 +499,101 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -529,103 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -16584,7 +16584,7 @@
   <dimension ref="A1:AA87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K9" sqref="K9:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16598,466 +16598,466 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="5">
         <v>62</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="9">
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="8">
         <f>IF(K25="-",(3600/(K1+K2))*K28,(3600/(K1+K2))*K25)</f>
-        <v>1459.7688054441608</v>
-      </c>
-      <c r="V1" s="9">
+        <v>1473.7921282834602</v>
+      </c>
+      <c r="V1" s="8">
         <f>U1*W1</f>
-        <v>4379.3064163324825</v>
+        <v>4421.3763848503804</v>
       </c>
       <c r="W1" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="3">
         <v>28</v>
       </c>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="6">
         <v>2.0259999999999998</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="6">
         <v>1.3</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="56" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9">
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8">
         <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="9">
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="8">
         <v>70</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <f>K5/3.6</f>
         <v>19.444444444444443</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="N6" s="18" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="N6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="9">
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="8">
         <f>U4/U1</f>
-        <v>0.42540983043616254</v>
+        <v>0.42136200084287645</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="56" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="20">
-        <v>5.2</v>
-      </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="25">
+        <v>4.91</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="9"/>
-      <c r="N8" s="11" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="8"/>
+      <c r="N8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="9">
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="8">
         <f>IF(U6&lt;1,1-U6,"P→ထ")</f>
-        <v>0.57459016956383746</v>
+        <v>0.57863799915712355</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="9">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="8">
         <f>(L5-0)/2</f>
         <v>9.7222222222222214</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="9"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="9"/>
-      <c r="N10" s="11" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="8"/>
+      <c r="N10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="63">
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="13">
         <f>IF(U6&lt;1,U6/U8,"M→ထ")</f>
-        <v>0.74037088166524778</v>
+        <v>0.72819621500256793</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="9">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="8">
         <f>0*K9+((K3*(K9^2))/2)</f>
         <v>95.750385802469111</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="63"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="13"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="9"/>
-      <c r="N12" s="11" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="8"/>
+      <c r="N12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="9">
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="8">
         <f>IF(U6&lt;1,1/(U1*(U8)),"Tоб→ထ")</f>
-        <v>1.1922236419730239E-3</v>
-      </c>
-      <c r="V12" s="9">
+        <v>1.1726187037078388E-3</v>
+      </c>
+      <c r="V12" s="8">
         <f>IF(U6&lt;1,U12*60,"-")</f>
-        <v>7.1533418518381436E-2</v>
-      </c>
-      <c r="W12" s="9">
+        <v>7.0357122222470328E-2</v>
+      </c>
+      <c r="W12" s="8">
         <f>V12*60</f>
-        <v>4.2920051111028865</v>
+        <v>4.2214273333482195</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="9"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="8"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="9">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="8">
         <f>K11/K7+1</f>
-        <v>19.41353573124406</v>
-      </c>
-      <c r="N14" s="18" t="s">
+        <v>20.50109690477986</v>
+      </c>
+      <c r="N14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="9">
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="8">
         <f>IF(U6&lt;1,(U6^2)/U8,"M→ထ")</f>
-        <v>0.31496105122908524</v>
+        <v>0.30683421415969148</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="9"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="9"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="8"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="8"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="9">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="8">
         <f>K14+SQRT((2*(K14*K7))/K3)</f>
-        <v>29.396264439392091</v>
+        <v>30.469476616620518</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="9"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="9"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="8"/>
       <c r="O18" s="7" t="s">
         <v>46</v>
       </c>
@@ -17066,219 +17066,219 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="9">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="8">
         <f>K1/K16</f>
-        <v>2.1091115208814659</v>
-      </c>
-      <c r="N19" s="8" t="s">
+        <v>2.0348232685487018</v>
+      </c>
+      <c r="N19" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="8">
         <v>3</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="8">
         <f>(O19*K4)+SQRT((2*(O19*K7))/K3)</f>
-        <v>7.824258218648942</v>
+        <v>7.7132620449550249</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="9"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="8"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="9"/>
-      <c r="N21" s="8" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="8"/>
+      <c r="N21" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="8">
         <v>19</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="8">
         <f>(O21*K4)+(((O21*K7)-K11)/L5)+SQRT((2*K11)/K3)</f>
-        <v>34.579059523809519</v>
+        <v>34.295688095238091</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="9" t="str">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="8" t="str">
         <f>IF(K19&lt;= 1,(-((2*K1*K4)+((2*K7)/K3))^2)-4*(K4^2)*K1^2,"-")</f>
         <v>-</v>
       </c>
-      <c r="N22" s="8"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="9"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="9"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="58" t="str">
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="23" t="str">
         <f>IF(K19&lt;= 1,(((2*K1*K4)+((2*K7)/K3))-SQRT(K22))/(2*(K4^2)),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="59"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="20"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="9">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="8">
         <f>IF(K19&gt;1,((K1*L5)+K11-(L5*SQRT(((2*K11)/K3))))/(K7+(L5*K4)),"-")</f>
-        <v>36.494220136104019</v>
+        <v>36.844803207086507</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="9"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="9"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="9"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -17730,23 +17730,23 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="51" t="s">
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
       <c r="R38" t="s">
         <v>11</v>
       </c>
@@ -17756,19 +17756,19 @@
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="54"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
       <c r="R39" t="s">
         <v>12</v>
       </c>
@@ -17778,19 +17778,19 @@
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D40" s="54"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
       <c r="R40" s="1" t="s">
         <v>2</v>
       </c>
@@ -17806,21 +17806,21 @@
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D41" s="54"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="57" t="s">
+      <c r="D41" s="35"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="57"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
       <c r="R41" s="1" t="s">
         <v>3</v>
       </c>
@@ -17836,51 +17836,51 @@
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D42" s="54"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D43" s="54"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D44" s="54"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="52" t="s">
+      <c r="D44" s="35"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
       <c r="U44" s="1" t="s">
         <v>4</v>
       </c>
@@ -17889,19 +17889,19 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D45" s="54"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
       <c r="R45" s="1" t="s">
         <v>3</v>
       </c>
@@ -17917,143 +17917,143 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D46" s="54"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D47" s="54"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="52" t="s">
+      <c r="D47" s="35"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D48" s="54"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
     </row>
     <row r="49" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D49" s="54"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="52"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D50" s="54"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="52" t="s">
+      <c r="D50" s="35"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="52"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D51" s="54"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
     </row>
     <row r="52" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="54"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D53" s="54"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
     </row>
     <row r="54" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="9">
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="8">
         <f>0*K9+((K3*(K9^2))/2)</f>
         <v>95.750385802469111</v>
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="9"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="8"/>
     </row>
     <row r="56" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D56" s="4"/>
@@ -18062,466 +18062,440 @@
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D58" s="60" t="s">
+      <c r="D58" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="52" t="s">
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D59" s="60"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D60" s="60"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D61" s="60"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="57" t="s">
+      <c r="D61" s="21"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K61" s="57"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="57"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D62" s="60"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="57"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="57"/>
-      <c r="M62" s="57"/>
-      <c r="N62" s="57"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D63" s="60"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="57"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
     </row>
     <row r="64" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D64" s="60"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="52" t="s">
+      <c r="D64" s="21"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D65" s="60"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D66" s="60"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
-      <c r="N66" s="52"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D67" s="60"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="57" t="s">
+      <c r="D67" s="21"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K67" s="57"/>
-      <c r="L67" s="57"/>
-      <c r="M67" s="57"/>
-      <c r="N67" s="57"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D68" s="60"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="57"/>
-      <c r="K68" s="57"/>
-      <c r="L68" s="57"/>
-      <c r="M68" s="57"/>
-      <c r="N68" s="57"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D69" s="60"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="57"/>
-      <c r="K69" s="57"/>
-      <c r="L69" s="57"/>
-      <c r="M69" s="57"/>
-      <c r="N69" s="57"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D70" s="60"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="57" t="s">
+      <c r="D70" s="21"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K70" s="57"/>
-      <c r="L70" s="57"/>
-      <c r="M70" s="57"/>
-      <c r="N70" s="57"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D71" s="60"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="57"/>
-      <c r="K71" s="57"/>
-      <c r="L71" s="57"/>
-      <c r="M71" s="57"/>
-      <c r="N71" s="57"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D72" s="60"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="57"/>
-      <c r="K72" s="57"/>
-      <c r="L72" s="57"/>
-      <c r="M72" s="57"/>
-      <c r="N72" s="57"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D73" s="60"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="52" t="s">
+      <c r="D73" s="21"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K73" s="52"/>
-      <c r="L73" s="52"/>
-      <c r="M73" s="52"/>
-      <c r="N73" s="52"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D74" s="60"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="52"/>
-      <c r="K74" s="52"/>
-      <c r="L74" s="52"/>
-      <c r="M74" s="52"/>
-      <c r="N74" s="52"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D75" s="60"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="52"/>
-      <c r="L75" s="52"/>
-      <c r="M75" s="52"/>
-      <c r="N75" s="52"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D76" s="60"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="52"/>
-      <c r="K76" s="52"/>
-      <c r="L76" s="52"/>
-      <c r="M76" s="52"/>
-      <c r="N76" s="52"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D77" s="60"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="52"/>
-      <c r="K77" s="52"/>
-      <c r="L77" s="52"/>
-      <c r="M77" s="52"/>
-      <c r="N77" s="52"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D78" s="60"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="52"/>
-      <c r="K78" s="52"/>
-      <c r="L78" s="52"/>
-      <c r="M78" s="52"/>
-      <c r="N78" s="52"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D79" s="60"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="57" t="s">
+      <c r="D79" s="21"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K79" s="57"/>
-      <c r="L79" s="57"/>
-      <c r="M79" s="57"/>
-      <c r="N79" s="57"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D80" s="60"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="57"/>
-      <c r="K80" s="57"/>
-      <c r="L80" s="57"/>
-      <c r="M80" s="57"/>
-      <c r="N80" s="57"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D81" s="60"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="57"/>
-      <c r="K81" s="57"/>
-      <c r="L81" s="57"/>
-      <c r="M81" s="57"/>
-      <c r="N81" s="57"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D82" s="60"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="62" t="s">
+      <c r="D82" s="21"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K82" s="62"/>
-      <c r="L82" s="62"/>
-      <c r="M82" s="62"/>
-      <c r="N82" s="62"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D83" s="60"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="62"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="62"/>
-      <c r="M83" s="62"/>
-      <c r="N83" s="62"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D84" s="60"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="62"/>
-      <c r="K84" s="62"/>
-      <c r="L84" s="62"/>
-      <c r="M84" s="62"/>
-      <c r="N84" s="62"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D85" s="60"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="62"/>
-      <c r="K85" s="62"/>
-      <c r="L85" s="62"/>
-      <c r="M85" s="62"/>
-      <c r="N85" s="62"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D86" s="60"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="62"/>
-      <c r="K86" s="62"/>
-      <c r="L86" s="62"/>
-      <c r="M86" s="62"/>
-      <c r="N86" s="62"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D87" s="60"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="62"/>
-      <c r="K87" s="62"/>
-      <c r="L87" s="62"/>
-      <c r="M87" s="62"/>
-      <c r="N87" s="62"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="Q4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="N6:P7"/>
-    <mergeCell ref="Q6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="N10:P11"/>
-    <mergeCell ref="Q10:T11"/>
-    <mergeCell ref="N8:P9"/>
-    <mergeCell ref="Q8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="Q1:T3"/>
-    <mergeCell ref="N1:P3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="J82:N87"/>
-    <mergeCell ref="E82:I84"/>
-    <mergeCell ref="E85:I87"/>
-    <mergeCell ref="J67:N69"/>
-    <mergeCell ref="J70:N72"/>
-    <mergeCell ref="E79:I81"/>
-    <mergeCell ref="E73:I75"/>
-    <mergeCell ref="E76:I78"/>
-    <mergeCell ref="J79:N81"/>
-    <mergeCell ref="J73:N78"/>
-    <mergeCell ref="E67:I69"/>
-    <mergeCell ref="E70:I72"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="J64:N66"/>
-    <mergeCell ref="E61:I63"/>
-    <mergeCell ref="E64:I66"/>
-    <mergeCell ref="D58:D87"/>
-    <mergeCell ref="J58:N60"/>
-    <mergeCell ref="E58:I60"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="N4:P5"/>
-    <mergeCell ref="J61:N63"/>
-    <mergeCell ref="L41:P43"/>
-    <mergeCell ref="L47:P49"/>
-    <mergeCell ref="L50:P53"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="D22:J24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="D28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="A16:C18"/>
-    <mergeCell ref="D16:J18"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="Q12:T13"/>
+    <mergeCell ref="N12:P13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="N14:P15"/>
+    <mergeCell ref="Q14:T15"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="D14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="A11:C13"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D9:J10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="L54:L55"/>
     <mergeCell ref="E38:K40"/>
@@ -18546,32 +18520,58 @@
     <mergeCell ref="A22:C24"/>
     <mergeCell ref="D25:J27"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="J64:N66"/>
+    <mergeCell ref="E61:I63"/>
+    <mergeCell ref="E64:I66"/>
+    <mergeCell ref="D58:D87"/>
+    <mergeCell ref="J58:N60"/>
+    <mergeCell ref="E58:I60"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="J61:N63"/>
+    <mergeCell ref="L41:P43"/>
+    <mergeCell ref="L47:P49"/>
+    <mergeCell ref="L50:P53"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="D22:J24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="D28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="A16:C18"/>
+    <mergeCell ref="D16:J18"/>
     <mergeCell ref="D4:J4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="N14:P15"/>
-    <mergeCell ref="Q14:T15"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="D14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="A11:C13"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="D9:J10"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="Q12:T13"/>
-    <mergeCell ref="N12:P13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="J82:N87"/>
+    <mergeCell ref="E82:I84"/>
+    <mergeCell ref="E85:I87"/>
+    <mergeCell ref="J67:N69"/>
+    <mergeCell ref="J70:N72"/>
+    <mergeCell ref="E79:I81"/>
+    <mergeCell ref="E73:I75"/>
+    <mergeCell ref="E76:I78"/>
+    <mergeCell ref="J79:N81"/>
+    <mergeCell ref="J73:N78"/>
+    <mergeCell ref="E67:I69"/>
+    <mergeCell ref="E70:I72"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="Q4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="N6:P7"/>
+    <mergeCell ref="Q6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="N10:P11"/>
+    <mergeCell ref="Q10:T11"/>
+    <mergeCell ref="N8:P9"/>
+    <mergeCell ref="Q8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="Q1:T3"/>
+    <mergeCell ref="N1:P3"/>
+    <mergeCell ref="U1:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Пропусканая способность светофора.xlsx
+++ b/Пропусканая способность светофора.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Artem\Аспирантура\Пропусканя способность светофора\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE3B986-B0CF-430E-8DAF-521E476CFE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF5E19D-B4AA-4885-876E-F8916BCD0E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,6 +175,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.00\ _₽"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -475,9 +478,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -502,17 +502,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -626,6 +620,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -16583,8 +16592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:K10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16595,40 +16604,41 @@
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
     <col min="19" max="19" width="14.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="5">
         <v>62</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
-      <c r="U1" s="8">
+      <c r="U1" s="61">
         <f>IF(K25="-",(3600/(K1+K2))*K28,(3600/(K1+K2))*K25)</f>
-        <v>1473.7921282834602</v>
+        <v>1462.1199653793637</v>
       </c>
       <c r="V1" s="8">
         <f>U1*W1</f>
-        <v>4421.3763848503804</v>
+        <v>4386.3598961380912</v>
       </c>
       <c r="W1" s="6">
         <v>3</v>
@@ -16650,59 +16660,59 @@
       <c r="K2" s="3">
         <v>28</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
-      <c r="U2" s="8"/>
+      <c r="U2" s="61"/>
       <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="6">
-        <v>2.0259999999999998</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
+        <v>1.99</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
-      <c r="U3" s="8"/>
+      <c r="U3" s="61"/>
       <c r="V3" s="8"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="6">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="N4" s="12" t="s">
         <v>35</v>
@@ -16715,27 +16725,27 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
-      <c r="U4" s="8">
+      <c r="U4" s="61">
         <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="8">
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="61">
         <v>70</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="21">
         <f>K5/3.6</f>
         <v>19.444444444444443</v>
       </c>
@@ -16746,21 +16756,21 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
+      <c r="U5" s="61"/>
     </row>
     <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="21"/>
       <c r="N6" s="10" t="s">
         <v>37</v>
       </c>
@@ -16770,17 +16780,17 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="8">
+      <c r="U6" s="61">
         <f>U4/U1</f>
-        <v>0.42136200084287645</v>
+        <v>0.42472575076209595</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
@@ -16790,7 +16800,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="25">
+      <c r="K7" s="62">
         <v>4.91</v>
       </c>
       <c r="N7" s="10"/>
@@ -16800,12 +16810,12 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="8"/>
+      <c r="U7" s="61"/>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -16813,7 +16823,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="61"/>
       <c r="N8" s="12" t="s">
         <v>38</v>
       </c>
@@ -16823,25 +16833,25 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="8">
+      <c r="U8" s="61">
         <f>IF(U6&lt;1,1-U6,"P→ထ")</f>
-        <v>0.57863799915712355</v>
+        <v>0.57527424923790405</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="8">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="61">
         <f>(L5-0)/2</f>
         <v>9.7222222222222214</v>
       </c>
@@ -16852,20 +16862,20 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="8"/>
+      <c r="U9" s="61"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="8"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="61"/>
       <c r="N10" s="12" t="s">
         <v>39</v>
       </c>
@@ -16875,17 +16885,17 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="13">
+      <c r="U10" s="65">
         <f>IF(U6&lt;1,U6/U8,"M→ထ")</f>
-        <v>0.72819621500256793</v>
+        <v>0.7383013429242703</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -16893,9 +16903,9 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="8">
+      <c r="K11" s="61">
         <f>0*K9+((K3*(K9^2))/2)</f>
-        <v>95.750385802469111</v>
+        <v>94.04899691358024</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -16904,12 +16914,12 @@
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="13"/>
+      <c r="U11" s="65"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -16917,7 +16927,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="8"/>
+      <c r="K12" s="61"/>
       <c r="N12" s="12" t="s">
         <v>41</v>
       </c>
@@ -16927,23 +16937,23 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="8">
+      <c r="U12" s="61">
         <f>IF(U6&lt;1,1/(U1*(U8)),"Tоб→ထ")</f>
-        <v>1.1726187037078388E-3</v>
-      </c>
-      <c r="V12" s="8">
+        <v>1.1888910514078427E-3</v>
+      </c>
+      <c r="V12" s="61">
         <f>IF(U6&lt;1,U12*60,"-")</f>
-        <v>7.0357122222470328E-2</v>
-      </c>
-      <c r="W12" s="8">
+        <v>7.1333463084470555E-2</v>
+      </c>
+      <c r="W12" s="61">
         <f>V12*60</f>
-        <v>4.2214273333482195</v>
+        <v>4.280007785068233</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -16951,7 +16961,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="8"/>
+      <c r="K13" s="61"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
@@ -16959,16 +16969,16 @@
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -16976,9 +16986,9 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="8">
+      <c r="K14" s="61">
         <f>K11/K7+1</f>
-        <v>20.50109690477986</v>
+        <v>20.15458185612632</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>40</v>
@@ -16989,15 +16999,15 @@
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="8">
+      <c r="U14" s="61">
         <f>IF(U6&lt;1,(U6^2)/U8,"M→ထ")</f>
-        <v>0.30683421415969148</v>
+        <v>0.3135755921621744</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -17005,7 +17015,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="8"/>
+      <c r="K15" s="61"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -17013,14 +17023,14 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
-      <c r="U15" s="8"/>
+      <c r="U15" s="61"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -17028,15 +17038,15 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="8">
+      <c r="K16" s="61">
         <f>K14+SQRT((2*(K14*K7))/K3)</f>
-        <v>30.469476616620518</v>
+        <v>30.127358716414822</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -17044,12 +17054,12 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="8"/>
+      <c r="K17" s="61"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -17057,7 +17067,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="8"/>
+      <c r="K18" s="61"/>
       <c r="O18" s="7" t="s">
         <v>46</v>
       </c>
@@ -17066,11 +17076,11 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
@@ -17078,11 +17088,11 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="8">
+      <c r="K19" s="61">
         <f>K1/K16</f>
-        <v>2.0348232685487018</v>
-      </c>
-      <c r="N19" s="63" t="s">
+        <v>2.0579301552319436</v>
+      </c>
+      <c r="N19" s="60" t="s">
         <v>44</v>
       </c>
       <c r="O19" s="8">
@@ -17090,13 +17100,13 @@
       </c>
       <c r="P19" s="8">
         <f>(O19*K4)+SQRT((2*(O19*K7))/K3)</f>
-        <v>7.7132620449550249</v>
+        <v>7.7775992645417888</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -17104,15 +17114,15 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="8"/>
-      <c r="N20" s="63"/>
+      <c r="K20" s="61"/>
+      <c r="N20" s="60"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -17120,8 +17130,8 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="8"/>
-      <c r="N21" s="63" t="s">
+      <c r="K21" s="61"/>
+      <c r="N21" s="60" t="s">
         <v>45</v>
       </c>
       <c r="O21" s="8">
@@ -17129,15 +17139,15 @@
       </c>
       <c r="P21" s="8">
         <f>(O21*K4)+(((O21*K7)-K11)/L5)+SQRT((2*K11)/K3)</f>
-        <v>34.295688095238091</v>
+        <v>34.573188095238095</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -17145,18 +17155,18 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="8" t="str">
+      <c r="K22" s="61" t="str">
         <f>IF(K19&lt;= 1,(-((2*K1*K4)+((2*K7)/K3))^2)-4*(K4^2)*K1^2,"-")</f>
         <v>-</v>
       </c>
-      <c r="N22" s="63"/>
+      <c r="N22" s="60"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -17164,12 +17174,12 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="8"/>
+      <c r="K23" s="61"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -17177,58 +17187,58 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="8"/>
+      <c r="K24" s="61"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="23" t="str">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="63" t="str">
         <f>IF(K19&lt;= 1,(((2*K1*K4)+((2*K7)/K3))-SQRT(K22))/(2*(K4^2)),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="24"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="25"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="62"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -17236,15 +17246,15 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="8">
+      <c r="K28" s="61">
         <f>IF(K19&gt;1,((K1*L5)+K11-(L5*SQRT(((2*K11)/K3))))/(K7+(L5*K4)),"-")</f>
-        <v>36.844803207086507</v>
+        <v>36.552999134484097</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -17252,12 +17262,12 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="8"/>
+      <c r="K29" s="61"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -17265,12 +17275,12 @@
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="8"/>
+      <c r="K30" s="61"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -17278,260 +17288,260 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="8"/>
+      <c r="K31" s="61"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>(A35*2)+SQRT((2*(A35*5))/K3)</f>
-        <v>4.2216737285146895</v>
+        <v>4.2416791983111022</v>
       </c>
       <c r="B32">
         <f>(B35*2)+SQRT((2*(B35*5))/$K$3)</f>
-        <v>7.1419211180334745</v>
+        <v>7.1702131247412071</v>
       </c>
       <c r="C32">
         <f t="shared" ref="C32:H32" si="0">(C35*2)+SQRT((2*(C35*5))/$K$3)</f>
-        <v>9.8480517756284254</v>
+        <v>9.8827022657450971</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>12.443347457029379</v>
+        <v>12.483358396622204</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>14.967813480784258</v>
+        <v>15.012547071170856</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>17.441967009807591</v>
+        <v>17.490970202873463</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>19.877996179975497</v>
+        <v>19.93092567791782</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>22.283842236066949</v>
+        <v>22.340426249482412</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ref="A33:Z33" si="1">A35*1+SQRT((2*($L$54)/$K$3))+((A36-$L$54)/$L$5)</f>
-        <v>6.0550595238095237</v>
+        <v>6.1425595238095232</v>
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>7.3122023809523808</v>
+        <v>7.3997023809523803</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>8.569345238095238</v>
+        <v>8.6568452380952365</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>9.826488095238096</v>
+        <v>9.9139880952380945</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>11.083630952380952</v>
+        <v>11.171130952380953</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>12.34077380952381</v>
+        <v>12.428273809523809</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>13.597916666666666</v>
+        <v>13.685416666666665</v>
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>14.855059523809524</v>
+        <v>14.942559523809523</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>16.112202380952382</v>
+        <v>16.199702380952381</v>
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>17.369345238095239</v>
+        <v>17.456845238095237</v>
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>18.626488095238095</v>
+        <v>18.713988095238093</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>19.883630952380951</v>
+        <v>19.971130952380953</v>
       </c>
       <c r="M33">
         <f t="shared" si="1"/>
-        <v>21.140773809523811</v>
+        <v>21.228273809523809</v>
       </c>
       <c r="N33">
         <f t="shared" si="1"/>
-        <v>22.397916666666667</v>
+        <v>22.485416666666666</v>
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>23.655059523809523</v>
+        <v>23.742559523809522</v>
       </c>
       <c r="P33">
         <f t="shared" si="1"/>
-        <v>24.91220238095238</v>
+        <v>24.999702380952382</v>
       </c>
       <c r="Q33">
         <f t="shared" si="1"/>
-        <v>26.169345238095239</v>
+        <v>26.256845238095238</v>
       </c>
       <c r="R33">
         <f t="shared" si="1"/>
-        <v>27.426488095238096</v>
+        <v>27.513988095238094</v>
       </c>
       <c r="S33">
         <f t="shared" si="1"/>
-        <v>28.683630952380952</v>
+        <v>28.77113095238095</v>
       </c>
       <c r="T33">
         <f t="shared" si="1"/>
-        <v>29.940773809523812</v>
+        <v>30.02827380952381</v>
       </c>
       <c r="U33">
         <f t="shared" si="1"/>
-        <v>31.197916666666668</v>
+        <v>31.285416666666666</v>
       </c>
       <c r="V33">
         <f t="shared" si="1"/>
-        <v>32.455059523809524</v>
+        <v>32.542559523809523</v>
       </c>
       <c r="W33">
         <f t="shared" si="1"/>
-        <v>33.712202380952384</v>
+        <v>33.799702380952382</v>
       </c>
       <c r="X33">
         <f t="shared" si="1"/>
-        <v>34.969345238095237</v>
+        <v>35.056845238095235</v>
       </c>
       <c r="Y33">
         <f t="shared" si="1"/>
-        <v>36.226488095238096</v>
+        <v>36.313988095238095</v>
       </c>
       <c r="Z33">
         <f t="shared" si="1"/>
-        <v>55.08363095238095</v>
+        <v>55.171130952380949</v>
       </c>
       <c r="AA33">
         <f>AA35*1+((AA36-$L$54)/$L$5)+ SQRT((2*($L$54)/$K$3))</f>
-        <v>105.36934523809524</v>
+        <v>105.45684523809524</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f>A35*1+SQRT((2*(A35*5))/K3)</f>
-        <v>3.221673728514689</v>
+        <v>3.2416791983111017</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" ref="B34:AA34" si="2">B35*1+SQRT((2*(B35*5))/$K$3)</f>
-        <v>5.1419211180334745</v>
+        <v>5.1702131247412071</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="2"/>
-        <v>6.8480517756284254</v>
+        <v>6.8827022657450971</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="2"/>
-        <v>8.4433474570293789</v>
+        <v>8.4833583966222044</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="2"/>
-        <v>9.9678134807842582</v>
+        <v>10.012547071170856</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="2"/>
-        <v>11.441967009807589</v>
+        <v>11.490970202873461</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="2"/>
-        <v>12.877996179975495</v>
+        <v>12.930925677917818</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="2"/>
-        <v>14.283842236066949</v>
+        <v>14.340426249482414</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="2"/>
-        <v>15.665021185544067</v>
+        <v>15.725037594933305</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="2"/>
-        <v>17.02554919986499</v>
+        <v>17.088812050083359</v>
       </c>
       <c r="K34" s="2">
         <f t="shared" si="2"/>
-        <v>18.368458164073129</v>
+        <v>18.434808801142619</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
-        <v>19.696103551256851</v>
+        <v>19.765404531490194</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="2"/>
-        <v>21.010358545510975</v>
+        <v>21.082489292651687</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="2"/>
-        <v>22.312741917298588</v>
+        <v>22.387595531138221</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="2"/>
-        <v>23.60450535124393</v>
+        <v>23.681986202598488</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="2"/>
-        <v>24.886694914058758</v>
+        <v>24.966716793244409</v>
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="2"/>
-        <v>26.160195448325879</v>
+        <v>26.242680113386591</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="2"/>
-        <v>27.425763354100425</v>
+        <v>27.510639374223622</v>
       </c>
       <c r="S34" s="2">
         <f t="shared" si="2"/>
-        <v>28.684051268114747</v>
+        <v>28.771253089275366</v>
       </c>
       <c r="T34" s="2">
         <f t="shared" si="2"/>
-        <v>29.935626961568516</v>
+        <v>30.025094142341711</v>
       </c>
       <c r="U34" s="2">
         <f t="shared" si="2"/>
-        <v>31.180988030413332</v>
+        <v>31.272664610068546</v>
       </c>
       <c r="V34" s="2">
         <f t="shared" si="2"/>
-        <v>32.420573469410975</v>
+        <v>32.514407440226741</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="2"/>
-        <v>33.654772901726446</v>
+        <v>33.750715764414764</v>
       </c>
       <c r="X34" s="2">
         <f t="shared" si="2"/>
-        <v>34.883934019615182</v>
+        <v>34.981940405746926</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="2"/>
-        <v>36.108368642573446</v>
+        <v>36.208395991555506</v>
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="2"/>
-        <v>54.05109839972998</v>
+        <v>54.177624100166717</v>
       </c>
       <c r="AA34" s="2">
         <f t="shared" si="2"/>
-        <v>99.871253923137033</v>
+        <v>100.05018828468343</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
@@ -17730,7 +17740,7 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E38" s="11"/>
@@ -17740,23 +17750,23 @@
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="33" t="s">
+      <c r="L38" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
       <c r="R38" t="s">
         <v>11</v>
       </c>
       <c r="S38">
         <f>(-(2*V40+((2*V41)/K3))^2)-4*V40^2</f>
-        <v>221.79582505415772</v>
+        <v>226.25691270422465</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D39" s="35"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -17764,21 +17774,21 @@
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
       <c r="R39" t="s">
         <v>12</v>
       </c>
       <c r="S39">
         <f>(((2*V40)+((2*V41)/K3))-SQRT(S38))/2</f>
-        <v>5.0215114844437867</v>
+        <v>4.9916434436704691</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D40" s="35"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -17786,11 +17796,11 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
       <c r="R40" s="1" t="s">
         <v>2</v>
       </c>
@@ -17806,7 +17816,7 @@
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D41" s="35"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -17814,13 +17824,13 @@
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="16" t="s">
+      <c r="L41" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
       <c r="R41" s="1" t="s">
         <v>3</v>
       </c>
@@ -17836,7 +17846,7 @@
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D42" s="35"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -17844,14 +17854,14 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D43" s="35"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -17859,14 +17869,14 @@
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D44" s="35"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
@@ -17874,13 +17884,13 @@
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
-      <c r="L44" s="17" t="s">
+      <c r="L44" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
       <c r="U44" s="1" t="s">
         <v>4</v>
       </c>
@@ -17889,7 +17899,7 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D45" s="35"/>
+      <c r="D45" s="32"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -17897,17 +17907,17 @@
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
       <c r="R45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="S45" s="1">
         <f>((V44*L5)+L54-(L5*SQRT(((2*L54)/K3))))/(V45+L5)</f>
-        <v>4.1380208333333321</v>
+        <v>4.0684185606060606</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>5</v>
@@ -17917,7 +17927,7 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D46" s="35"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -17925,14 +17935,14 @@
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D47" s="35"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -17940,16 +17950,16 @@
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
-      <c r="L47" s="17" t="s">
+      <c r="L47" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D48" s="35"/>
+      <c r="D48" s="32"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -17957,14 +17967,14 @@
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
     </row>
     <row r="49" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D49" s="35"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -17972,14 +17982,14 @@
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
     </row>
     <row r="50" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D50" s="35"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -17987,16 +17997,16 @@
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
-      <c r="L50" s="17" t="s">
+      <c r="L50" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
     </row>
     <row r="51" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D51" s="35"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -18004,14 +18014,14 @@
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
     </row>
     <row r="52" spans="4:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="35"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -18019,14 +18029,14 @@
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
     </row>
     <row r="53" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D53" s="35"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -18034,11 +18044,11 @@
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
     </row>
     <row r="54" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
@@ -18046,7 +18056,7 @@
       <c r="K54" s="11"/>
       <c r="L54" s="8">
         <f>0*K9+((K3*(K9^2))/2)</f>
-        <v>95.750385802469111</v>
+        <v>94.04899691358024</v>
       </c>
     </row>
     <row r="55" spans="4:16" x14ac:dyDescent="0.25">
@@ -18062,7 +18072,7 @@
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E58" s="11"/>
@@ -18070,404 +18080,404 @@
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="17" t="s">
+      <c r="J58" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
     </row>
     <row r="59" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D59" s="21"/>
+      <c r="D59" s="20"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
     </row>
     <row r="60" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D60" s="21"/>
+      <c r="D60" s="20"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
     </row>
     <row r="61" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D61" s="21"/>
+      <c r="D61" s="20"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="16" t="s">
+      <c r="J61" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
     </row>
     <row r="62" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D62" s="21"/>
+      <c r="D62" s="20"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
     </row>
     <row r="63" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D63" s="21"/>
+      <c r="D63" s="20"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
     </row>
     <row r="64" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D64" s="21"/>
+      <c r="D64" s="20"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
-      <c r="J64" s="17" t="s">
+      <c r="J64" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D65" s="21"/>
+      <c r="D65" s="20"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D66" s="21"/>
+      <c r="D66" s="20"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D67" s="21"/>
+      <c r="D67" s="20"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
-      <c r="J67" s="16" t="s">
+      <c r="J67" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D68" s="21"/>
+      <c r="D68" s="20"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D69" s="21"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D70" s="21"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="16" t="s">
+      <c r="J70" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D71" s="21"/>
+      <c r="D71" s="20"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D72" s="21"/>
+      <c r="D72" s="20"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D73" s="21"/>
+      <c r="D73" s="20"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
-      <c r="J73" s="17" t="s">
+      <c r="J73" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D74" s="21"/>
+      <c r="D74" s="20"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D75" s="21"/>
+      <c r="D75" s="20"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D76" s="21"/>
+      <c r="D76" s="20"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D77" s="21"/>
+      <c r="D77" s="20"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D78" s="21"/>
+      <c r="D78" s="20"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D79" s="21"/>
+      <c r="D79" s="20"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
-      <c r="J79" s="16" t="s">
+      <c r="J79" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D80" s="21"/>
+      <c r="D80" s="20"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D81" s="21"/>
+      <c r="D81" s="20"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D82" s="21"/>
+      <c r="D82" s="20"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
-      <c r="J82" s="15" t="s">
+      <c r="J82" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D83" s="21"/>
+      <c r="D83" s="20"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D84" s="21"/>
+      <c r="D84" s="20"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D85" s="21"/>
+      <c r="D85" s="20"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D86" s="21"/>
+      <c r="D86" s="20"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D87" s="21"/>
+      <c r="D87" s="20"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="101">
